--- a/JAMS/1차리뷰/논문수치계산.xlsx
+++ b/JAMS/1차리뷰/논문수치계산.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\Github\Raster_PV_Poten\JAMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\Github\Raster_PV_Poten\JAMS\1차리뷰\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8F919B-B820-4761-B38C-CB673BCD01CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8073DD09-98DE-4111-95B6-F11A46FC4E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{3A568D68-98E3-4C0A-84A1-4DCCBF5FEC80}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{3A568D68-98E3-4C0A-84A1-4DCCBF5FEC80}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="KEA_재생발전량" sheetId="5" r:id="rId2"/>
-    <sheet name="KEEI_지역발전량" sheetId="2" r:id="rId3"/>
-    <sheet name="KEEI_지역소비량" sheetId="3" r:id="rId4"/>
+    <sheet name="수정사항" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="KEA_재생발전량" sheetId="5" r:id="rId3"/>
+    <sheet name="KEEI_지역발전량" sheetId="2" r:id="rId4"/>
+    <sheet name="KEEI_지역소비량" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="145">
   <si>
     <t>2022년</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -526,6 +527,17 @@
   </si>
   <si>
     <t>발전량(PV시장잠재)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC랑 주요가정 수정해서, 다시 geocalculator</t>
+  </si>
+  <si>
+    <t>지리적 제약의 경기도 면적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림에서 시군구 경계 표시</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -537,9 +549,9 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="180" formatCode="#,##0_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1239,9 +1251,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1249,9 +1258,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1302,19 +1308,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="9" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
@@ -1341,9 +1344,6 @@
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1355,9 +1355,6 @@
     </xf>
     <xf numFmtId="41" fontId="9" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1373,6 +1370,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1817,105 +1829,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF530A9C-EEFD-4CCE-8F84-5BE1E43BE6A3}">
-  <dimension ref="A2:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F413839-46EB-4E86-9010-FD8440F93D28}">
+  <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.58203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:7">
-      <c r="C2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="C3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
       <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <f>KEEI_지역소비량!K76</f>
-        <v>140531.01199999999</v>
-      </c>
-      <c r="D4" s="31">
-        <f>KEEI_지역발전량!K37</f>
-        <v>85780.164000000004</v>
-      </c>
-      <c r="E4" s="32">
-        <f>D4/C4</f>
-        <v>0.61040024389776693</v>
-      </c>
-      <c r="G4" s="31">
-        <f>KEA_재생발전량!N20/1000</f>
-        <v>2133.5923777825546</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="D6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="D7" s="31">
-        <f>D4-G4</f>
-        <v>83646.571622217452</v>
-      </c>
-      <c r="E7" s="82">
-        <v>18124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="C10">
-        <f>C4</f>
-        <v>140531.01199999999</v>
-      </c>
-      <c r="D10" s="31">
-        <f>SUM(D7:E7)</f>
-        <v>101770.57162221745</v>
-      </c>
-      <c r="E10" s="32">
-        <f>D10/C10</f>
-        <v>0.72418585886378917</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1925,6 +1869,114 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF530A9C-EEFD-4CCE-8F84-5BE1E43BE6A3}">
+  <dimension ref="A2:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f>KEEI_지역소비량!K76</f>
+        <v>140531.01199999999</v>
+      </c>
+      <c r="D4" s="31">
+        <f>KEEI_지역발전량!K37</f>
+        <v>85780.164000000004</v>
+      </c>
+      <c r="E4" s="32">
+        <f>D4/C4</f>
+        <v>0.61040024389776693</v>
+      </c>
+      <c r="G4" s="31">
+        <f>KEA_재생발전량!N20/1000</f>
+        <v>2133.5923777825546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D7" s="31">
+        <f>D4-G4</f>
+        <v>83646.571622217452</v>
+      </c>
+      <c r="E7" s="77">
+        <v>18124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C10">
+        <f>C4</f>
+        <v>140531.01199999999</v>
+      </c>
+      <c r="D10" s="31">
+        <f>SUM(D7:E7)</f>
+        <v>101770.57162221745</v>
+      </c>
+      <c r="E10" s="32">
+        <f>D10/C10</f>
+        <v>0.72418585886378917</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3675085-88FF-4B84-8D84-84D85AD6A022}">
   <dimension ref="A1:Z90"/>
   <sheetViews>
@@ -1932,9 +1984,9 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="21">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.45">
       <c r="A1" s="33" t="s">
         <v>94</v>
       </c>
@@ -1957,7 +2009,7 @@
       <c r="U1" s="34"/>
       <c r="V1" s="34"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="E2" s="35"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
@@ -1977,7 +2029,7 @@
       <c r="U2" s="35"/>
       <c r="V2" s="35"/>
     </row>
-    <row r="3" spans="1:26" ht="21">
+    <row r="3" spans="1:26" ht="21" x14ac:dyDescent="0.45">
       <c r="B3" s="33" t="s">
         <v>95</v>
       </c>
@@ -2001,7 +2053,7 @@
       <c r="V3" s="34"/>
       <c r="Z3" s="36"/>
     </row>
-    <row r="4" spans="1:26" ht="21.5" thickBot="1">
+    <row r="4" spans="1:26" ht="21.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="33"/>
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
@@ -2026,984 +2078,984 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A5" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="M5" s="40" t="s">
+      <c r="M5" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="40" t="s">
+      <c r="N5" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="O5" s="40" t="s">
+      <c r="O5" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="P5" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="Q5" s="40" t="s">
+      <c r="Q5" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="R5" s="40" t="s">
+      <c r="R5" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="S5" s="40" t="s">
+      <c r="S5" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="T5" s="40" t="s">
+      <c r="T5" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="U5" s="40" t="s">
+      <c r="U5" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="V5" s="41" t="s">
+      <c r="V5" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="W5" s="38" t="s">
+      <c r="W5" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43" t="s">
+      <c r="X5" s="78"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="78"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="K6" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="44" t="s">
+      <c r="L6" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="44" t="s">
+      <c r="M6" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="44" t="s">
+      <c r="O6" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="P6" s="44" t="s">
+      <c r="P6" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="44" t="s">
+      <c r="Q6" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="R6" s="44" t="s">
+      <c r="R6" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="S6" s="44" t="s">
+      <c r="S6" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="T6" s="44" t="s">
+      <c r="T6" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="U6" s="44" t="s">
+      <c r="U6" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="V6" s="45" t="s">
+      <c r="V6" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46" t="s">
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="79"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45">
         <v>57779999.489337377</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="46">
         <v>723176.14752219128</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="46">
         <v>693589.7962981707</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="46">
         <v>293355.70860172022</v>
       </c>
-      <c r="I7" s="48">
+      <c r="I7" s="46">
         <v>1911643.3971798064</v>
       </c>
-      <c r="J7" s="48">
+      <c r="J7" s="46">
         <v>471271.49511680973</v>
       </c>
-      <c r="K7" s="48">
+      <c r="K7" s="46">
         <v>224281.06037730305</v>
       </c>
-      <c r="L7" s="48">
+      <c r="L7" s="46">
         <v>689744.12487918627</v>
       </c>
-      <c r="M7" s="48">
+      <c r="M7" s="46">
         <v>169374.79869024854</v>
       </c>
-      <c r="N7" s="48">
+      <c r="N7" s="46">
         <v>5269024.9525346281</v>
       </c>
-      <c r="O7" s="48">
+      <c r="O7" s="46">
         <v>6479492.7158004995</v>
       </c>
-      <c r="P7" s="48">
+      <c r="P7" s="46">
         <v>2785853.6942927432</v>
       </c>
-      <c r="Q7" s="48">
+      <c r="Q7" s="46">
         <v>9023827.1198858619</v>
       </c>
-      <c r="R7" s="48">
+      <c r="R7" s="46">
         <v>10385213.490696384</v>
       </c>
-      <c r="S7" s="48">
+      <c r="S7" s="46">
         <v>7481402.0975101385</v>
       </c>
-      <c r="T7" s="48">
+      <c r="T7" s="46">
         <v>5315056.8692562841</v>
       </c>
-      <c r="U7" s="48">
+      <c r="U7" s="46">
         <v>2867619.5351747614</v>
       </c>
-      <c r="V7" s="49">
+      <c r="V7" s="47">
         <v>2996072.4855206381</v>
       </c>
-      <c r="W7" s="46" t="s">
+      <c r="W7" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="48">
         <v>53154365.964380115</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="49">
         <v>464243.613316476</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="49">
         <v>564692.66432565451</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="49">
         <v>185954.3408637286</v>
       </c>
-      <c r="I8" s="51">
+      <c r="I8" s="49">
         <v>1770371.3334785744</v>
       </c>
-      <c r="J8" s="51">
+      <c r="J8" s="49">
         <v>376701.19934977195</v>
       </c>
-      <c r="K8" s="51">
+      <c r="K8" s="49">
         <v>112075.462096</v>
       </c>
-      <c r="L8" s="51">
+      <c r="L8" s="49">
         <v>383255.66690954054</v>
       </c>
-      <c r="M8" s="51">
+      <c r="M8" s="49">
         <v>129899.53665296867</v>
       </c>
-      <c r="N8" s="51">
+      <c r="N8" s="49">
         <v>4593271.6554460321</v>
       </c>
-      <c r="O8" s="51">
+      <c r="O8" s="49">
         <v>6226301.6186742876</v>
       </c>
-      <c r="P8" s="51">
+      <c r="P8" s="49">
         <v>2458114.8820273522</v>
       </c>
-      <c r="Q8" s="51">
+      <c r="Q8" s="49">
         <v>8500371.0039053373</v>
       </c>
-      <c r="R8" s="51">
+      <c r="R8" s="49">
         <v>10060734.697329206</v>
       </c>
-      <c r="S8" s="51">
+      <c r="S8" s="49">
         <v>7091287.6741177747</v>
       </c>
-      <c r="T8" s="51">
+      <c r="T8" s="49">
         <v>4943686.5851040985</v>
       </c>
-      <c r="U8" s="51">
+      <c r="U8" s="49">
         <v>2409540.7873722888</v>
       </c>
-      <c r="V8" s="52">
+      <c r="V8" s="50">
         <v>2883863.2434110185</v>
       </c>
       <c r="Y8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="48">
         <v>4625633.524957262</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="49">
         <v>258932.53420571532</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="49">
         <v>128897.13197251617</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="49">
         <v>107401.36773799162</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="49">
         <v>141272.06370123188</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="49">
         <v>94570.295767037795</v>
       </c>
-      <c r="K9" s="51">
+      <c r="K9" s="49">
         <v>112205.59828130303</v>
       </c>
-      <c r="L9" s="51">
+      <c r="L9" s="49">
         <v>306488.45796964568</v>
       </c>
-      <c r="M9" s="51">
+      <c r="M9" s="49">
         <v>39475.262037279877</v>
       </c>
-      <c r="N9" s="51">
+      <c r="N9" s="49">
         <v>675753.29708859627</v>
       </c>
-      <c r="O9" s="51">
+      <c r="O9" s="49">
         <v>253191.09712621168</v>
       </c>
-      <c r="P9" s="51">
+      <c r="P9" s="49">
         <v>327738.81226539088</v>
       </c>
-      <c r="Q9" s="51">
+      <c r="Q9" s="49">
         <v>523456.11598052375</v>
       </c>
-      <c r="R9" s="51">
+      <c r="R9" s="49">
         <v>324478.79336717661</v>
       </c>
-      <c r="S9" s="51">
+      <c r="S9" s="49">
         <v>390114.42339236336</v>
       </c>
-      <c r="T9" s="51">
+      <c r="T9" s="49">
         <v>371370.28415218531</v>
       </c>
-      <c r="U9" s="51">
+      <c r="U9" s="49">
         <v>458078.74780247262</v>
       </c>
-      <c r="V9" s="52">
+      <c r="V9" s="50">
         <v>112209.24210961949</v>
       </c>
       <c r="Y9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="52"/>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="50"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="45">
         <v>50405547.156776235</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="46">
         <v>388180.15503060597</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="46">
         <v>365616.71755806694</v>
       </c>
-      <c r="H11" s="48">
+      <c r="H11" s="46">
         <v>278408.72773063648</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="46">
         <v>564400.46304650465</v>
       </c>
-      <c r="J11" s="48">
+      <c r="J11" s="46">
         <v>406331.91330822901</v>
       </c>
-      <c r="K11" s="48">
+      <c r="K11" s="46">
         <v>139649.99925331189</v>
       </c>
-      <c r="L11" s="48">
+      <c r="L11" s="46">
         <v>472943.83650011069</v>
       </c>
-      <c r="M11" s="48">
+      <c r="M11" s="46">
         <v>128981.04554123557</v>
       </c>
-      <c r="N11" s="48">
+      <c r="N11" s="46">
         <v>3723947.7248881231</v>
       </c>
-      <c r="O11" s="48">
+      <c r="O11" s="46">
         <v>6203412.004569022</v>
       </c>
-      <c r="P11" s="48">
+      <c r="P11" s="46">
         <v>2579629.6047132849</v>
       </c>
-      <c r="Q11" s="48">
+      <c r="Q11" s="46">
         <v>6570279.3247190062</v>
       </c>
-      <c r="R11" s="48">
+      <c r="R11" s="46">
         <v>10274015.227091013</v>
       </c>
-      <c r="S11" s="48">
+      <c r="S11" s="46">
         <v>7189210.8538662698</v>
       </c>
-      <c r="T11" s="48">
+      <c r="T11" s="46">
         <v>5285823.8328041648</v>
       </c>
-      <c r="U11" s="48">
+      <c r="U11" s="46">
         <v>2839026.2856815327</v>
       </c>
-      <c r="V11" s="49">
+      <c r="V11" s="47">
         <v>2995689.4404751128</v>
       </c>
-      <c r="W11" s="46"/>
-      <c r="X11" s="46" t="s">
+      <c r="W11" s="44"/>
+      <c r="X11" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="46"/>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="44"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="48">
         <v>45859855.132820114</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="49">
         <v>137329.87128547602</v>
       </c>
-      <c r="G12" s="51">
+      <c r="G12" s="49">
         <v>239985.04459865455</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H12" s="49">
         <v>174410.07681372861</v>
       </c>
-      <c r="I12" s="51">
+      <c r="I12" s="49">
         <v>427586.08606257429</v>
       </c>
-      <c r="J12" s="51">
+      <c r="J12" s="49">
         <v>316377.31033977197</v>
       </c>
-      <c r="K12" s="51">
+      <c r="K12" s="49">
         <v>52470.010613000013</v>
       </c>
-      <c r="L12" s="51">
+      <c r="L12" s="49">
         <v>167847.10886254054</v>
       </c>
-      <c r="M12" s="51">
+      <c r="M12" s="49">
         <v>89576.008428968664</v>
       </c>
-      <c r="N12" s="51">
+      <c r="N12" s="49">
         <v>3060638.6037160326</v>
       </c>
-      <c r="O12" s="51">
+      <c r="O12" s="49">
         <v>5951085.9508372881</v>
       </c>
-      <c r="P12" s="51">
+      <c r="P12" s="49">
         <v>2252893.0936503522</v>
       </c>
-      <c r="Q12" s="51">
+      <c r="Q12" s="49">
         <v>6049239.5845673382</v>
       </c>
-      <c r="R12" s="51">
+      <c r="R12" s="49">
         <v>9951295.2488912065</v>
       </c>
-      <c r="S12" s="51">
+      <c r="S12" s="49">
         <v>6801583.0312277749</v>
       </c>
-      <c r="T12" s="51">
+      <c r="T12" s="49">
         <v>4919522.5114210984</v>
       </c>
-      <c r="U12" s="51">
+      <c r="U12" s="49">
         <v>2384152.348093289</v>
       </c>
-      <c r="V12" s="52">
+      <c r="V12" s="50">
         <v>2883863.2434110185</v>
       </c>
       <c r="Y12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="48">
         <v>4545692.0239561163</v>
       </c>
-      <c r="F13" s="51">
+      <c r="F13" s="49">
         <v>250850.28374512991</v>
       </c>
-      <c r="G13" s="51">
+      <c r="G13" s="49">
         <v>125631.67295941236</v>
       </c>
-      <c r="H13" s="51">
+      <c r="H13" s="49">
         <v>103998.65091690788</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="49">
         <v>136814.37698393033</v>
       </c>
-      <c r="J13" s="51">
+      <c r="J13" s="49">
         <v>89954.602968457024</v>
       </c>
-      <c r="K13" s="51">
+      <c r="K13" s="49">
         <v>87179.988640311873</v>
       </c>
-      <c r="L13" s="51">
+      <c r="L13" s="49">
         <v>305096.72763757018</v>
       </c>
-      <c r="M13" s="51">
+      <c r="M13" s="49">
         <v>39405.037112266895</v>
       </c>
-      <c r="N13" s="51">
+      <c r="N13" s="49">
         <v>663309.12117209064</v>
       </c>
-      <c r="O13" s="51">
+      <c r="O13" s="49">
         <v>252326.05373173355</v>
       </c>
-      <c r="P13" s="51">
+      <c r="P13" s="49">
         <v>326736.51106293284</v>
       </c>
-      <c r="Q13" s="51">
+      <c r="Q13" s="49">
         <v>521039.74015166785</v>
       </c>
-      <c r="R13" s="51">
+      <c r="R13" s="49">
         <v>322719.97819980595</v>
       </c>
-      <c r="S13" s="51">
+      <c r="S13" s="49">
         <v>387627.82263849449</v>
       </c>
-      <c r="T13" s="51">
+      <c r="T13" s="49">
         <v>366301.32138306618</v>
       </c>
-      <c r="U13" s="51">
+      <c r="U13" s="49">
         <v>454873.93758824363</v>
       </c>
-      <c r="V13" s="52">
+      <c r="V13" s="50">
         <v>111826.19706409411</v>
       </c>
       <c r="Y13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
-      <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="52"/>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46" t="s">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="50"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="45">
         <v>7374452.3325611455</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="46">
         <v>334995.99249158538</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="46">
         <v>327973.07874010381</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H15" s="46">
         <v>14946.980871083744</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="46">
         <v>1347242.9341333017</v>
       </c>
-      <c r="J15" s="48">
+      <c r="J15" s="46">
         <v>64939.581808580762</v>
       </c>
-      <c r="K15" s="48">
+      <c r="K15" s="46">
         <v>84631.061123991152</v>
       </c>
-      <c r="L15" s="48">
+      <c r="L15" s="46">
         <v>216800.28837907553</v>
       </c>
-      <c r="M15" s="48">
+      <c r="M15" s="46">
         <v>40393.753149012984</v>
       </c>
-      <c r="N15" s="48">
+      <c r="N15" s="46">
         <v>1545077.2276465055</v>
       </c>
-      <c r="O15" s="48">
+      <c r="O15" s="46">
         <v>276080.71123147814</v>
       </c>
-      <c r="P15" s="48">
+      <c r="P15" s="46">
         <v>206224.08957945806</v>
       </c>
-      <c r="Q15" s="48">
+      <c r="Q15" s="46">
         <v>2453547.7951668561</v>
       </c>
-      <c r="R15" s="48">
+      <c r="R15" s="46">
         <v>111198.26360537068</v>
       </c>
-      <c r="S15" s="48">
+      <c r="S15" s="46">
         <v>292191.24364386889</v>
       </c>
-      <c r="T15" s="48">
+      <c r="T15" s="46">
         <v>29233.036452119122</v>
       </c>
-      <c r="U15" s="48">
+      <c r="U15" s="46">
         <v>28593.249493228966</v>
       </c>
-      <c r="V15" s="49">
+      <c r="V15" s="47">
         <v>383.04504552537469</v>
       </c>
-      <c r="W15" s="46"/>
-      <c r="X15" s="46" t="s">
+      <c r="W15" s="44"/>
+      <c r="X15" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="48">
         <v>7294510.8315599998</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="49">
         <v>326913.74203099997</v>
       </c>
-      <c r="G16" s="51">
+      <c r="G16" s="49">
         <v>324707.61972700001</v>
       </c>
-      <c r="H16" s="51">
+      <c r="H16" s="49">
         <v>11544.26405</v>
       </c>
-      <c r="I16" s="51">
+      <c r="I16" s="49">
         <v>1342785.2474160001</v>
       </c>
-      <c r="J16" s="51">
+      <c r="J16" s="49">
         <v>60323.889009999999</v>
       </c>
-      <c r="K16" s="51">
+      <c r="K16" s="49">
         <v>59605.451482999997</v>
       </c>
-      <c r="L16" s="51">
+      <c r="L16" s="49">
         <v>215408.558047</v>
       </c>
-      <c r="M16" s="51">
+      <c r="M16" s="49">
         <v>40323.528224000002</v>
       </c>
-      <c r="N16" s="51">
+      <c r="N16" s="49">
         <v>1532633.0517299999</v>
       </c>
-      <c r="O16" s="51">
+      <c r="O16" s="49">
         <v>275215.66783699999</v>
       </c>
-      <c r="P16" s="51">
+      <c r="P16" s="49">
         <v>205221.78837699999</v>
       </c>
-      <c r="Q16" s="51">
+      <c r="Q16" s="49">
         <v>2451131.419338</v>
       </c>
-      <c r="R16" s="51">
+      <c r="R16" s="49">
         <v>109439.44843800001</v>
       </c>
-      <c r="S16" s="51">
+      <c r="S16" s="49">
         <v>289704.64289000002</v>
       </c>
-      <c r="T16" s="51">
+      <c r="T16" s="49">
         <v>24164.073682999999</v>
       </c>
-      <c r="U16" s="51">
+      <c r="U16" s="49">
         <v>25388.439278999998</v>
       </c>
-      <c r="V16" s="52">
+      <c r="V16" s="50">
         <v>0</v>
       </c>
       <c r="Y16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="50">
+      <c r="E17" s="48">
         <v>79941.501001145705</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="49">
         <v>8082.2504605854056</v>
       </c>
-      <c r="G17" s="51">
+      <c r="G17" s="49">
         <v>3265.459013103819</v>
       </c>
-      <c r="H17" s="51">
+      <c r="H17" s="49">
         <v>3402.7168210837449</v>
       </c>
-      <c r="I17" s="51">
+      <c r="I17" s="49">
         <v>4457.686717301548</v>
       </c>
-      <c r="J17" s="51">
+      <c r="J17" s="49">
         <v>4615.6927985807652</v>
       </c>
-      <c r="K17" s="51">
+      <c r="K17" s="49">
         <v>25025.609640991152</v>
       </c>
-      <c r="L17" s="51">
+      <c r="L17" s="49">
         <v>1391.7303320755279</v>
       </c>
-      <c r="M17" s="51">
+      <c r="M17" s="49">
         <v>70.224925012985352</v>
       </c>
-      <c r="N17" s="51">
+      <c r="N17" s="49">
         <v>12444.17591650561</v>
       </c>
-      <c r="O17" s="51">
+      <c r="O17" s="49">
         <v>865.04339447813777</v>
       </c>
-      <c r="P17" s="51">
+      <c r="P17" s="49">
         <v>1002.301202458064</v>
       </c>
-      <c r="Q17" s="51">
+      <c r="Q17" s="49">
         <v>2416.3758288559052</v>
       </c>
-      <c r="R17" s="51">
+      <c r="R17" s="49">
         <v>1758.8151673706791</v>
       </c>
-      <c r="S17" s="51">
+      <c r="S17" s="49">
         <v>2486.6007538688909</v>
       </c>
-      <c r="T17" s="51">
+      <c r="T17" s="49">
         <v>5068.9627691191254</v>
       </c>
-      <c r="U17" s="51">
+      <c r="U17" s="49">
         <v>3204.810214228969</v>
       </c>
-      <c r="V17" s="52">
+      <c r="V17" s="50">
         <v>383.04504552537469</v>
       </c>
       <c r="Y17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46" t="s">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="53">
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="51">
         <v>1</v>
       </c>
-      <c r="F18" s="54">
+      <c r="F18" s="52">
         <v>1.2516028970468319E-2</v>
       </c>
-      <c r="G18" s="54">
+      <c r="G18" s="52">
         <v>1.200397719674893E-2</v>
       </c>
-      <c r="H18" s="54">
+      <c r="H18" s="52">
         <v>5.0771151123989817E-3</v>
       </c>
-      <c r="I18" s="54">
+      <c r="I18" s="52">
         <v>3.3084863518086011E-2</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="52">
         <v>8.1563083987873236E-3</v>
       </c>
-      <c r="K18" s="54">
+      <c r="K18" s="52">
         <v>3.8816383239790699E-3</v>
       </c>
-      <c r="L18" s="54">
+      <c r="L18" s="52">
         <v>1.1937420058414338E-2</v>
       </c>
-      <c r="M18" s="54">
+      <c r="M18" s="52">
         <v>2.931374181155967E-3</v>
       </c>
-      <c r="N18" s="54">
+      <c r="N18" s="52">
         <v>9.1191156093848091E-2</v>
       </c>
-      <c r="O18" s="54">
+      <c r="O18" s="52">
         <v>0.11214075412022484</v>
       </c>
-      <c r="P18" s="54">
+      <c r="P18" s="52">
         <v>4.8214844564109766E-2</v>
       </c>
-      <c r="Q18" s="54">
+      <c r="Q18" s="52">
         <v>0.15617561785460216</v>
       </c>
-      <c r="R18" s="54">
+      <c r="R18" s="52">
         <v>0.17973716826724537</v>
       </c>
-      <c r="S18" s="54">
+      <c r="S18" s="52">
         <v>0.12948082664643748</v>
       </c>
-      <c r="T18" s="54">
+      <c r="T18" s="52">
         <v>9.1987831710471299E-2</v>
       </c>
-      <c r="U18" s="54">
+      <c r="U18" s="52">
         <v>4.9629968164052116E-2</v>
       </c>
-      <c r="V18" s="55">
+      <c r="V18" s="53">
         <v>5.1853106818969916E-2</v>
       </c>
-      <c r="W18" s="46" t="s">
+      <c r="W18" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="58"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="56"/>
       <c r="W19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="59" t="s">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A20" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47">
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45">
         <v>30726259.595053568</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="46">
         <v>290528.13518692879</v>
       </c>
-      <c r="G20" s="48">
+      <c r="G20" s="46">
         <v>324351.16958282993</v>
       </c>
-      <c r="H20" s="48">
+      <c r="H20" s="46">
         <v>253577.21547016781</v>
       </c>
-      <c r="I20" s="48">
+      <c r="I20" s="46">
         <v>258249.34692871859</v>
       </c>
-      <c r="J20" s="48">
+      <c r="J20" s="46">
         <v>390494.05223761877</v>
       </c>
-      <c r="K20" s="48">
+      <c r="K20" s="46">
         <v>135264.6094631663</v>
       </c>
-      <c r="L20" s="48">
+      <c r="L20" s="46">
         <v>177457.73468284649</v>
       </c>
-      <c r="M20" s="48">
+      <c r="M20" s="46">
         <v>112269.9740658192</v>
       </c>
-      <c r="N20" s="48">
+      <c r="N20" s="46">
         <v>2133592.3777825548</v>
       </c>
-      <c r="O20" s="48">
+      <c r="O20" s="46">
         <v>2181577.9820139608</v>
       </c>
-      <c r="P20" s="48">
+      <c r="P20" s="46">
         <v>1711676.1541134701</v>
       </c>
-      <c r="Q20" s="48">
+      <c r="Q20" s="46">
         <v>3693682.4199093711</v>
       </c>
-      <c r="R20" s="48">
+      <c r="R20" s="46">
         <v>5534008.9281228334</v>
       </c>
-      <c r="S20" s="48">
+      <c r="S20" s="46">
         <v>6376157.5349347694</v>
       </c>
-      <c r="T20" s="48">
+      <c r="T20" s="46">
         <v>4085779.7022377402</v>
       </c>
-      <c r="U20" s="48">
+      <c r="U20" s="46">
         <v>2279852.964014519</v>
       </c>
-      <c r="V20" s="49">
+      <c r="V20" s="47">
         <v>787739.29430625471</v>
       </c>
-      <c r="W20" s="46" t="s">
+      <c r="W20" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="59" t="s">
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="80" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
-      <c r="A21" s="59"/>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A21" s="80"/>
       <c r="B21" t="s">
         <v>105</v>
       </c>
       <c r="D21" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="50">
+      <c r="E21" s="48">
         <v>26682923.661719002</v>
       </c>
-      <c r="F21" s="51">
+      <c r="F21" s="49">
         <v>52124.15481700001</v>
       </c>
-      <c r="G21" s="51">
+      <c r="G21" s="49">
         <v>203829.84477699999</v>
       </c>
-      <c r="H21" s="51">
+      <c r="H21" s="49">
         <v>154257.26170199999</v>
       </c>
-      <c r="I21" s="51">
+      <c r="I21" s="49">
         <v>125697.164829</v>
       </c>
-      <c r="J21" s="51">
+      <c r="J21" s="49">
         <v>300547.16930200002</v>
       </c>
-      <c r="K21" s="51">
+      <c r="K21" s="49">
         <v>52470.010613000013</v>
       </c>
-      <c r="L21" s="51">
+      <c r="L21" s="49">
         <v>108421.172294</v>
       </c>
-      <c r="M21" s="51">
+      <c r="M21" s="49">
         <v>73232.134065999999</v>
       </c>
-      <c r="N21" s="51">
+      <c r="N21" s="49">
         <v>1492491.0437469999</v>
       </c>
-      <c r="O21" s="51">
+      <c r="O21" s="49">
         <v>1931527.3063469999</v>
       </c>
-      <c r="P21" s="51">
+      <c r="P21" s="49">
         <v>1389815.533239</v>
       </c>
-      <c r="Q21" s="51">
+      <c r="Q21" s="49">
         <v>3345851.020333</v>
       </c>
-      <c r="R21" s="51">
+      <c r="R21" s="49">
         <v>5211343.9551570006</v>
       </c>
-      <c r="S21" s="51">
+      <c r="S21" s="49">
         <v>5991772.0543930009</v>
       </c>
-      <c r="T21" s="51">
+      <c r="T21" s="49">
         <v>3732453.617137</v>
       </c>
-      <c r="U21" s="51">
+      <c r="U21" s="49">
         <v>1837387.129251</v>
       </c>
-      <c r="V21" s="52">
+      <c r="V21" s="50">
         <v>679703.08971500001</v>
       </c>
       <c r="W21" t="s">
@@ -3012,68 +3064,68 @@
       <c r="Y21" t="s">
         <v>99</v>
       </c>
-      <c r="Z21" s="59"/>
-    </row>
-    <row r="22" spans="1:26">
-      <c r="A22" s="59"/>
+      <c r="Z21" s="80"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A22" s="80"/>
       <c r="B22" t="s">
         <v>105</v>
       </c>
       <c r="D22" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="50">
+      <c r="E22" s="48">
         <v>4043335.933334568</v>
       </c>
-      <c r="F22" s="51">
+      <c r="F22" s="49">
         <v>238403.98036992879</v>
       </c>
-      <c r="G22" s="51">
+      <c r="G22" s="49">
         <v>120521.32480582991</v>
       </c>
-      <c r="H22" s="51">
+      <c r="H22" s="49">
         <v>99319.953768167776</v>
       </c>
-      <c r="I22" s="51">
+      <c r="I22" s="49">
         <v>132552.1820997186</v>
       </c>
-      <c r="J22" s="51">
+      <c r="J22" s="49">
         <v>89946.882935618749</v>
       </c>
-      <c r="K22" s="51">
+      <c r="K22" s="49">
         <v>82794.598850166294</v>
       </c>
-      <c r="L22" s="51">
+      <c r="L22" s="49">
         <v>69036.562388846462</v>
       </c>
-      <c r="M22" s="51">
+      <c r="M22" s="49">
         <v>39037.839999819211</v>
       </c>
-      <c r="N22" s="51">
+      <c r="N22" s="49">
         <v>641101.33403555478</v>
       </c>
-      <c r="O22" s="51">
+      <c r="O22" s="49">
         <v>250050.6756669615</v>
       </c>
-      <c r="P22" s="51">
+      <c r="P22" s="49">
         <v>321860.62087447027</v>
       </c>
-      <c r="Q22" s="51">
+      <c r="Q22" s="49">
         <v>347831.39957637049</v>
       </c>
-      <c r="R22" s="51">
+      <c r="R22" s="49">
         <v>322664.97296583321</v>
       </c>
-      <c r="S22" s="51">
+      <c r="S22" s="49">
         <v>384385.48054176877</v>
       </c>
-      <c r="T22" s="51">
+      <c r="T22" s="49">
         <v>353326.08510073979</v>
       </c>
-      <c r="U22" s="51">
+      <c r="U22" s="49">
         <v>442465.83476351842</v>
       </c>
-      <c r="V22" s="52">
+      <c r="V22" s="50">
         <v>108036.2045912547</v>
       </c>
       <c r="W22" t="s">
@@ -3082,410 +3134,410 @@
       <c r="Y22" t="s">
         <v>100</v>
       </c>
-      <c r="Z22" s="59"/>
-    </row>
-    <row r="23" spans="1:26">
-      <c r="A23" s="59"/>
-      <c r="B23" s="46" t="s">
+      <c r="Z22" s="80"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A23" s="80"/>
+      <c r="B23" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47">
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="45">
         <v>3369457.624838409</v>
       </c>
-      <c r="F23" s="48">
+      <c r="F23" s="46">
         <v>202.2648603628484</v>
       </c>
-      <c r="G23" s="48">
+      <c r="G23" s="46">
         <v>68.823270094825489</v>
       </c>
-      <c r="H23" s="48">
+      <c r="H23" s="46">
         <v>25.707709351461268</v>
       </c>
-      <c r="I23" s="48">
+      <c r="I23" s="46">
         <v>38773.948697606189</v>
       </c>
-      <c r="J23" s="48">
+      <c r="J23" s="46">
         <v>7.7200328382766568</v>
       </c>
-      <c r="K23" s="48">
+      <c r="K23" s="46">
         <v>386.00164191383288</v>
       </c>
-      <c r="L23" s="48">
+      <c r="L23" s="46">
         <v>250.03687881186389</v>
       </c>
-      <c r="M23" s="48">
-        <v>0</v>
-      </c>
-      <c r="N23" s="48">
+      <c r="M23" s="46">
+        <v>0</v>
+      </c>
+      <c r="N23" s="46">
         <v>4494.5952721810336</v>
       </c>
-      <c r="O23" s="48">
+      <c r="O23" s="46">
         <v>954664.16193807055</v>
       </c>
-      <c r="P23" s="48">
+      <c r="P23" s="46">
         <v>73.340311963628238</v>
       </c>
-      <c r="Q23" s="48">
+      <c r="Q23" s="46">
         <v>2132.806848242476</v>
       </c>
-      <c r="R23" s="48">
+      <c r="R23" s="46">
         <v>161685.9662159727</v>
       </c>
-      <c r="S23" s="48">
+      <c r="S23" s="46">
         <v>585571.33063672564</v>
       </c>
-      <c r="T23" s="48">
+      <c r="T23" s="46">
         <v>913760.4846589712</v>
       </c>
-      <c r="U23" s="48">
+      <c r="U23" s="46">
         <v>133380.00422516931</v>
       </c>
-      <c r="V23" s="49">
+      <c r="V23" s="47">
         <v>573980.43164013384</v>
       </c>
-      <c r="W23" s="60" t="s">
+      <c r="W23" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="X23" s="60"/>
-      <c r="Y23" s="60"/>
-      <c r="Z23" s="59"/>
-    </row>
-    <row r="24" spans="1:26">
-      <c r="A24" s="59"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="80"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A24" s="80"/>
       <c r="B24" t="s">
         <v>105</v>
       </c>
       <c r="D24" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="50">
+      <c r="E24" s="48">
         <v>3358849.6488430002</v>
       </c>
-      <c r="F24" s="51">
-        <v>0</v>
-      </c>
-      <c r="G24" s="51">
+      <c r="F24" s="49">
+        <v>0</v>
+      </c>
+      <c r="G24" s="49">
         <v>5.3259999999999996</v>
       </c>
-      <c r="H24" s="51">
-        <v>0</v>
-      </c>
-      <c r="I24" s="51">
+      <c r="H24" s="49">
+        <v>0</v>
+      </c>
+      <c r="I24" s="49">
         <v>38510.502576999999</v>
       </c>
-      <c r="J24" s="51">
-        <v>0</v>
-      </c>
-      <c r="K24" s="51">
-        <v>0</v>
-      </c>
-      <c r="L24" s="51">
+      <c r="J24" s="49">
+        <v>0</v>
+      </c>
+      <c r="K24" s="49">
+        <v>0</v>
+      </c>
+      <c r="L24" s="49">
         <v>231.50880000000001</v>
       </c>
-      <c r="M24" s="51">
-        <v>0</v>
-      </c>
-      <c r="N24" s="51">
+      <c r="M24" s="49">
+        <v>0</v>
+      </c>
+      <c r="N24" s="49">
         <v>4418.1476469999998</v>
       </c>
-      <c r="O24" s="51">
+      <c r="O24" s="49">
         <v>952471.67261200002</v>
       </c>
-      <c r="P24" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="51">
+      <c r="P24" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="49">
         <v>2021.0454</v>
       </c>
-      <c r="R24" s="51">
+      <c r="R24" s="49">
         <v>161630.96098199999</v>
       </c>
-      <c r="S24" s="51">
+      <c r="S24" s="49">
         <v>582492.38853999996</v>
       </c>
-      <c r="T24" s="51">
+      <c r="T24" s="49">
         <v>912959.53125200002</v>
       </c>
-      <c r="U24" s="51">
+      <c r="U24" s="49">
         <v>131768.64037099999</v>
       </c>
-      <c r="V24" s="52">
+      <c r="V24" s="50">
         <v>572339.92466200003</v>
       </c>
-      <c r="W24" s="61" t="s">
+      <c r="W24" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="X24" s="61"/>
+      <c r="X24" s="58"/>
       <c r="Y24" t="s">
         <v>99</v>
       </c>
-      <c r="Z24" s="59"/>
-    </row>
-    <row r="25" spans="1:26">
-      <c r="A25" s="59"/>
+      <c r="Z24" s="80"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A25" s="80"/>
       <c r="B25" t="s">
         <v>105</v>
       </c>
       <c r="D25" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="50">
+      <c r="E25" s="48">
         <v>10607.97599540971</v>
       </c>
-      <c r="F25" s="51">
+      <c r="F25" s="49">
         <v>202.2648603628484</v>
       </c>
-      <c r="G25" s="51">
+      <c r="G25" s="49">
         <v>63.497270094825502</v>
       </c>
-      <c r="H25" s="51">
+      <c r="H25" s="49">
         <v>25.707709351461268</v>
       </c>
-      <c r="I25" s="51">
+      <c r="I25" s="49">
         <v>263.4461206061909</v>
       </c>
-      <c r="J25" s="51">
+      <c r="J25" s="49">
         <v>7.7200328382766568</v>
       </c>
-      <c r="K25" s="51">
+      <c r="K25" s="49">
         <v>386.00164191383288</v>
       </c>
-      <c r="L25" s="51">
+      <c r="L25" s="49">
         <v>18.528078811863971</v>
       </c>
-      <c r="M25" s="51">
-        <v>0</v>
-      </c>
-      <c r="N25" s="51">
+      <c r="M25" s="49">
+        <v>0</v>
+      </c>
+      <c r="N25" s="49">
         <v>76.447625181034596</v>
       </c>
-      <c r="O25" s="51">
+      <c r="O25" s="49">
         <v>2192.4893260705699</v>
       </c>
-      <c r="P25" s="51">
+      <c r="P25" s="49">
         <v>73.340311963628238</v>
       </c>
-      <c r="Q25" s="51">
+      <c r="Q25" s="49">
         <v>111.76144824247631</v>
       </c>
-      <c r="R25" s="51">
+      <c r="R25" s="49">
         <v>55.005233972721179</v>
       </c>
-      <c r="S25" s="51">
+      <c r="S25" s="49">
         <v>3078.9420967256879</v>
       </c>
-      <c r="T25" s="51">
+      <c r="T25" s="49">
         <v>800.95340697120309</v>
       </c>
-      <c r="U25" s="51">
+      <c r="U25" s="49">
         <v>1611.3638541692951</v>
       </c>
-      <c r="V25" s="52">
+      <c r="V25" s="50">
         <v>1640.50697813379</v>
       </c>
-      <c r="W25" s="61" t="s">
+      <c r="W25" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="X25" s="61"/>
+      <c r="X25" s="58"/>
       <c r="Y25" t="s">
         <v>100</v>
       </c>
-      <c r="Z25" s="59"/>
-    </row>
-    <row r="26" spans="1:26">
-      <c r="A26" s="59"/>
-      <c r="B26" s="46" t="s">
+      <c r="Z25" s="80"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A26" s="80"/>
+      <c r="B26" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47">
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="45">
         <v>3544865.910705999</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F26" s="46">
         <v>378.92700000000002</v>
       </c>
-      <c r="G26" s="48">
+      <c r="G26" s="46">
         <v>243.96199999999999</v>
       </c>
-      <c r="H26" s="48">
+      <c r="H26" s="46">
         <v>14965.960104</v>
       </c>
-      <c r="I26" s="48">
+      <c r="I26" s="46">
         <v>30287.599128000002</v>
       </c>
-      <c r="J26" s="48">
+      <c r="J26" s="46">
         <v>6269.3791440000005</v>
       </c>
-      <c r="K26" s="48">
+      <c r="K26" s="46">
         <v>121.611</v>
       </c>
-      <c r="L26" s="48">
+      <c r="L26" s="46">
         <v>437.35020100000003</v>
       </c>
-      <c r="M26" s="48">
-        <v>0</v>
-      </c>
-      <c r="N26" s="48">
+      <c r="M26" s="46">
+        <v>0</v>
+      </c>
+      <c r="N26" s="46">
         <v>717533.35703500011</v>
       </c>
-      <c r="O26" s="48">
+      <c r="O26" s="46">
         <v>1169315.0344529999</v>
       </c>
-      <c r="P26" s="48">
+      <c r="P26" s="46">
         <v>824420.59832699993</v>
       </c>
-      <c r="Q26" s="48">
+      <c r="Q26" s="46">
         <v>52379.43304399999</v>
       </c>
-      <c r="R26" s="48">
+      <c r="R26" s="46">
         <v>212887.53889299999</v>
       </c>
-      <c r="S26" s="48">
+      <c r="S26" s="46">
         <v>56038.624615999986</v>
       </c>
-      <c r="T26" s="48">
+      <c r="T26" s="46">
         <v>238519.932023</v>
       </c>
-      <c r="U26" s="48">
+      <c r="U26" s="46">
         <v>218237.80171199999</v>
       </c>
-      <c r="V26" s="49">
+      <c r="V26" s="47">
         <v>2828.8020259999998</v>
       </c>
-      <c r="W26" s="46" t="s">
+      <c r="W26" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="59"/>
-    </row>
-    <row r="27" spans="1:26">
-      <c r="A27" s="59"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="80"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A27" s="80"/>
       <c r="D27" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="50">
+      <c r="E27" s="48">
         <v>3541073.2027059998</v>
       </c>
-      <c r="F27" s="51">
+      <c r="F27" s="49">
         <v>378.92700000000002</v>
       </c>
-      <c r="G27" s="51">
+      <c r="G27" s="49">
         <v>32.429000000000002</v>
       </c>
-      <c r="H27" s="51">
+      <c r="H27" s="49">
         <v>14965.960104</v>
       </c>
-      <c r="I27" s="51">
+      <c r="I27" s="49">
         <v>28437.936128000001</v>
       </c>
-      <c r="J27" s="51">
+      <c r="J27" s="49">
         <v>6269.3791440000005</v>
       </c>
-      <c r="K27" s="51">
-        <v>0</v>
-      </c>
-      <c r="L27" s="51">
+      <c r="K27" s="49">
+        <v>0</v>
+      </c>
+      <c r="L27" s="49">
         <v>437.35020100000003</v>
       </c>
-      <c r="M27" s="51">
-        <v>0</v>
-      </c>
-      <c r="N27" s="51">
+      <c r="M27" s="49">
+        <v>0</v>
+      </c>
+      <c r="N27" s="49">
         <v>716125.83603500016</v>
       </c>
-      <c r="O27" s="51">
+      <c r="O27" s="49">
         <v>1169315.0344529999</v>
       </c>
-      <c r="P27" s="51">
+      <c r="P27" s="49">
         <v>824420.59832699993</v>
       </c>
-      <c r="Q27" s="51">
+      <c r="Q27" s="49">
         <v>52367.430043999993</v>
       </c>
-      <c r="R27" s="51">
+      <c r="R27" s="49">
         <v>212887.53889299999</v>
       </c>
-      <c r="S27" s="51">
+      <c r="S27" s="49">
         <v>56038.624615999986</v>
       </c>
-      <c r="T27" s="51">
+      <c r="T27" s="49">
         <v>238519.932023</v>
       </c>
-      <c r="U27" s="51">
+      <c r="U27" s="49">
         <v>218237.80171199999</v>
       </c>
-      <c r="V27" s="52">
+      <c r="V27" s="50">
         <v>2638.4250259999999</v>
       </c>
       <c r="Y27" t="s">
         <v>99</v>
       </c>
-      <c r="Z27" s="59"/>
-    </row>
-    <row r="28" spans="1:26">
-      <c r="A28" s="59"/>
+      <c r="Z27" s="80"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A28" s="80"/>
       <c r="B28" t="s">
         <v>105</v>
       </c>
       <c r="D28" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="50">
+      <c r="E28" s="48">
         <v>3792.7080000000001</v>
       </c>
-      <c r="F28" s="51">
-        <v>0</v>
-      </c>
-      <c r="G28" s="51">
+      <c r="F28" s="49">
+        <v>0</v>
+      </c>
+      <c r="G28" s="49">
         <v>211.53299999999999</v>
       </c>
-      <c r="H28" s="51">
-        <v>0</v>
-      </c>
-      <c r="I28" s="51">
+      <c r="H28" s="49">
+        <v>0</v>
+      </c>
+      <c r="I28" s="49">
         <v>1849.663</v>
       </c>
-      <c r="J28" s="51">
-        <v>0</v>
-      </c>
-      <c r="K28" s="51">
+      <c r="J28" s="49">
+        <v>0</v>
+      </c>
+      <c r="K28" s="49">
         <v>121.611</v>
       </c>
-      <c r="L28" s="51">
-        <v>0</v>
-      </c>
-      <c r="M28" s="51">
-        <v>0</v>
-      </c>
-      <c r="N28" s="51">
+      <c r="L28" s="49">
+        <v>0</v>
+      </c>
+      <c r="M28" s="49">
+        <v>0</v>
+      </c>
+      <c r="N28" s="49">
         <v>1407.521</v>
       </c>
-      <c r="O28" s="51">
-        <v>0</v>
-      </c>
-      <c r="P28" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="51">
+      <c r="O28" s="49">
+        <v>0</v>
+      </c>
+      <c r="P28" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="49">
         <v>12.003</v>
       </c>
-      <c r="R28" s="51">
-        <v>0</v>
-      </c>
-      <c r="S28" s="51">
-        <v>0</v>
-      </c>
-      <c r="T28" s="51">
-        <v>0</v>
-      </c>
-      <c r="U28" s="51">
-        <v>0</v>
-      </c>
-      <c r="V28" s="52">
+      <c r="R28" s="49">
+        <v>0</v>
+      </c>
+      <c r="S28" s="49">
+        <v>0</v>
+      </c>
+      <c r="T28" s="49">
+        <v>0</v>
+      </c>
+      <c r="U28" s="49">
+        <v>0</v>
+      </c>
+      <c r="V28" s="50">
         <v>190.37700000000001</v>
       </c>
       <c r="W28" t="s">
@@ -3494,276 +3546,276 @@
       <c r="Y28" t="s">
         <v>100</v>
       </c>
-      <c r="Z28" s="59"/>
-    </row>
-    <row r="29" spans="1:26">
-      <c r="A29" s="59"/>
-      <c r="B29" s="46" t="s">
+      <c r="Z28" s="80"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A29" s="80"/>
+      <c r="B29" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="47">
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="45">
         <v>423843.07770999998</v>
       </c>
-      <c r="F29" s="48">
-        <v>0</v>
-      </c>
-      <c r="G29" s="48">
-        <v>0</v>
-      </c>
-      <c r="H29" s="48">
-        <v>0</v>
-      </c>
-      <c r="I29" s="48">
-        <v>0</v>
-      </c>
-      <c r="J29" s="48">
-        <v>0</v>
-      </c>
-      <c r="K29" s="48">
-        <v>0</v>
-      </c>
-      <c r="L29" s="48">
-        <v>0</v>
-      </c>
-      <c r="M29" s="48">
-        <v>0</v>
-      </c>
-      <c r="N29" s="48">
+      <c r="F29" s="46">
+        <v>0</v>
+      </c>
+      <c r="G29" s="46">
+        <v>0</v>
+      </c>
+      <c r="H29" s="46">
+        <v>0</v>
+      </c>
+      <c r="I29" s="46">
+        <v>0</v>
+      </c>
+      <c r="J29" s="46">
+        <v>0</v>
+      </c>
+      <c r="K29" s="46">
+        <v>0</v>
+      </c>
+      <c r="L29" s="46">
+        <v>0</v>
+      </c>
+      <c r="M29" s="46">
+        <v>0</v>
+      </c>
+      <c r="N29" s="46">
         <v>423839.29810999997</v>
       </c>
-      <c r="O29" s="48">
-        <v>0</v>
-      </c>
-      <c r="P29" s="48">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="48">
-        <v>0</v>
-      </c>
-      <c r="R29" s="48">
-        <v>0</v>
-      </c>
-      <c r="S29" s="48">
+      <c r="O29" s="46">
+        <v>0</v>
+      </c>
+      <c r="P29" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="46">
+        <v>0</v>
+      </c>
+      <c r="R29" s="46">
+        <v>0</v>
+      </c>
+      <c r="S29" s="46">
         <v>2.84</v>
       </c>
-      <c r="T29" s="48">
-        <v>0</v>
-      </c>
-      <c r="U29" s="48">
-        <v>0</v>
-      </c>
-      <c r="V29" s="62">
+      <c r="T29" s="46">
+        <v>0</v>
+      </c>
+      <c r="U29" s="46">
+        <v>0</v>
+      </c>
+      <c r="V29" s="59">
         <v>0.93959999999999999</v>
       </c>
-      <c r="W29" s="46" t="s">
+      <c r="W29" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="X29" s="60"/>
-      <c r="Y29" s="60"/>
-      <c r="Z29" s="59"/>
-    </row>
-    <row r="30" spans="1:26">
-      <c r="A30" s="59"/>
-      <c r="B30" s="61" t="s">
+      <c r="X29" s="57"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="80"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A30" s="80"/>
+      <c r="B30" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61" t="s">
+      <c r="C30" s="58"/>
+      <c r="D30" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="50">
+      <c r="E30" s="48">
         <v>423843.07770999998</v>
       </c>
-      <c r="F30" s="51">
-        <v>0</v>
-      </c>
-      <c r="G30" s="51">
-        <v>0</v>
-      </c>
-      <c r="H30" s="51">
-        <v>0</v>
-      </c>
-      <c r="I30" s="51">
-        <v>0</v>
-      </c>
-      <c r="J30" s="51">
-        <v>0</v>
-      </c>
-      <c r="K30" s="51">
-        <v>0</v>
-      </c>
-      <c r="L30" s="51">
-        <v>0</v>
-      </c>
-      <c r="M30" s="51">
-        <v>0</v>
-      </c>
-      <c r="N30" s="51">
+      <c r="F30" s="49">
+        <v>0</v>
+      </c>
+      <c r="G30" s="49">
+        <v>0</v>
+      </c>
+      <c r="H30" s="49">
+        <v>0</v>
+      </c>
+      <c r="I30" s="49">
+        <v>0</v>
+      </c>
+      <c r="J30" s="49">
+        <v>0</v>
+      </c>
+      <c r="K30" s="49">
+        <v>0</v>
+      </c>
+      <c r="L30" s="49">
+        <v>0</v>
+      </c>
+      <c r="M30" s="49">
+        <v>0</v>
+      </c>
+      <c r="N30" s="49">
         <v>423839.29810999997</v>
       </c>
-      <c r="O30" s="51">
-        <v>0</v>
-      </c>
-      <c r="P30" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="51">
-        <v>0</v>
-      </c>
-      <c r="R30" s="51">
-        <v>0</v>
-      </c>
-      <c r="S30" s="51">
+      <c r="O30" s="49">
+        <v>0</v>
+      </c>
+      <c r="P30" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="49">
+        <v>0</v>
+      </c>
+      <c r="R30" s="49">
+        <v>0</v>
+      </c>
+      <c r="S30" s="49">
         <v>2.84</v>
       </c>
-      <c r="T30" s="51">
-        <v>0</v>
-      </c>
-      <c r="U30" s="51">
-        <v>0</v>
-      </c>
-      <c r="V30" s="63">
+      <c r="T30" s="49">
+        <v>0</v>
+      </c>
+      <c r="U30" s="49">
+        <v>0</v>
+      </c>
+      <c r="V30" s="60">
         <v>0.93959999999999999</v>
       </c>
-      <c r="W30" s="61" t="s">
+      <c r="W30" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="X30" s="61"/>
-      <c r="Y30" s="61" t="s">
+      <c r="X30" s="58"/>
+      <c r="Y30" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="Z30" s="59"/>
-    </row>
-    <row r="31" spans="1:26">
-      <c r="A31" s="59"/>
-      <c r="B31" s="46" t="s">
+      <c r="Z30" s="80"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A31" s="80"/>
+      <c r="B31" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="47">
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45">
         <v>11927592.377524991</v>
       </c>
-      <c r="F31" s="48">
+      <c r="F31" s="46">
         <v>27782.851200000001</v>
       </c>
-      <c r="G31" s="48">
+      <c r="G31" s="46">
         <v>12533.571545999999</v>
       </c>
-      <c r="H31" s="48">
+      <c r="H31" s="46">
         <v>6071.8550077286291</v>
       </c>
-      <c r="I31" s="48">
+      <c r="I31" s="46">
         <v>228231.24220099999</v>
       </c>
-      <c r="J31" s="48">
+      <c r="J31" s="46">
         <v>3050.5247629999999</v>
       </c>
-      <c r="K31" s="48">
-        <v>0</v>
-      </c>
-      <c r="L31" s="48">
+      <c r="K31" s="46">
+        <v>0</v>
+      </c>
+      <c r="L31" s="46">
         <v>290266.98100000003</v>
       </c>
-      <c r="M31" s="48">
+      <c r="M31" s="46">
         <v>12460.199739045011</v>
       </c>
-      <c r="N31" s="48">
+      <c r="N31" s="46">
         <v>379897.43138748372</v>
       </c>
-      <c r="O31" s="48">
+      <c r="O31" s="46">
         <v>1883770.925851055</v>
       </c>
-      <c r="P31" s="48">
+      <c r="P31" s="46">
         <v>8210.745719999999</v>
       </c>
-      <c r="Q31" s="48">
+      <c r="Q31" s="46">
         <v>2810616.0051088212</v>
       </c>
-      <c r="R31" s="48">
+      <c r="R31" s="46">
         <v>4347686.2348023206</v>
       </c>
-      <c r="S31" s="48">
+      <c r="S31" s="46">
         <v>93968.913751999993</v>
       </c>
-      <c r="T31" s="48">
+      <c r="T31" s="46">
         <v>19547.4598612558</v>
       </c>
-      <c r="U31" s="48">
+      <c r="U31" s="46">
         <v>191844.649389</v>
       </c>
-      <c r="V31" s="49">
+      <c r="V31" s="47">
         <v>1611652.78619628</v>
       </c>
-      <c r="W31" s="46" t="s">
+      <c r="W31" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="46"/>
-      <c r="Z31" s="59"/>
-    </row>
-    <row r="32" spans="1:26">
-      <c r="A32" s="59"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="44"/>
+      <c r="Z31" s="80"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A32" s="80"/>
       <c r="B32" t="s">
         <v>105</v>
       </c>
       <c r="D32" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="50">
+      <c r="E32" s="48">
         <v>11503337.472304991</v>
       </c>
-      <c r="F32" s="51">
+      <c r="F32" s="49">
         <v>27782.851200000001</v>
       </c>
-      <c r="G32" s="51">
+      <c r="G32" s="49">
         <v>10614.051546000001</v>
       </c>
-      <c r="H32" s="51">
+      <c r="H32" s="49">
         <v>5186.8550077286291</v>
       </c>
-      <c r="I32" s="51">
+      <c r="I32" s="49">
         <v>228231.24220099999</v>
       </c>
-      <c r="J32" s="51">
+      <c r="J32" s="49">
         <v>3050.5247629999999</v>
       </c>
-      <c r="K32" s="51">
-        <v>0</v>
-      </c>
-      <c r="L32" s="51">
+      <c r="K32" s="49">
+        <v>0</v>
+      </c>
+      <c r="L32" s="49">
         <v>55474.531000000003</v>
       </c>
-      <c r="M32" s="51">
+      <c r="M32" s="49">
         <v>12460.199739045011</v>
       </c>
-      <c r="N32" s="51">
+      <c r="N32" s="49">
         <v>374028.23138748371</v>
       </c>
-      <c r="O32" s="51">
+      <c r="O32" s="49">
         <v>1883770.925851055</v>
       </c>
-      <c r="P32" s="51">
+      <c r="P32" s="49">
         <v>6230.745719999999</v>
       </c>
-      <c r="Q32" s="51">
+      <c r="Q32" s="49">
         <v>2638367.0398888211</v>
       </c>
-      <c r="R32" s="51">
+      <c r="R32" s="49">
         <v>4347686.2348023206</v>
       </c>
-      <c r="S32" s="51">
+      <c r="S32" s="49">
         <v>93805.513751999999</v>
       </c>
-      <c r="T32" s="51">
+      <c r="T32" s="49">
         <v>13151.089861255799</v>
       </c>
-      <c r="U32" s="51">
+      <c r="U32" s="49">
         <v>191844.649389</v>
       </c>
-      <c r="V32" s="52">
+      <c r="V32" s="50">
         <v>1611652.78619628</v>
       </c>
       <c r="W32" t="s">
@@ -3772,68 +3824,68 @@
       <c r="Y32" t="s">
         <v>99</v>
       </c>
-      <c r="Z32" s="59"/>
-    </row>
-    <row r="33" spans="1:26">
-      <c r="A33" s="59"/>
+      <c r="Z32" s="80"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A33" s="80"/>
       <c r="B33" t="s">
         <v>105</v>
       </c>
       <c r="D33" t="s">
         <v>100</v>
       </c>
-      <c r="E33" s="50">
+      <c r="E33" s="48">
         <v>424254.90522000002</v>
       </c>
-      <c r="F33" s="51">
-        <v>0</v>
-      </c>
-      <c r="G33" s="51">
+      <c r="F33" s="49">
+        <v>0</v>
+      </c>
+      <c r="G33" s="49">
         <v>1919.52</v>
       </c>
-      <c r="H33" s="51">
+      <c r="H33" s="49">
         <v>885</v>
       </c>
-      <c r="I33" s="51">
-        <v>0</v>
-      </c>
-      <c r="J33" s="51">
-        <v>0</v>
-      </c>
-      <c r="K33" s="51">
-        <v>0</v>
-      </c>
-      <c r="L33" s="51">
+      <c r="I33" s="49">
+        <v>0</v>
+      </c>
+      <c r="J33" s="49">
+        <v>0</v>
+      </c>
+      <c r="K33" s="49">
+        <v>0</v>
+      </c>
+      <c r="L33" s="49">
         <v>234792.45</v>
       </c>
-      <c r="M33" s="51">
-        <v>0</v>
-      </c>
-      <c r="N33" s="51">
+      <c r="M33" s="49">
+        <v>0</v>
+      </c>
+      <c r="N33" s="49">
         <v>5869.2000000000007</v>
       </c>
-      <c r="O33" s="51">
-        <v>0</v>
-      </c>
-      <c r="P33" s="51">
+      <c r="O33" s="49">
+        <v>0</v>
+      </c>
+      <c r="P33" s="49">
         <v>1980</v>
       </c>
-      <c r="Q33" s="51">
+      <c r="Q33" s="49">
         <v>172248.96522000001</v>
       </c>
-      <c r="R33" s="51">
-        <v>0</v>
-      </c>
-      <c r="S33" s="51">
+      <c r="R33" s="49">
+        <v>0</v>
+      </c>
+      <c r="S33" s="49">
         <v>163.4</v>
       </c>
-      <c r="T33" s="51">
+      <c r="T33" s="49">
         <v>6396.37</v>
       </c>
-      <c r="U33" s="51">
-        <v>0</v>
-      </c>
-      <c r="V33" s="52">
+      <c r="U33" s="49">
+        <v>0</v>
+      </c>
+      <c r="V33" s="50">
         <v>0</v>
       </c>
       <c r="W33" t="s">
@@ -3842,140 +3894,140 @@
       <c r="Y33" t="s">
         <v>100</v>
       </c>
-      <c r="Z33" s="59"/>
-    </row>
-    <row r="34" spans="1:26">
-      <c r="A34" s="59"/>
-      <c r="B34" s="64" t="s">
+      <c r="Z33" s="80"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A34" s="80"/>
+      <c r="B34" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="64" t="s">
+      <c r="C34" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="64"/>
-      <c r="E34" s="65">
+      <c r="D34" s="61"/>
+      <c r="E34" s="62">
         <v>152741.78631056519</v>
       </c>
-      <c r="F34" s="66">
+      <c r="F34" s="63">
         <v>27782.851200000001</v>
       </c>
-      <c r="G34" s="66">
+      <c r="G34" s="63">
         <v>6050.7765060000002</v>
       </c>
-      <c r="H34" s="66">
+      <c r="H34" s="63">
         <v>885</v>
       </c>
-      <c r="I34" s="66">
+      <c r="I34" s="63">
         <v>18424.627919999999</v>
       </c>
-      <c r="J34" s="66">
-        <v>0</v>
-      </c>
-      <c r="K34" s="66">
-        <v>0</v>
-      </c>
-      <c r="L34" s="66">
-        <v>0</v>
-      </c>
-      <c r="M34" s="66">
-        <v>0</v>
-      </c>
-      <c r="N34" s="66">
+      <c r="J34" s="63">
+        <v>0</v>
+      </c>
+      <c r="K34" s="63">
+        <v>0</v>
+      </c>
+      <c r="L34" s="63">
+        <v>0</v>
+      </c>
+      <c r="M34" s="63">
+        <v>0</v>
+      </c>
+      <c r="N34" s="63">
         <v>32676.423187483739</v>
       </c>
-      <c r="O34" s="66">
+      <c r="O34" s="63">
         <v>11306.182332</v>
       </c>
-      <c r="P34" s="66">
+      <c r="P34" s="63">
         <v>7702.8432479999992</v>
       </c>
-      <c r="Q34" s="66">
+      <c r="Q34" s="63">
         <v>12051.47621627023</v>
       </c>
-      <c r="R34" s="66">
+      <c r="R34" s="63">
         <v>16313.74044257815</v>
       </c>
-      <c r="S34" s="66">
+      <c r="S34" s="63">
         <v>1477.1415199999999</v>
       </c>
-      <c r="T34" s="66">
+      <c r="T34" s="63">
         <v>8135.5058612557959</v>
       </c>
-      <c r="U34" s="66">
+      <c r="U34" s="63">
         <v>7217.4997329999997</v>
       </c>
-      <c r="V34" s="67">
+      <c r="V34" s="64">
         <v>2717.7181439772871</v>
       </c>
-      <c r="W34" s="64" t="s">
+      <c r="W34" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="X34" s="64" t="s">
+      <c r="X34" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="Y34" s="64"/>
-      <c r="Z34" s="59"/>
-    </row>
-    <row r="35" spans="1:26">
-      <c r="A35" s="59"/>
+      <c r="Y34" s="61"/>
+      <c r="Z34" s="80"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A35" s="80"/>
       <c r="B35" t="s">
         <v>105</v>
       </c>
       <c r="D35" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="50">
+      <c r="E35" s="48">
         <v>135429.43631056519</v>
       </c>
-      <c r="F35" s="51">
+      <c r="F35" s="49">
         <v>27782.851200000001</v>
       </c>
-      <c r="G35" s="51">
+      <c r="G35" s="49">
         <v>4131.2565059999997</v>
       </c>
-      <c r="H35" s="51">
-        <v>0</v>
-      </c>
-      <c r="I35" s="51">
+      <c r="H35" s="49">
+        <v>0</v>
+      </c>
+      <c r="I35" s="49">
         <v>18424.627919999999</v>
       </c>
-      <c r="J35" s="51">
-        <v>0</v>
-      </c>
-      <c r="K35" s="51">
-        <v>0</v>
-      </c>
-      <c r="L35" s="51">
-        <v>0</v>
-      </c>
-      <c r="M35" s="51">
-        <v>0</v>
-      </c>
-      <c r="N35" s="51">
+      <c r="J35" s="49">
+        <v>0</v>
+      </c>
+      <c r="K35" s="49">
+        <v>0</v>
+      </c>
+      <c r="L35" s="49">
+        <v>0</v>
+      </c>
+      <c r="M35" s="49">
+        <v>0</v>
+      </c>
+      <c r="N35" s="49">
         <v>26807.223187483742</v>
       </c>
-      <c r="O35" s="51">
+      <c r="O35" s="49">
         <v>11306.182332</v>
       </c>
-      <c r="P35" s="51">
+      <c r="P35" s="49">
         <v>5722.8432479999992</v>
       </c>
-      <c r="Q35" s="51">
+      <c r="Q35" s="49">
         <v>11952.616216270229</v>
       </c>
-      <c r="R35" s="51">
+      <c r="R35" s="49">
         <v>16313.74044257815</v>
       </c>
-      <c r="S35" s="51">
+      <c r="S35" s="49">
         <v>1313.74152</v>
       </c>
-      <c r="T35" s="51">
+      <c r="T35" s="49">
         <v>1739.135861255796</v>
       </c>
-      <c r="U35" s="51">
+      <c r="U35" s="49">
         <v>7217.4997329999997</v>
       </c>
-      <c r="V35" s="52">
+      <c r="V35" s="50">
         <v>2717.7181439772871</v>
       </c>
       <c r="W35" t="s">
@@ -3984,68 +4036,68 @@
       <c r="Y35" t="s">
         <v>99</v>
       </c>
-      <c r="Z35" s="59"/>
-    </row>
-    <row r="36" spans="1:26">
-      <c r="A36" s="59"/>
+      <c r="Z35" s="80"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A36" s="80"/>
       <c r="B36" t="s">
         <v>105</v>
       </c>
       <c r="D36" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="50">
+      <c r="E36" s="48">
         <v>17312.349999999999</v>
       </c>
-      <c r="F36" s="51">
-        <v>0</v>
-      </c>
-      <c r="G36" s="51">
+      <c r="F36" s="49">
+        <v>0</v>
+      </c>
+      <c r="G36" s="49">
         <v>1919.52</v>
       </c>
-      <c r="H36" s="51">
+      <c r="H36" s="49">
         <v>885</v>
       </c>
-      <c r="I36" s="51">
-        <v>0</v>
-      </c>
-      <c r="J36" s="51">
-        <v>0</v>
-      </c>
-      <c r="K36" s="51">
-        <v>0</v>
-      </c>
-      <c r="L36" s="51">
-        <v>0</v>
-      </c>
-      <c r="M36" s="51">
-        <v>0</v>
-      </c>
-      <c r="N36" s="51">
+      <c r="I36" s="49">
+        <v>0</v>
+      </c>
+      <c r="J36" s="49">
+        <v>0</v>
+      </c>
+      <c r="K36" s="49">
+        <v>0</v>
+      </c>
+      <c r="L36" s="49">
+        <v>0</v>
+      </c>
+      <c r="M36" s="49">
+        <v>0</v>
+      </c>
+      <c r="N36" s="49">
         <v>5869.2000000000007</v>
       </c>
-      <c r="O36" s="51">
-        <v>0</v>
-      </c>
-      <c r="P36" s="51">
+      <c r="O36" s="49">
+        <v>0</v>
+      </c>
+      <c r="P36" s="49">
         <v>1980</v>
       </c>
-      <c r="Q36" s="51">
+      <c r="Q36" s="49">
         <v>98.86</v>
       </c>
-      <c r="R36" s="51">
-        <v>0</v>
-      </c>
-      <c r="S36" s="51">
+      <c r="R36" s="49">
+        <v>0</v>
+      </c>
+      <c r="S36" s="49">
         <v>163.4</v>
       </c>
-      <c r="T36" s="51">
+      <c r="T36" s="49">
         <v>6396.37</v>
       </c>
-      <c r="U36" s="51">
-        <v>0</v>
-      </c>
-      <c r="V36" s="52">
+      <c r="U36" s="49">
+        <v>0</v>
+      </c>
+      <c r="V36" s="50">
         <v>0</v>
       </c>
       <c r="W36" t="s">
@@ -4054,725 +4106,725 @@
       <c r="Y36" t="s">
         <v>100</v>
       </c>
-      <c r="Z36" s="59"/>
-    </row>
-    <row r="37" spans="1:26">
-      <c r="A37" s="59"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64" t="s">
+      <c r="Z36" s="80"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A37" s="80"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="64"/>
-      <c r="E37" s="65">
+      <c r="D37" s="61"/>
+      <c r="E37" s="62">
         <v>206760.335857</v>
       </c>
-      <c r="F37" s="66">
-        <v>0</v>
-      </c>
-      <c r="G37" s="66">
+      <c r="F37" s="63">
+        <v>0</v>
+      </c>
+      <c r="G37" s="63">
         <v>6482.79504</v>
       </c>
-      <c r="H37" s="66">
-        <v>0</v>
-      </c>
-      <c r="I37" s="66">
+      <c r="H37" s="63">
+        <v>0</v>
+      </c>
+      <c r="I37" s="63">
         <v>188583.75408000001</v>
       </c>
-      <c r="J37" s="66">
+      <c r="J37" s="63">
         <v>3050.5247629999999</v>
       </c>
-      <c r="K37" s="66">
-        <v>0</v>
-      </c>
-      <c r="L37" s="66">
-        <v>0</v>
-      </c>
-      <c r="M37" s="66">
-        <v>0</v>
-      </c>
-      <c r="N37" s="66">
-        <v>0</v>
-      </c>
-      <c r="O37" s="66">
+      <c r="K37" s="63">
+        <v>0</v>
+      </c>
+      <c r="L37" s="63">
+        <v>0</v>
+      </c>
+      <c r="M37" s="63">
+        <v>0</v>
+      </c>
+      <c r="N37" s="63">
+        <v>0</v>
+      </c>
+      <c r="O37" s="63">
         <v>1251.1220000000001</v>
       </c>
-      <c r="P37" s="66">
+      <c r="P37" s="63">
         <v>507.90247199999999</v>
       </c>
-      <c r="Q37" s="66">
-        <v>0</v>
-      </c>
-      <c r="R37" s="66">
-        <v>0</v>
-      </c>
-      <c r="S37" s="66">
+      <c r="Q37" s="63">
+        <v>0</v>
+      </c>
+      <c r="R37" s="63">
+        <v>0</v>
+      </c>
+      <c r="S37" s="63">
         <v>5106.2730320000001</v>
       </c>
-      <c r="T37" s="66">
-        <v>0</v>
-      </c>
-      <c r="U37" s="66">
-        <v>0</v>
-      </c>
-      <c r="V37" s="67">
+      <c r="T37" s="63">
+        <v>0</v>
+      </c>
+      <c r="U37" s="63">
+        <v>0</v>
+      </c>
+      <c r="V37" s="64">
         <v>1777.9644699999999</v>
       </c>
-      <c r="W37" s="64"/>
-      <c r="X37" s="64" t="s">
+      <c r="W37" s="61"/>
+      <c r="X37" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="Y37" s="64"/>
-      <c r="Z37" s="59"/>
-    </row>
-    <row r="38" spans="1:26">
-      <c r="A38" s="59"/>
+      <c r="Y37" s="61"/>
+      <c r="Z37" s="80"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A38" s="80"/>
       <c r="D38" t="s">
         <v>99</v>
       </c>
-      <c r="E38" s="50">
+      <c r="E38" s="48">
         <v>206760.335857</v>
       </c>
-      <c r="F38" s="51">
-        <v>0</v>
-      </c>
-      <c r="G38" s="51">
+      <c r="F38" s="49">
+        <v>0</v>
+      </c>
+      <c r="G38" s="49">
         <v>6482.79504</v>
       </c>
-      <c r="H38" s="51">
-        <v>0</v>
-      </c>
-      <c r="I38" s="51">
+      <c r="H38" s="49">
+        <v>0</v>
+      </c>
+      <c r="I38" s="49">
         <v>188583.75408000001</v>
       </c>
-      <c r="J38" s="51">
+      <c r="J38" s="49">
         <v>3050.5247629999999</v>
       </c>
-      <c r="K38" s="51">
-        <v>0</v>
-      </c>
-      <c r="L38" s="51">
-        <v>0</v>
-      </c>
-      <c r="M38" s="51">
-        <v>0</v>
-      </c>
-      <c r="N38" s="51">
-        <v>0</v>
-      </c>
-      <c r="O38" s="51">
+      <c r="K38" s="49">
+        <v>0</v>
+      </c>
+      <c r="L38" s="49">
+        <v>0</v>
+      </c>
+      <c r="M38" s="49">
+        <v>0</v>
+      </c>
+      <c r="N38" s="49">
+        <v>0</v>
+      </c>
+      <c r="O38" s="49">
         <v>1251.1220000000001</v>
       </c>
-      <c r="P38" s="51">
+      <c r="P38" s="49">
         <v>507.90247199999999</v>
       </c>
-      <c r="Q38" s="51">
-        <v>0</v>
-      </c>
-      <c r="R38" s="51">
-        <v>0</v>
-      </c>
-      <c r="S38" s="51">
+      <c r="Q38" s="49">
+        <v>0</v>
+      </c>
+      <c r="R38" s="49">
+        <v>0</v>
+      </c>
+      <c r="S38" s="49">
         <v>5106.2730320000001</v>
       </c>
-      <c r="T38" s="51">
-        <v>0</v>
-      </c>
-      <c r="U38" s="51">
-        <v>0</v>
-      </c>
-      <c r="V38" s="52">
+      <c r="T38" s="49">
+        <v>0</v>
+      </c>
+      <c r="U38" s="49">
+        <v>0</v>
+      </c>
+      <c r="V38" s="50">
         <v>1777.9644699999999</v>
       </c>
       <c r="Y38" t="s">
         <v>99</v>
       </c>
-      <c r="Z38" s="59"/>
-    </row>
-    <row r="39" spans="1:26">
-      <c r="A39" s="59"/>
+      <c r="Z38" s="80"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A39" s="80"/>
       <c r="D39" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="50">
-        <v>0</v>
-      </c>
-      <c r="F39" s="51">
-        <v>0</v>
-      </c>
-      <c r="G39" s="51">
-        <v>0</v>
-      </c>
-      <c r="H39" s="51">
-        <v>0</v>
-      </c>
-      <c r="I39" s="51">
-        <v>0</v>
-      </c>
-      <c r="J39" s="51">
-        <v>0</v>
-      </c>
-      <c r="K39" s="51">
-        <v>0</v>
-      </c>
-      <c r="L39" s="51">
-        <v>0</v>
-      </c>
-      <c r="M39" s="51">
-        <v>0</v>
-      </c>
-      <c r="N39" s="51">
-        <v>0</v>
-      </c>
-      <c r="O39" s="51">
-        <v>0</v>
-      </c>
-      <c r="P39" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="51">
-        <v>0</v>
-      </c>
-      <c r="R39" s="51">
-        <v>0</v>
-      </c>
-      <c r="S39" s="51">
-        <v>0</v>
-      </c>
-      <c r="T39" s="51">
-        <v>0</v>
-      </c>
-      <c r="U39" s="51">
-        <v>0</v>
-      </c>
-      <c r="V39" s="52">
+      <c r="E39" s="48">
+        <v>0</v>
+      </c>
+      <c r="F39" s="49">
+        <v>0</v>
+      </c>
+      <c r="G39" s="49">
+        <v>0</v>
+      </c>
+      <c r="H39" s="49">
+        <v>0</v>
+      </c>
+      <c r="I39" s="49">
+        <v>0</v>
+      </c>
+      <c r="J39" s="49">
+        <v>0</v>
+      </c>
+      <c r="K39" s="49">
+        <v>0</v>
+      </c>
+      <c r="L39" s="49">
+        <v>0</v>
+      </c>
+      <c r="M39" s="49">
+        <v>0</v>
+      </c>
+      <c r="N39" s="49">
+        <v>0</v>
+      </c>
+      <c r="O39" s="49">
+        <v>0</v>
+      </c>
+      <c r="P39" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="49">
+        <v>0</v>
+      </c>
+      <c r="R39" s="49">
+        <v>0</v>
+      </c>
+      <c r="S39" s="49">
+        <v>0</v>
+      </c>
+      <c r="T39" s="49">
+        <v>0</v>
+      </c>
+      <c r="U39" s="49">
+        <v>0</v>
+      </c>
+      <c r="V39" s="50">
         <v>0</v>
       </c>
       <c r="Y39" t="s">
         <v>100</v>
       </c>
-      <c r="Z39" s="59"/>
-    </row>
-    <row r="40" spans="1:26">
-      <c r="A40" s="59"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="64" t="s">
+      <c r="Z39" s="80"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A40" s="80"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="64"/>
-      <c r="E40" s="65">
+      <c r="D40" s="61"/>
+      <c r="E40" s="62">
         <v>319427.86889841332</v>
       </c>
-      <c r="F40" s="66">
-        <v>0</v>
-      </c>
-      <c r="G40" s="66">
-        <v>0</v>
-      </c>
-      <c r="H40" s="66">
+      <c r="F40" s="63">
+        <v>0</v>
+      </c>
+      <c r="G40" s="63">
+        <v>0</v>
+      </c>
+      <c r="H40" s="63">
         <v>5186.8550077286291</v>
       </c>
-      <c r="I40" s="66">
+      <c r="I40" s="63">
         <v>1277.7192</v>
       </c>
-      <c r="J40" s="66">
-        <v>0</v>
-      </c>
-      <c r="K40" s="66">
-        <v>0</v>
-      </c>
-      <c r="L40" s="66">
-        <v>0</v>
-      </c>
-      <c r="M40" s="66">
-        <v>0</v>
-      </c>
-      <c r="N40" s="66">
-        <v>0</v>
-      </c>
-      <c r="O40" s="66">
-        <v>0</v>
-      </c>
-      <c r="P40" s="66">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="66">
+      <c r="J40" s="63">
+        <v>0</v>
+      </c>
+      <c r="K40" s="63">
+        <v>0</v>
+      </c>
+      <c r="L40" s="63">
+        <v>0</v>
+      </c>
+      <c r="M40" s="63">
+        <v>0</v>
+      </c>
+      <c r="N40" s="63">
+        <v>0</v>
+      </c>
+      <c r="O40" s="63">
+        <v>0</v>
+      </c>
+      <c r="P40" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="63">
         <v>219746.15381600001</v>
       </c>
-      <c r="R40" s="66">
+      <c r="R40" s="63">
         <v>32047.291434684608</v>
       </c>
-      <c r="S40" s="66">
+      <c r="S40" s="63">
         <v>61169.849440000013</v>
       </c>
-      <c r="T40" s="66">
-        <v>0</v>
-      </c>
-      <c r="U40" s="66">
-        <v>0</v>
-      </c>
-      <c r="V40" s="67">
-        <v>0</v>
-      </c>
-      <c r="W40" s="64"/>
-      <c r="X40" s="64" t="s">
+      <c r="T40" s="63">
+        <v>0</v>
+      </c>
+      <c r="U40" s="63">
+        <v>0</v>
+      </c>
+      <c r="V40" s="64">
+        <v>0</v>
+      </c>
+      <c r="W40" s="61"/>
+      <c r="X40" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="Y40" s="64"/>
-      <c r="Z40" s="59"/>
-    </row>
-    <row r="41" spans="1:26">
-      <c r="A41" s="59"/>
+      <c r="Y40" s="61"/>
+      <c r="Z40" s="80"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A41" s="80"/>
       <c r="D41" t="s">
         <v>99</v>
       </c>
-      <c r="E41" s="50">
+      <c r="E41" s="48">
         <v>319427.86889841332</v>
       </c>
-      <c r="F41" s="51">
-        <v>0</v>
-      </c>
-      <c r="G41" s="51">
-        <v>0</v>
-      </c>
-      <c r="H41" s="51">
+      <c r="F41" s="49">
+        <v>0</v>
+      </c>
+      <c r="G41" s="49">
+        <v>0</v>
+      </c>
+      <c r="H41" s="49">
         <v>5186.8550077286291</v>
       </c>
-      <c r="I41" s="51">
+      <c r="I41" s="49">
         <v>1277.7192</v>
       </c>
-      <c r="J41" s="51">
-        <v>0</v>
-      </c>
-      <c r="K41" s="51">
-        <v>0</v>
-      </c>
-      <c r="L41" s="51">
-        <v>0</v>
-      </c>
-      <c r="M41" s="51">
-        <v>0</v>
-      </c>
-      <c r="N41" s="51">
-        <v>0</v>
-      </c>
-      <c r="O41" s="51">
-        <v>0</v>
-      </c>
-      <c r="P41" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="51">
+      <c r="J41" s="49">
+        <v>0</v>
+      </c>
+      <c r="K41" s="49">
+        <v>0</v>
+      </c>
+      <c r="L41" s="49">
+        <v>0</v>
+      </c>
+      <c r="M41" s="49">
+        <v>0</v>
+      </c>
+      <c r="N41" s="49">
+        <v>0</v>
+      </c>
+      <c r="O41" s="49">
+        <v>0</v>
+      </c>
+      <c r="P41" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="49">
         <v>219746.15381600001</v>
       </c>
-      <c r="R41" s="51">
+      <c r="R41" s="49">
         <v>32047.291434684608</v>
       </c>
-      <c r="S41" s="51">
+      <c r="S41" s="49">
         <v>61169.849440000013</v>
       </c>
-      <c r="T41" s="51">
-        <v>0</v>
-      </c>
-      <c r="U41" s="51">
-        <v>0</v>
-      </c>
-      <c r="V41" s="52">
+      <c r="T41" s="49">
+        <v>0</v>
+      </c>
+      <c r="U41" s="49">
+        <v>0</v>
+      </c>
+      <c r="V41" s="50">
         <v>0</v>
       </c>
       <c r="Y41" t="s">
         <v>99</v>
       </c>
-      <c r="Z41" s="59"/>
-    </row>
-    <row r="42" spans="1:26">
-      <c r="A42" s="59"/>
+      <c r="Z41" s="80"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A42" s="80"/>
       <c r="D42" t="s">
         <v>100</v>
       </c>
-      <c r="E42" s="50">
-        <v>0</v>
-      </c>
-      <c r="F42" s="51">
-        <v>0</v>
-      </c>
-      <c r="G42" s="51">
-        <v>0</v>
-      </c>
-      <c r="H42" s="51">
-        <v>0</v>
-      </c>
-      <c r="I42" s="51">
-        <v>0</v>
-      </c>
-      <c r="J42" s="51">
-        <v>0</v>
-      </c>
-      <c r="K42" s="51">
-        <v>0</v>
-      </c>
-      <c r="L42" s="51">
-        <v>0</v>
-      </c>
-      <c r="M42" s="51">
-        <v>0</v>
-      </c>
-      <c r="N42" s="51">
-        <v>0</v>
-      </c>
-      <c r="O42" s="51">
-        <v>0</v>
-      </c>
-      <c r="P42" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="51">
-        <v>0</v>
-      </c>
-      <c r="R42" s="51">
-        <v>0</v>
-      </c>
-      <c r="S42" s="51">
-        <v>0</v>
-      </c>
-      <c r="T42" s="51">
-        <v>0</v>
-      </c>
-      <c r="U42" s="51">
-        <v>0</v>
-      </c>
-      <c r="V42" s="52">
+      <c r="E42" s="48">
+        <v>0</v>
+      </c>
+      <c r="F42" s="49">
+        <v>0</v>
+      </c>
+      <c r="G42" s="49">
+        <v>0</v>
+      </c>
+      <c r="H42" s="49">
+        <v>0</v>
+      </c>
+      <c r="I42" s="49">
+        <v>0</v>
+      </c>
+      <c r="J42" s="49">
+        <v>0</v>
+      </c>
+      <c r="K42" s="49">
+        <v>0</v>
+      </c>
+      <c r="L42" s="49">
+        <v>0</v>
+      </c>
+      <c r="M42" s="49">
+        <v>0</v>
+      </c>
+      <c r="N42" s="49">
+        <v>0</v>
+      </c>
+      <c r="O42" s="49">
+        <v>0</v>
+      </c>
+      <c r="P42" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="49">
+        <v>0</v>
+      </c>
+      <c r="R42" s="49">
+        <v>0</v>
+      </c>
+      <c r="S42" s="49">
+        <v>0</v>
+      </c>
+      <c r="T42" s="49">
+        <v>0</v>
+      </c>
+      <c r="U42" s="49">
+        <v>0</v>
+      </c>
+      <c r="V42" s="50">
         <v>0</v>
       </c>
       <c r="Y42" t="s">
         <v>100</v>
       </c>
-      <c r="Z42" s="59"/>
-    </row>
-    <row r="43" spans="1:26">
-      <c r="A43" s="59"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64" t="s">
+      <c r="Z42" s="80"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A43" s="80"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="64"/>
-      <c r="E43" s="65">
+      <c r="D43" s="61"/>
+      <c r="E43" s="62">
         <v>7393419.4757045805</v>
       </c>
-      <c r="F43" s="66">
-        <v>0</v>
-      </c>
-      <c r="G43" s="66">
-        <v>0</v>
-      </c>
-      <c r="H43" s="66">
-        <v>0</v>
-      </c>
-      <c r="I43" s="66">
-        <v>0</v>
-      </c>
-      <c r="J43" s="66">
-        <v>0</v>
-      </c>
-      <c r="K43" s="66">
-        <v>0</v>
-      </c>
-      <c r="L43" s="66">
-        <v>0</v>
-      </c>
-      <c r="M43" s="66">
-        <v>0</v>
-      </c>
-      <c r="N43" s="66">
-        <v>0</v>
-      </c>
-      <c r="O43" s="66">
+      <c r="F43" s="63">
+        <v>0</v>
+      </c>
+      <c r="G43" s="63">
+        <v>0</v>
+      </c>
+      <c r="H43" s="63">
+        <v>0</v>
+      </c>
+      <c r="I43" s="63">
+        <v>0</v>
+      </c>
+      <c r="J43" s="63">
+        <v>0</v>
+      </c>
+      <c r="K43" s="63">
+        <v>0</v>
+      </c>
+      <c r="L43" s="63">
+        <v>0</v>
+      </c>
+      <c r="M43" s="63">
+        <v>0</v>
+      </c>
+      <c r="N43" s="63">
+        <v>0</v>
+      </c>
+      <c r="O43" s="63">
         <v>1667245.0387213889</v>
       </c>
-      <c r="P43" s="66">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="66">
+      <c r="P43" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="63">
         <v>1627133.86669655</v>
       </c>
-      <c r="R43" s="66">
+      <c r="R43" s="63">
         <v>3967655.0672866418</v>
       </c>
-      <c r="S43" s="66">
-        <v>0</v>
-      </c>
-      <c r="T43" s="66">
-        <v>0</v>
-      </c>
-      <c r="U43" s="66">
+      <c r="S43" s="63">
+        <v>0</v>
+      </c>
+      <c r="T43" s="63">
+        <v>0</v>
+      </c>
+      <c r="U43" s="63">
         <v>131385.503</v>
       </c>
-      <c r="V43" s="67">
-        <v>0</v>
-      </c>
-      <c r="W43" s="64"/>
-      <c r="X43" s="64" t="s">
+      <c r="V43" s="64">
+        <v>0</v>
+      </c>
+      <c r="W43" s="61"/>
+      <c r="X43" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="Y43" s="64"/>
-      <c r="Z43" s="59"/>
-    </row>
-    <row r="44" spans="1:26">
-      <c r="A44" s="59"/>
+      <c r="Y43" s="61"/>
+      <c r="Z43" s="80"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A44" s="80"/>
       <c r="D44" t="s">
         <v>99</v>
       </c>
-      <c r="E44" s="50">
+      <c r="E44" s="48">
         <v>7393419.4757045805</v>
       </c>
-      <c r="F44" s="51">
-        <v>0</v>
-      </c>
-      <c r="G44" s="51">
-        <v>0</v>
-      </c>
-      <c r="H44" s="51">
-        <v>0</v>
-      </c>
-      <c r="I44" s="51">
-        <v>0</v>
-      </c>
-      <c r="J44" s="51">
-        <v>0</v>
-      </c>
-      <c r="K44" s="51">
-        <v>0</v>
-      </c>
-      <c r="L44" s="51">
-        <v>0</v>
-      </c>
-      <c r="M44" s="51">
-        <v>0</v>
-      </c>
-      <c r="N44" s="51">
-        <v>0</v>
-      </c>
-      <c r="O44" s="51">
+      <c r="F44" s="49">
+        <v>0</v>
+      </c>
+      <c r="G44" s="49">
+        <v>0</v>
+      </c>
+      <c r="H44" s="49">
+        <v>0</v>
+      </c>
+      <c r="I44" s="49">
+        <v>0</v>
+      </c>
+      <c r="J44" s="49">
+        <v>0</v>
+      </c>
+      <c r="K44" s="49">
+        <v>0</v>
+      </c>
+      <c r="L44" s="49">
+        <v>0</v>
+      </c>
+      <c r="M44" s="49">
+        <v>0</v>
+      </c>
+      <c r="N44" s="49">
+        <v>0</v>
+      </c>
+      <c r="O44" s="49">
         <v>1667245.0387213889</v>
       </c>
-      <c r="P44" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="51">
+      <c r="P44" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="49">
         <v>1627133.86669655</v>
       </c>
-      <c r="R44" s="51">
+      <c r="R44" s="49">
         <v>3967655.0672866418</v>
       </c>
-      <c r="S44" s="51">
-        <v>0</v>
-      </c>
-      <c r="T44" s="51">
-        <v>0</v>
-      </c>
-      <c r="U44" s="51">
+      <c r="S44" s="49">
+        <v>0</v>
+      </c>
+      <c r="T44" s="49">
+        <v>0</v>
+      </c>
+      <c r="U44" s="49">
         <v>131385.503</v>
       </c>
-      <c r="V44" s="52">
-        <v>0</v>
-      </c>
-      <c r="W44" s="68"/>
+      <c r="V44" s="50">
+        <v>0</v>
+      </c>
+      <c r="W44" s="65"/>
       <c r="Y44" t="s">
         <v>99</v>
       </c>
-      <c r="Z44" s="59"/>
-    </row>
-    <row r="45" spans="1:26">
-      <c r="A45" s="59"/>
+      <c r="Z44" s="80"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A45" s="80"/>
       <c r="D45" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="50">
-        <v>0</v>
-      </c>
-      <c r="F45" s="51">
-        <v>0</v>
-      </c>
-      <c r="G45" s="51">
-        <v>0</v>
-      </c>
-      <c r="H45" s="51">
-        <v>0</v>
-      </c>
-      <c r="I45" s="51">
-        <v>0</v>
-      </c>
-      <c r="J45" s="51">
-        <v>0</v>
-      </c>
-      <c r="K45" s="51">
-        <v>0</v>
-      </c>
-      <c r="L45" s="51">
-        <v>0</v>
-      </c>
-      <c r="M45" s="51">
-        <v>0</v>
-      </c>
-      <c r="N45" s="51">
-        <v>0</v>
-      </c>
-      <c r="O45" s="51">
-        <v>0</v>
-      </c>
-      <c r="P45" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="51">
-        <v>0</v>
-      </c>
-      <c r="R45" s="51">
-        <v>0</v>
-      </c>
-      <c r="S45" s="51">
-        <v>0</v>
-      </c>
-      <c r="T45" s="51">
-        <v>0</v>
-      </c>
-      <c r="U45" s="51">
-        <v>0</v>
-      </c>
-      <c r="V45" s="52">
+      <c r="E45" s="48">
+        <v>0</v>
+      </c>
+      <c r="F45" s="49">
+        <v>0</v>
+      </c>
+      <c r="G45" s="49">
+        <v>0</v>
+      </c>
+      <c r="H45" s="49">
+        <v>0</v>
+      </c>
+      <c r="I45" s="49">
+        <v>0</v>
+      </c>
+      <c r="J45" s="49">
+        <v>0</v>
+      </c>
+      <c r="K45" s="49">
+        <v>0</v>
+      </c>
+      <c r="L45" s="49">
+        <v>0</v>
+      </c>
+      <c r="M45" s="49">
+        <v>0</v>
+      </c>
+      <c r="N45" s="49">
+        <v>0</v>
+      </c>
+      <c r="O45" s="49">
+        <v>0</v>
+      </c>
+      <c r="P45" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="49">
+        <v>0</v>
+      </c>
+      <c r="R45" s="49">
+        <v>0</v>
+      </c>
+      <c r="S45" s="49">
+        <v>0</v>
+      </c>
+      <c r="T45" s="49">
+        <v>0</v>
+      </c>
+      <c r="U45" s="49">
+        <v>0</v>
+      </c>
+      <c r="V45" s="50">
         <v>0</v>
       </c>
       <c r="Y45" t="s">
         <v>100</v>
       </c>
-      <c r="Z45" s="59"/>
-    </row>
-    <row r="46" spans="1:26">
-      <c r="A46" s="59"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="64" t="s">
+      <c r="Z45" s="80"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A46" s="80"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="69"/>
-      <c r="E46" s="65">
-        <v>0</v>
-      </c>
-      <c r="F46" s="66">
-        <v>0</v>
-      </c>
-      <c r="G46" s="66">
-        <v>0</v>
-      </c>
-      <c r="H46" s="66">
-        <v>0</v>
-      </c>
-      <c r="I46" s="66">
-        <v>0</v>
-      </c>
-      <c r="J46" s="66">
-        <v>0</v>
-      </c>
-      <c r="K46" s="66">
-        <v>0</v>
-      </c>
-      <c r="L46" s="66">
-        <v>0</v>
-      </c>
-      <c r="M46" s="66">
-        <v>0</v>
-      </c>
-      <c r="N46" s="66">
-        <v>0</v>
-      </c>
-      <c r="O46" s="66">
-        <v>0</v>
-      </c>
-      <c r="P46" s="66">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="66">
-        <v>0</v>
-      </c>
-      <c r="R46" s="66">
-        <v>0</v>
-      </c>
-      <c r="S46" s="66">
-        <v>0</v>
-      </c>
-      <c r="T46" s="66">
-        <v>0</v>
-      </c>
-      <c r="U46" s="66">
-        <v>0</v>
-      </c>
-      <c r="V46" s="67">
-        <v>0</v>
-      </c>
-      <c r="W46" s="69"/>
-      <c r="X46" s="64" t="s">
+      <c r="D46" s="66"/>
+      <c r="E46" s="62">
+        <v>0</v>
+      </c>
+      <c r="F46" s="63">
+        <v>0</v>
+      </c>
+      <c r="G46" s="63">
+        <v>0</v>
+      </c>
+      <c r="H46" s="63">
+        <v>0</v>
+      </c>
+      <c r="I46" s="63">
+        <v>0</v>
+      </c>
+      <c r="J46" s="63">
+        <v>0</v>
+      </c>
+      <c r="K46" s="63">
+        <v>0</v>
+      </c>
+      <c r="L46" s="63">
+        <v>0</v>
+      </c>
+      <c r="M46" s="63">
+        <v>0</v>
+      </c>
+      <c r="N46" s="63">
+        <v>0</v>
+      </c>
+      <c r="O46" s="63">
+        <v>0</v>
+      </c>
+      <c r="P46" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="63">
+        <v>0</v>
+      </c>
+      <c r="R46" s="63">
+        <v>0</v>
+      </c>
+      <c r="S46" s="63">
+        <v>0</v>
+      </c>
+      <c r="T46" s="63">
+        <v>0</v>
+      </c>
+      <c r="U46" s="63">
+        <v>0</v>
+      </c>
+      <c r="V46" s="64">
+        <v>0</v>
+      </c>
+      <c r="W46" s="66"/>
+      <c r="X46" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="Y46" s="69"/>
-      <c r="Z46" s="59"/>
-    </row>
-    <row r="47" spans="1:26">
-      <c r="A47" s="59"/>
+      <c r="Y46" s="66"/>
+      <c r="Z46" s="80"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A47" s="80"/>
       <c r="B47" t="s">
         <v>105</v>
       </c>
       <c r="D47" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="50">
-        <v>0</v>
-      </c>
-      <c r="F47" s="51">
-        <v>0</v>
-      </c>
-      <c r="G47" s="51">
-        <v>0</v>
-      </c>
-      <c r="H47" s="51">
-        <v>0</v>
-      </c>
-      <c r="I47" s="51">
-        <v>0</v>
-      </c>
-      <c r="J47" s="51">
-        <v>0</v>
-      </c>
-      <c r="K47" s="51">
-        <v>0</v>
-      </c>
-      <c r="L47" s="51">
-        <v>0</v>
-      </c>
-      <c r="M47" s="51">
-        <v>0</v>
-      </c>
-      <c r="N47" s="51">
-        <v>0</v>
-      </c>
-      <c r="O47" s="51">
-        <v>0</v>
-      </c>
-      <c r="P47" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="51">
-        <v>0</v>
-      </c>
-      <c r="R47" s="51">
-        <v>0</v>
-      </c>
-      <c r="S47" s="51">
-        <v>0</v>
-      </c>
-      <c r="T47" s="51">
-        <v>0</v>
-      </c>
-      <c r="U47" s="51">
-        <v>0</v>
-      </c>
-      <c r="V47" s="52">
+      <c r="E47" s="48">
+        <v>0</v>
+      </c>
+      <c r="F47" s="49">
+        <v>0</v>
+      </c>
+      <c r="G47" s="49">
+        <v>0</v>
+      </c>
+      <c r="H47" s="49">
+        <v>0</v>
+      </c>
+      <c r="I47" s="49">
+        <v>0</v>
+      </c>
+      <c r="J47" s="49">
+        <v>0</v>
+      </c>
+      <c r="K47" s="49">
+        <v>0</v>
+      </c>
+      <c r="L47" s="49">
+        <v>0</v>
+      </c>
+      <c r="M47" s="49">
+        <v>0</v>
+      </c>
+      <c r="N47" s="49">
+        <v>0</v>
+      </c>
+      <c r="O47" s="49">
+        <v>0</v>
+      </c>
+      <c r="P47" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="49">
+        <v>0</v>
+      </c>
+      <c r="R47" s="49">
+        <v>0</v>
+      </c>
+      <c r="S47" s="49">
+        <v>0</v>
+      </c>
+      <c r="T47" s="49">
+        <v>0</v>
+      </c>
+      <c r="U47" s="49">
+        <v>0</v>
+      </c>
+      <c r="V47" s="50">
         <v>0</v>
       </c>
       <c r="W47" t="s">
@@ -4781,801 +4833,801 @@
       <c r="Y47" t="s">
         <v>99</v>
       </c>
-      <c r="Z47" s="59"/>
-    </row>
-    <row r="48" spans="1:26">
-      <c r="A48" s="59"/>
+      <c r="Z47" s="80"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A48" s="80"/>
       <c r="D48" t="s">
         <v>100</v>
       </c>
-      <c r="E48" s="50">
-        <v>0</v>
-      </c>
-      <c r="F48" s="51">
-        <v>0</v>
-      </c>
-      <c r="G48" s="51">
-        <v>0</v>
-      </c>
-      <c r="H48" s="51">
-        <v>0</v>
-      </c>
-      <c r="I48" s="51">
-        <v>0</v>
-      </c>
-      <c r="J48" s="51">
-        <v>0</v>
-      </c>
-      <c r="K48" s="51">
-        <v>0</v>
-      </c>
-      <c r="L48" s="51">
-        <v>0</v>
-      </c>
-      <c r="M48" s="51">
-        <v>0</v>
-      </c>
-      <c r="N48" s="51">
-        <v>0</v>
-      </c>
-      <c r="O48" s="51">
-        <v>0</v>
-      </c>
-      <c r="P48" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="51">
-        <v>0</v>
-      </c>
-      <c r="R48" s="51">
-        <v>0</v>
-      </c>
-      <c r="S48" s="51">
-        <v>0</v>
-      </c>
-      <c r="T48" s="51">
-        <v>0</v>
-      </c>
-      <c r="U48" s="51">
-        <v>0</v>
-      </c>
-      <c r="V48" s="52">
+      <c r="E48" s="48">
+        <v>0</v>
+      </c>
+      <c r="F48" s="49">
+        <v>0</v>
+      </c>
+      <c r="G48" s="49">
+        <v>0</v>
+      </c>
+      <c r="H48" s="49">
+        <v>0</v>
+      </c>
+      <c r="I48" s="49">
+        <v>0</v>
+      </c>
+      <c r="J48" s="49">
+        <v>0</v>
+      </c>
+      <c r="K48" s="49">
+        <v>0</v>
+      </c>
+      <c r="L48" s="49">
+        <v>0</v>
+      </c>
+      <c r="M48" s="49">
+        <v>0</v>
+      </c>
+      <c r="N48" s="49">
+        <v>0</v>
+      </c>
+      <c r="O48" s="49">
+        <v>0</v>
+      </c>
+      <c r="P48" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="49">
+        <v>0</v>
+      </c>
+      <c r="R48" s="49">
+        <v>0</v>
+      </c>
+      <c r="S48" s="49">
+        <v>0</v>
+      </c>
+      <c r="T48" s="49">
+        <v>0</v>
+      </c>
+      <c r="U48" s="49">
+        <v>0</v>
+      </c>
+      <c r="V48" s="50">
         <v>0</v>
       </c>
       <c r="Y48" t="s">
         <v>100</v>
       </c>
-      <c r="Z48" s="59"/>
-    </row>
-    <row r="49" spans="1:26">
-      <c r="A49" s="59"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64" t="s">
+      <c r="Z48" s="80"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A49" s="80"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="D49" s="64"/>
-      <c r="E49" s="65">
+      <c r="D49" s="61"/>
+      <c r="E49" s="62">
         <v>234792.45</v>
       </c>
-      <c r="F49" s="66">
-        <v>0</v>
-      </c>
-      <c r="G49" s="66">
-        <v>0</v>
-      </c>
-      <c r="H49" s="66">
-        <v>0</v>
-      </c>
-      <c r="I49" s="66">
-        <v>0</v>
-      </c>
-      <c r="J49" s="66">
-        <v>0</v>
-      </c>
-      <c r="K49" s="66">
-        <v>0</v>
-      </c>
-      <c r="L49" s="66">
+      <c r="F49" s="63">
+        <v>0</v>
+      </c>
+      <c r="G49" s="63">
+        <v>0</v>
+      </c>
+      <c r="H49" s="63">
+        <v>0</v>
+      </c>
+      <c r="I49" s="63">
+        <v>0</v>
+      </c>
+      <c r="J49" s="63">
+        <v>0</v>
+      </c>
+      <c r="K49" s="63">
+        <v>0</v>
+      </c>
+      <c r="L49" s="63">
         <v>234792.45</v>
       </c>
-      <c r="M49" s="66">
-        <v>0</v>
-      </c>
-      <c r="N49" s="66">
-        <v>0</v>
-      </c>
-      <c r="O49" s="66">
-        <v>0</v>
-      </c>
-      <c r="P49" s="66">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="66">
-        <v>0</v>
-      </c>
-      <c r="R49" s="66">
-        <v>0</v>
-      </c>
-      <c r="S49" s="66">
-        <v>0</v>
-      </c>
-      <c r="T49" s="66">
-        <v>0</v>
-      </c>
-      <c r="U49" s="66">
-        <v>0</v>
-      </c>
-      <c r="V49" s="67">
-        <v>0</v>
-      </c>
-      <c r="W49" s="69"/>
-      <c r="X49" s="64" t="s">
+      <c r="M49" s="63">
+        <v>0</v>
+      </c>
+      <c r="N49" s="63">
+        <v>0</v>
+      </c>
+      <c r="O49" s="63">
+        <v>0</v>
+      </c>
+      <c r="P49" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="63">
+        <v>0</v>
+      </c>
+      <c r="R49" s="63">
+        <v>0</v>
+      </c>
+      <c r="S49" s="63">
+        <v>0</v>
+      </c>
+      <c r="T49" s="63">
+        <v>0</v>
+      </c>
+      <c r="U49" s="63">
+        <v>0</v>
+      </c>
+      <c r="V49" s="64">
+        <v>0</v>
+      </c>
+      <c r="W49" s="66"/>
+      <c r="X49" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="Y49" s="64"/>
-      <c r="Z49" s="59"/>
-    </row>
-    <row r="50" spans="1:26">
-      <c r="A50" s="59"/>
+      <c r="Y49" s="61"/>
+      <c r="Z49" s="80"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A50" s="80"/>
       <c r="B50" t="s">
         <v>105</v>
       </c>
       <c r="D50" t="s">
         <v>100</v>
       </c>
-      <c r="E50" s="50">
+      <c r="E50" s="48">
         <v>234792.45</v>
       </c>
-      <c r="F50" s="51">
-        <v>0</v>
-      </c>
-      <c r="G50" s="51">
-        <v>0</v>
-      </c>
-      <c r="H50" s="51">
-        <v>0</v>
-      </c>
-      <c r="I50" s="51">
-        <v>0</v>
-      </c>
-      <c r="J50" s="51">
-        <v>0</v>
-      </c>
-      <c r="K50" s="51">
-        <v>0</v>
-      </c>
-      <c r="L50" s="51">
+      <c r="F50" s="49">
+        <v>0</v>
+      </c>
+      <c r="G50" s="49">
+        <v>0</v>
+      </c>
+      <c r="H50" s="49">
+        <v>0</v>
+      </c>
+      <c r="I50" s="49">
+        <v>0</v>
+      </c>
+      <c r="J50" s="49">
+        <v>0</v>
+      </c>
+      <c r="K50" s="49">
+        <v>0</v>
+      </c>
+      <c r="L50" s="49">
         <v>234792.45</v>
       </c>
-      <c r="M50" s="51">
-        <v>0</v>
-      </c>
-      <c r="N50" s="51">
-        <v>0</v>
-      </c>
-      <c r="O50" s="51">
-        <v>0</v>
-      </c>
-      <c r="P50" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="51">
-        <v>0</v>
-      </c>
-      <c r="R50" s="51">
-        <v>0</v>
-      </c>
-      <c r="S50" s="51">
-        <v>0</v>
-      </c>
-      <c r="T50" s="51">
-        <v>0</v>
-      </c>
-      <c r="U50" s="51">
-        <v>0</v>
-      </c>
-      <c r="V50" s="52">
-        <v>0</v>
-      </c>
-      <c r="W50" s="61"/>
+      <c r="M50" s="49">
+        <v>0</v>
+      </c>
+      <c r="N50" s="49">
+        <v>0</v>
+      </c>
+      <c r="O50" s="49">
+        <v>0</v>
+      </c>
+      <c r="P50" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="49">
+        <v>0</v>
+      </c>
+      <c r="R50" s="49">
+        <v>0</v>
+      </c>
+      <c r="S50" s="49">
+        <v>0</v>
+      </c>
+      <c r="T50" s="49">
+        <v>0</v>
+      </c>
+      <c r="U50" s="49">
+        <v>0</v>
+      </c>
+      <c r="V50" s="50">
+        <v>0</v>
+      </c>
+      <c r="W50" s="58"/>
       <c r="Y50" t="s">
         <v>100</v>
       </c>
-      <c r="Z50" s="59"/>
-    </row>
-    <row r="51" spans="1:26">
-      <c r="A51" s="59"/>
-      <c r="B51" s="64" t="s">
+      <c r="Z50" s="80"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A51" s="80"/>
+      <c r="B51" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="64" t="s">
+      <c r="C51" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="D51" s="64"/>
-      <c r="E51" s="65">
+      <c r="D51" s="61"/>
+      <c r="E51" s="62">
         <v>73784.489000000001</v>
       </c>
-      <c r="F51" s="66">
-        <v>0</v>
-      </c>
-      <c r="G51" s="66">
-        <v>0</v>
-      </c>
-      <c r="H51" s="66">
-        <v>0</v>
-      </c>
-      <c r="I51" s="66">
-        <v>0</v>
-      </c>
-      <c r="J51" s="66">
-        <v>0</v>
-      </c>
-      <c r="K51" s="66">
-        <v>0</v>
-      </c>
-      <c r="L51" s="66">
-        <v>0</v>
-      </c>
-      <c r="M51" s="66">
-        <v>0</v>
-      </c>
-      <c r="N51" s="66">
-        <v>0</v>
-      </c>
-      <c r="O51" s="66">
-        <v>0</v>
-      </c>
-      <c r="P51" s="66">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="66">
+      <c r="F51" s="63">
+        <v>0</v>
+      </c>
+      <c r="G51" s="63">
+        <v>0</v>
+      </c>
+      <c r="H51" s="63">
+        <v>0</v>
+      </c>
+      <c r="I51" s="63">
+        <v>0</v>
+      </c>
+      <c r="J51" s="63">
+        <v>0</v>
+      </c>
+      <c r="K51" s="63">
+        <v>0</v>
+      </c>
+      <c r="L51" s="63">
+        <v>0</v>
+      </c>
+      <c r="M51" s="63">
+        <v>0</v>
+      </c>
+      <c r="N51" s="63">
+        <v>0</v>
+      </c>
+      <c r="O51" s="63">
+        <v>0</v>
+      </c>
+      <c r="P51" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="63">
         <v>62372.535000000003</v>
       </c>
-      <c r="R51" s="66">
-        <v>0</v>
-      </c>
-      <c r="S51" s="66">
-        <v>0</v>
-      </c>
-      <c r="T51" s="66">
+      <c r="R51" s="63">
+        <v>0</v>
+      </c>
+      <c r="S51" s="63">
+        <v>0</v>
+      </c>
+      <c r="T51" s="63">
         <v>11411.954</v>
       </c>
-      <c r="U51" s="66">
-        <v>0</v>
-      </c>
-      <c r="V51" s="67">
-        <v>0</v>
-      </c>
-      <c r="W51" s="69" t="s">
+      <c r="U51" s="63">
+        <v>0</v>
+      </c>
+      <c r="V51" s="64">
+        <v>0</v>
+      </c>
+      <c r="W51" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="X51" s="64" t="s">
+      <c r="X51" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="Y51" s="64"/>
-      <c r="Z51" s="59"/>
-    </row>
-    <row r="52" spans="1:26">
-      <c r="A52" s="59"/>
+      <c r="Y51" s="61"/>
+      <c r="Z51" s="80"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A52" s="80"/>
       <c r="D52" t="s">
         <v>99</v>
       </c>
-      <c r="E52" s="50">
+      <c r="E52" s="48">
         <v>73784.489000000001</v>
       </c>
-      <c r="F52" s="51">
-        <v>0</v>
-      </c>
-      <c r="G52" s="51">
-        <v>0</v>
-      </c>
-      <c r="H52" s="51">
-        <v>0</v>
-      </c>
-      <c r="I52" s="51">
-        <v>0</v>
-      </c>
-      <c r="J52" s="51">
-        <v>0</v>
-      </c>
-      <c r="K52" s="51">
-        <v>0</v>
-      </c>
-      <c r="L52" s="51">
-        <v>0</v>
-      </c>
-      <c r="M52" s="51">
-        <v>0</v>
-      </c>
-      <c r="N52" s="51">
-        <v>0</v>
-      </c>
-      <c r="O52" s="51">
-        <v>0</v>
-      </c>
-      <c r="P52" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="51">
+      <c r="F52" s="49">
+        <v>0</v>
+      </c>
+      <c r="G52" s="49">
+        <v>0</v>
+      </c>
+      <c r="H52" s="49">
+        <v>0</v>
+      </c>
+      <c r="I52" s="49">
+        <v>0</v>
+      </c>
+      <c r="J52" s="49">
+        <v>0</v>
+      </c>
+      <c r="K52" s="49">
+        <v>0</v>
+      </c>
+      <c r="L52" s="49">
+        <v>0</v>
+      </c>
+      <c r="M52" s="49">
+        <v>0</v>
+      </c>
+      <c r="N52" s="49">
+        <v>0</v>
+      </c>
+      <c r="O52" s="49">
+        <v>0</v>
+      </c>
+      <c r="P52" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="49">
         <v>62372.535000000003</v>
       </c>
-      <c r="R52" s="51">
-        <v>0</v>
-      </c>
-      <c r="S52" s="51">
-        <v>0</v>
-      </c>
-      <c r="T52" s="51">
+      <c r="R52" s="49">
+        <v>0</v>
+      </c>
+      <c r="S52" s="49">
+        <v>0</v>
+      </c>
+      <c r="T52" s="49">
         <v>11411.954</v>
       </c>
-      <c r="U52" s="51">
-        <v>0</v>
-      </c>
-      <c r="V52" s="52">
-        <v>0</v>
-      </c>
-      <c r="W52" s="61"/>
+      <c r="U52" s="49">
+        <v>0</v>
+      </c>
+      <c r="V52" s="50">
+        <v>0</v>
+      </c>
+      <c r="W52" s="58"/>
       <c r="Y52" t="s">
         <v>99</v>
       </c>
-      <c r="Z52" s="59"/>
-    </row>
-    <row r="53" spans="1:26">
-      <c r="A53" s="59"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64" t="s">
+      <c r="Z52" s="80"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A53" s="80"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="D53" s="64"/>
-      <c r="E53" s="65">
+      <c r="D53" s="61"/>
+      <c r="E53" s="62">
         <v>1892486.56672613</v>
       </c>
-      <c r="F53" s="66">
-        <v>0</v>
-      </c>
-      <c r="G53" s="66">
-        <v>0</v>
-      </c>
-      <c r="H53" s="66">
-        <v>0</v>
-      </c>
-      <c r="I53" s="66">
+      <c r="F53" s="63">
+        <v>0</v>
+      </c>
+      <c r="G53" s="63">
+        <v>0</v>
+      </c>
+      <c r="H53" s="63">
+        <v>0</v>
+      </c>
+      <c r="I53" s="63">
         <v>19945.141001</v>
       </c>
-      <c r="J53" s="66">
-        <v>0</v>
-      </c>
-      <c r="K53" s="66">
-        <v>0</v>
-      </c>
-      <c r="L53" s="66">
-        <v>0</v>
-      </c>
-      <c r="M53" s="66">
+      <c r="J53" s="63">
+        <v>0</v>
+      </c>
+      <c r="K53" s="63">
+        <v>0</v>
+      </c>
+      <c r="L53" s="63">
+        <v>0</v>
+      </c>
+      <c r="M53" s="63">
         <v>12460.199739045011</v>
       </c>
-      <c r="N53" s="66">
+      <c r="N53" s="63">
         <v>347221.00819999998</v>
       </c>
-      <c r="O53" s="66">
+      <c r="O53" s="63">
         <v>203968.58279766611</v>
       </c>
-      <c r="P53" s="66">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="66">
+      <c r="P53" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="63">
         <v>889311.9733800001</v>
       </c>
-      <c r="R53" s="66">
+      <c r="R53" s="63">
         <v>331670.13563841628</v>
       </c>
-      <c r="S53" s="66">
+      <c r="S53" s="63">
         <v>26215.64976</v>
       </c>
-      <c r="T53" s="66">
-        <v>0</v>
-      </c>
-      <c r="U53" s="66">
+      <c r="T53" s="63">
+        <v>0</v>
+      </c>
+      <c r="U53" s="63">
         <v>53241.646655999997</v>
       </c>
-      <c r="V53" s="67">
+      <c r="V53" s="64">
         <v>8452.2295540021387</v>
       </c>
-      <c r="W53" s="64"/>
-      <c r="X53" s="64" t="s">
+      <c r="W53" s="61"/>
+      <c r="X53" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="Y53" s="64"/>
-      <c r="Z53" s="59"/>
-    </row>
-    <row r="54" spans="1:26">
-      <c r="A54" s="59"/>
+      <c r="Y53" s="61"/>
+      <c r="Z53" s="80"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A54" s="80"/>
       <c r="D54" t="s">
         <v>99</v>
       </c>
-      <c r="E54" s="50">
+      <c r="E54" s="48">
         <v>1720336.4615061299</v>
       </c>
-      <c r="F54" s="51">
-        <v>0</v>
-      </c>
-      <c r="G54" s="51">
-        <v>0</v>
-      </c>
-      <c r="H54" s="51">
-        <v>0</v>
-      </c>
-      <c r="I54" s="51">
+      <c r="F54" s="49">
+        <v>0</v>
+      </c>
+      <c r="G54" s="49">
+        <v>0</v>
+      </c>
+      <c r="H54" s="49">
+        <v>0</v>
+      </c>
+      <c r="I54" s="49">
         <v>19945.141001</v>
       </c>
-      <c r="J54" s="51">
-        <v>0</v>
-      </c>
-      <c r="K54" s="51">
-        <v>0</v>
-      </c>
-      <c r="L54" s="51">
-        <v>0</v>
-      </c>
-      <c r="M54" s="51">
+      <c r="J54" s="49">
+        <v>0</v>
+      </c>
+      <c r="K54" s="49">
+        <v>0</v>
+      </c>
+      <c r="L54" s="49">
+        <v>0</v>
+      </c>
+      <c r="M54" s="49">
         <v>12460.199739045011</v>
       </c>
-      <c r="N54" s="51">
+      <c r="N54" s="49">
         <v>347221.00819999998</v>
       </c>
-      <c r="O54" s="51">
+      <c r="O54" s="49">
         <v>203968.58279766611</v>
       </c>
-      <c r="P54" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="51">
+      <c r="P54" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="49">
         <v>717161.86816000007</v>
       </c>
-      <c r="R54" s="51">
+      <c r="R54" s="49">
         <v>331670.13563841628</v>
       </c>
-      <c r="S54" s="51">
+      <c r="S54" s="49">
         <v>26215.64976</v>
       </c>
-      <c r="T54" s="51">
-        <v>0</v>
-      </c>
-      <c r="U54" s="51">
+      <c r="T54" s="49">
+        <v>0</v>
+      </c>
+      <c r="U54" s="49">
         <v>53241.646655999997</v>
       </c>
-      <c r="V54" s="52">
+      <c r="V54" s="50">
         <v>8452.2295540021387</v>
       </c>
       <c r="Y54" t="s">
         <v>99</v>
       </c>
-      <c r="Z54" s="59"/>
-    </row>
-    <row r="55" spans="1:26">
-      <c r="A55" s="59"/>
+      <c r="Z54" s="80"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A55" s="80"/>
       <c r="D55" t="s">
         <v>100</v>
       </c>
-      <c r="E55" s="50">
+      <c r="E55" s="48">
         <v>172150.10522</v>
       </c>
-      <c r="F55" s="51">
-        <v>0</v>
-      </c>
-      <c r="G55" s="51">
-        <v>0</v>
-      </c>
-      <c r="H55" s="51">
-        <v>0</v>
-      </c>
-      <c r="I55" s="51">
-        <v>0</v>
-      </c>
-      <c r="J55" s="51">
-        <v>0</v>
-      </c>
-      <c r="K55" s="51">
-        <v>0</v>
-      </c>
-      <c r="L55" s="51">
-        <v>0</v>
-      </c>
-      <c r="M55" s="51">
-        <v>0</v>
-      </c>
-      <c r="N55" s="51">
-        <v>0</v>
-      </c>
-      <c r="O55" s="51">
-        <v>0</v>
-      </c>
-      <c r="P55" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="51">
+      <c r="F55" s="49">
+        <v>0</v>
+      </c>
+      <c r="G55" s="49">
+        <v>0</v>
+      </c>
+      <c r="H55" s="49">
+        <v>0</v>
+      </c>
+      <c r="I55" s="49">
+        <v>0</v>
+      </c>
+      <c r="J55" s="49">
+        <v>0</v>
+      </c>
+      <c r="K55" s="49">
+        <v>0</v>
+      </c>
+      <c r="L55" s="49">
+        <v>0</v>
+      </c>
+      <c r="M55" s="49">
+        <v>0</v>
+      </c>
+      <c r="N55" s="49">
+        <v>0</v>
+      </c>
+      <c r="O55" s="49">
+        <v>0</v>
+      </c>
+      <c r="P55" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="49">
         <v>172150.10522</v>
       </c>
-      <c r="R55" s="51">
-        <v>0</v>
-      </c>
-      <c r="S55" s="51">
-        <v>0</v>
-      </c>
-      <c r="T55" s="51">
-        <v>0</v>
-      </c>
-      <c r="U55" s="51">
-        <v>0</v>
-      </c>
-      <c r="V55" s="52">
+      <c r="R55" s="49">
+        <v>0</v>
+      </c>
+      <c r="S55" s="49">
+        <v>0</v>
+      </c>
+      <c r="T55" s="49">
+        <v>0</v>
+      </c>
+      <c r="U55" s="49">
+        <v>0</v>
+      </c>
+      <c r="V55" s="50">
         <v>0</v>
       </c>
       <c r="Y55" t="s">
         <v>100</v>
       </c>
-      <c r="Z55" s="59"/>
-    </row>
-    <row r="56" spans="1:26">
-      <c r="A56" s="59"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="64" t="s">
+      <c r="Z55" s="80"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A56" s="80"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="D56" s="64"/>
-      <c r="E56" s="65">
+      <c r="D56" s="61"/>
+      <c r="E56" s="62">
         <v>1654179.4050282999</v>
       </c>
-      <c r="F56" s="66">
-        <v>0</v>
-      </c>
-      <c r="G56" s="66">
-        <v>0</v>
-      </c>
-      <c r="H56" s="66">
-        <v>0</v>
-      </c>
-      <c r="I56" s="66">
-        <v>0</v>
-      </c>
-      <c r="J56" s="66">
-        <v>0</v>
-      </c>
-      <c r="K56" s="66">
-        <v>0</v>
-      </c>
-      <c r="L56" s="66">
+      <c r="F56" s="63">
+        <v>0</v>
+      </c>
+      <c r="G56" s="63">
+        <v>0</v>
+      </c>
+      <c r="H56" s="63">
+        <v>0</v>
+      </c>
+      <c r="I56" s="63">
+        <v>0</v>
+      </c>
+      <c r="J56" s="63">
+        <v>0</v>
+      </c>
+      <c r="K56" s="63">
+        <v>0</v>
+      </c>
+      <c r="L56" s="63">
         <v>55474.531000000003</v>
       </c>
-      <c r="M56" s="66">
-        <v>0</v>
-      </c>
-      <c r="N56" s="66">
-        <v>0</v>
-      </c>
-      <c r="O56" s="66">
-        <v>0</v>
-      </c>
-      <c r="P56" s="66">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="66">
-        <v>0</v>
-      </c>
-      <c r="R56" s="66">
-        <v>0</v>
-      </c>
-      <c r="S56" s="66">
-        <v>0</v>
-      </c>
-      <c r="T56" s="66">
-        <v>0</v>
-      </c>
-      <c r="U56" s="66">
-        <v>0</v>
-      </c>
-      <c r="V56" s="67">
+      <c r="M56" s="63">
+        <v>0</v>
+      </c>
+      <c r="N56" s="63">
+        <v>0</v>
+      </c>
+      <c r="O56" s="63">
+        <v>0</v>
+      </c>
+      <c r="P56" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="63">
+        <v>0</v>
+      </c>
+      <c r="R56" s="63">
+        <v>0</v>
+      </c>
+      <c r="S56" s="63">
+        <v>0</v>
+      </c>
+      <c r="T56" s="63">
+        <v>0</v>
+      </c>
+      <c r="U56" s="63">
+        <v>0</v>
+      </c>
+      <c r="V56" s="64">
         <v>1598704.8740282999</v>
       </c>
-      <c r="W56" s="64"/>
-      <c r="X56" s="64" t="s">
+      <c r="W56" s="61"/>
+      <c r="X56" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="Y56" s="64"/>
-      <c r="Z56" s="59"/>
-    </row>
-    <row r="57" spans="1:26">
-      <c r="A57" s="59"/>
+      <c r="Y56" s="61"/>
+      <c r="Z56" s="80"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A57" s="80"/>
       <c r="D57" t="s">
         <v>99</v>
       </c>
-      <c r="E57" s="50">
+      <c r="E57" s="48">
         <v>1654179.4050282999</v>
       </c>
-      <c r="F57" s="51">
-        <v>0</v>
-      </c>
-      <c r="G57" s="51">
-        <v>0</v>
-      </c>
-      <c r="H57" s="51">
-        <v>0</v>
-      </c>
-      <c r="I57" s="51">
-        <v>0</v>
-      </c>
-      <c r="J57" s="51">
-        <v>0</v>
-      </c>
-      <c r="K57" s="51">
-        <v>0</v>
-      </c>
-      <c r="L57" s="51">
+      <c r="F57" s="49">
+        <v>0</v>
+      </c>
+      <c r="G57" s="49">
+        <v>0</v>
+      </c>
+      <c r="H57" s="49">
+        <v>0</v>
+      </c>
+      <c r="I57" s="49">
+        <v>0</v>
+      </c>
+      <c r="J57" s="49">
+        <v>0</v>
+      </c>
+      <c r="K57" s="49">
+        <v>0</v>
+      </c>
+      <c r="L57" s="49">
         <v>55474.531000000003</v>
       </c>
-      <c r="M57" s="51">
-        <v>0</v>
-      </c>
-      <c r="N57" s="51">
-        <v>0</v>
-      </c>
-      <c r="O57" s="51">
-        <v>0</v>
-      </c>
-      <c r="P57" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="51">
-        <v>0</v>
-      </c>
-      <c r="R57" s="51">
-        <v>0</v>
-      </c>
-      <c r="S57" s="51">
-        <v>0</v>
-      </c>
-      <c r="T57" s="51">
-        <v>0</v>
-      </c>
-      <c r="U57" s="51">
-        <v>0</v>
-      </c>
-      <c r="V57" s="52">
+      <c r="M57" s="49">
+        <v>0</v>
+      </c>
+      <c r="N57" s="49">
+        <v>0</v>
+      </c>
+      <c r="O57" s="49">
+        <v>0</v>
+      </c>
+      <c r="P57" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="49">
+        <v>0</v>
+      </c>
+      <c r="R57" s="49">
+        <v>0</v>
+      </c>
+      <c r="S57" s="49">
+        <v>0</v>
+      </c>
+      <c r="T57" s="49">
+        <v>0</v>
+      </c>
+      <c r="U57" s="49">
+        <v>0</v>
+      </c>
+      <c r="V57" s="50">
         <v>1598704.8740282999</v>
       </c>
       <c r="Y57" t="s">
         <v>99</v>
       </c>
-      <c r="Z57" s="59"/>
-    </row>
-    <row r="58" spans="1:26">
-      <c r="A58" s="59"/>
-      <c r="B58" s="46" t="s">
+      <c r="Z57" s="80"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A58" s="80"/>
+      <c r="B58" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="47">
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="45">
         <v>413528.57094325771</v>
       </c>
-      <c r="F58" s="48">
+      <c r="F58" s="46">
         <v>69287.976783314298</v>
       </c>
-      <c r="G58" s="48">
+      <c r="G58" s="46">
         <v>28419.19115914217</v>
       </c>
-      <c r="H58" s="48">
+      <c r="H58" s="46">
         <v>3767.9894393886411</v>
       </c>
-      <c r="I58" s="48">
+      <c r="I58" s="46">
         <v>8858.3260911798243</v>
       </c>
-      <c r="J58" s="48">
+      <c r="J58" s="46">
         <v>6510.2371307718968</v>
       </c>
-      <c r="K58" s="48">
+      <c r="K58" s="46">
         <v>3877.7771482317421</v>
       </c>
-      <c r="L58" s="48">
+      <c r="L58" s="46">
         <v>4531.7337374524059</v>
       </c>
-      <c r="M58" s="48">
+      <c r="M58" s="46">
         <v>4250.8717363713286</v>
       </c>
-      <c r="N58" s="48">
+      <c r="N58" s="46">
         <v>64590.665300903929</v>
       </c>
-      <c r="O58" s="48">
+      <c r="O58" s="46">
         <v>14083.900312934191</v>
       </c>
-      <c r="P58" s="48">
+      <c r="P58" s="46">
         <v>35248.766240851117</v>
       </c>
-      <c r="Q58" s="48">
+      <c r="Q58" s="46">
         <v>11468.65980857212</v>
       </c>
-      <c r="R58" s="48">
+      <c r="R58" s="46">
         <v>17746.55905688347</v>
       </c>
-      <c r="S58" s="48">
+      <c r="S58" s="46">
         <v>77471.609926773905</v>
       </c>
-      <c r="T58" s="48">
+      <c r="T58" s="46">
         <v>28216.25402319722</v>
       </c>
-      <c r="U58" s="48">
+      <c r="U58" s="46">
         <v>15710.866340845139</v>
       </c>
-      <c r="V58" s="49">
+      <c r="V58" s="47">
         <v>19487.186706444321</v>
       </c>
-      <c r="W58" s="46" t="s">
+      <c r="W58" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="X58" s="46"/>
-      <c r="Y58" s="46"/>
-      <c r="Z58" s="59"/>
-    </row>
-    <row r="59" spans="1:26">
-      <c r="A59" s="59"/>
+      <c r="X58" s="44"/>
+      <c r="Y58" s="44"/>
+      <c r="Z58" s="80"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A59" s="80"/>
       <c r="B59" t="s">
         <v>105</v>
       </c>
       <c r="D59" t="s">
         <v>99</v>
       </c>
-      <c r="E59" s="50">
+      <c r="E59" s="48">
         <v>349828.06953711942</v>
       </c>
-      <c r="F59" s="51">
+      <c r="F59" s="49">
         <v>57043.93826847602</v>
       </c>
-      <c r="G59" s="51">
+      <c r="G59" s="49">
         <v>25503.39327565454</v>
       </c>
-      <c r="H59" s="51">
-        <v>0</v>
-      </c>
-      <c r="I59" s="51">
+      <c r="H59" s="49">
+        <v>0</v>
+      </c>
+      <c r="I59" s="49">
         <v>6709.2403275742918</v>
       </c>
-      <c r="J59" s="51">
+      <c r="J59" s="49">
         <v>6510.2371307718968</v>
       </c>
-      <c r="K59" s="51">
-        <v>0</v>
-      </c>
-      <c r="L59" s="51">
+      <c r="K59" s="49">
+        <v>0</v>
+      </c>
+      <c r="L59" s="49">
         <v>3282.5465675405212</v>
       </c>
-      <c r="M59" s="51">
+      <c r="M59" s="49">
         <v>3883.6746239236481</v>
       </c>
-      <c r="N59" s="51">
+      <c r="N59" s="49">
         <v>49736.046789549036</v>
       </c>
-      <c r="O59" s="51">
+      <c r="O59" s="49">
         <v>14001.011574232691</v>
       </c>
-      <c r="P59" s="51">
+      <c r="P59" s="49">
         <v>32426.216364352189</v>
       </c>
-      <c r="Q59" s="51">
+      <c r="Q59" s="49">
         <v>10633.048901517261</v>
       </c>
-      <c r="R59" s="51">
+      <c r="R59" s="49">
         <v>17746.55905688347</v>
       </c>
-      <c r="S59" s="51">
+      <c r="S59" s="49">
         <v>77471.609926773905</v>
       </c>
-      <c r="T59" s="51">
+      <c r="T59" s="49">
         <v>22438.341147841991</v>
       </c>
-      <c r="U59" s="51">
+      <c r="U59" s="49">
         <v>4914.1273702892267</v>
       </c>
-      <c r="V59" s="52">
+      <c r="V59" s="50">
         <v>17528.078211738692</v>
       </c>
       <c r="W59" t="s">
@@ -5584,68 +5636,68 @@
       <c r="Y59" t="s">
         <v>99</v>
       </c>
-      <c r="Z59" s="59"/>
-    </row>
-    <row r="60" spans="1:26">
-      <c r="A60" s="59"/>
+      <c r="Z59" s="80"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A60" s="80"/>
       <c r="B60" t="s">
         <v>105</v>
       </c>
       <c r="D60" t="s">
         <v>100</v>
       </c>
-      <c r="E60" s="50">
+      <c r="E60" s="48">
         <v>63700.501406138348</v>
       </c>
-      <c r="F60" s="51">
+      <c r="F60" s="49">
         <v>12244.03851483827</v>
       </c>
-      <c r="G60" s="51">
+      <c r="G60" s="49">
         <v>2915.7978834876299</v>
       </c>
-      <c r="H60" s="51">
+      <c r="H60" s="49">
         <v>3767.9894393886411</v>
       </c>
-      <c r="I60" s="51">
+      <c r="I60" s="49">
         <v>2149.085763605533</v>
       </c>
-      <c r="J60" s="51">
-        <v>0</v>
-      </c>
-      <c r="K60" s="51">
+      <c r="J60" s="49">
+        <v>0</v>
+      </c>
+      <c r="K60" s="49">
         <v>3877.7771482317421</v>
       </c>
-      <c r="L60" s="51">
+      <c r="L60" s="49">
         <v>1249.1871699118849</v>
       </c>
-      <c r="M60" s="51">
+      <c r="M60" s="49">
         <v>367.19711244768138</v>
       </c>
-      <c r="N60" s="51">
+      <c r="N60" s="49">
         <v>14854.618511354891</v>
       </c>
-      <c r="O60" s="51">
+      <c r="O60" s="49">
         <v>82.888738701508217</v>
       </c>
-      <c r="P60" s="51">
+      <c r="P60" s="49">
         <v>2822.5498764989311</v>
       </c>
-      <c r="Q60" s="51">
+      <c r="Q60" s="49">
         <v>835.61090705485492</v>
       </c>
-      <c r="R60" s="51">
-        <v>0</v>
-      </c>
-      <c r="S60" s="51">
-        <v>0</v>
-      </c>
-      <c r="T60" s="51">
+      <c r="R60" s="49">
+        <v>0</v>
+      </c>
+      <c r="S60" s="49">
+        <v>0</v>
+      </c>
+      <c r="T60" s="49">
         <v>5777.9128753552277</v>
       </c>
-      <c r="U60" s="51">
+      <c r="U60" s="49">
         <v>10796.738970555911</v>
       </c>
-      <c r="V60" s="52">
+      <c r="V60" s="50">
         <v>1959.108494705627</v>
       </c>
       <c r="W60" t="s">
@@ -5654,140 +5706,140 @@
       <c r="Y60" t="s">
         <v>100</v>
       </c>
-      <c r="Z60" s="59"/>
-    </row>
-    <row r="61" spans="1:26">
-      <c r="A61" s="59"/>
-      <c r="B61" s="64" t="s">
+      <c r="Z60" s="80"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A61" s="80"/>
+      <c r="B61" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="C61" s="64" t="s">
+      <c r="C61" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="D61" s="64"/>
-      <c r="E61" s="65">
-        <v>0</v>
-      </c>
-      <c r="F61" s="66">
-        <v>0</v>
-      </c>
-      <c r="G61" s="66">
-        <v>0</v>
-      </c>
-      <c r="H61" s="66">
-        <v>0</v>
-      </c>
-      <c r="I61" s="66">
-        <v>0</v>
-      </c>
-      <c r="J61" s="66">
-        <v>0</v>
-      </c>
-      <c r="K61" s="66">
-        <v>0</v>
-      </c>
-      <c r="L61" s="66">
-        <v>0</v>
-      </c>
-      <c r="M61" s="66">
-        <v>0</v>
-      </c>
-      <c r="N61" s="66">
-        <v>0</v>
-      </c>
-      <c r="O61" s="66">
-        <v>0</v>
-      </c>
-      <c r="P61" s="66">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="66">
-        <v>0</v>
-      </c>
-      <c r="R61" s="66">
-        <v>0</v>
-      </c>
-      <c r="S61" s="66">
-        <v>0</v>
-      </c>
-      <c r="T61" s="66">
-        <v>0</v>
-      </c>
-      <c r="U61" s="66">
-        <v>0</v>
-      </c>
-      <c r="V61" s="67">
-        <v>0</v>
-      </c>
-      <c r="W61" s="64" t="s">
+      <c r="D61" s="61"/>
+      <c r="E61" s="62">
+        <v>0</v>
+      </c>
+      <c r="F61" s="63">
+        <v>0</v>
+      </c>
+      <c r="G61" s="63">
+        <v>0</v>
+      </c>
+      <c r="H61" s="63">
+        <v>0</v>
+      </c>
+      <c r="I61" s="63">
+        <v>0</v>
+      </c>
+      <c r="J61" s="63">
+        <v>0</v>
+      </c>
+      <c r="K61" s="63">
+        <v>0</v>
+      </c>
+      <c r="L61" s="63">
+        <v>0</v>
+      </c>
+      <c r="M61" s="63">
+        <v>0</v>
+      </c>
+      <c r="N61" s="63">
+        <v>0</v>
+      </c>
+      <c r="O61" s="63">
+        <v>0</v>
+      </c>
+      <c r="P61" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="63">
+        <v>0</v>
+      </c>
+      <c r="R61" s="63">
+        <v>0</v>
+      </c>
+      <c r="S61" s="63">
+        <v>0</v>
+      </c>
+      <c r="T61" s="63">
+        <v>0</v>
+      </c>
+      <c r="U61" s="63">
+        <v>0</v>
+      </c>
+      <c r="V61" s="64">
+        <v>0</v>
+      </c>
+      <c r="W61" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="X61" s="64" t="s">
+      <c r="X61" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="Y61" s="64"/>
-      <c r="Z61" s="59"/>
-    </row>
-    <row r="62" spans="1:26">
-      <c r="A62" s="59"/>
+      <c r="Y61" s="61"/>
+      <c r="Z61" s="80"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A62" s="80"/>
       <c r="B62" t="s">
         <v>105</v>
       </c>
       <c r="D62" t="s">
         <v>99</v>
       </c>
-      <c r="E62" s="70">
-        <v>0</v>
-      </c>
-      <c r="F62" s="51">
-        <v>0</v>
-      </c>
-      <c r="G62" s="51">
-        <v>0</v>
-      </c>
-      <c r="H62" s="51">
-        <v>0</v>
-      </c>
-      <c r="I62" s="51">
-        <v>0</v>
-      </c>
-      <c r="J62" s="51">
-        <v>0</v>
-      </c>
-      <c r="K62" s="51">
-        <v>0</v>
-      </c>
-      <c r="L62" s="51">
-        <v>0</v>
-      </c>
-      <c r="M62" s="51">
-        <v>0</v>
-      </c>
-      <c r="N62" s="51">
-        <v>0</v>
-      </c>
-      <c r="O62" s="51">
-        <v>0</v>
-      </c>
-      <c r="P62" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="51">
-        <v>0</v>
-      </c>
-      <c r="R62" s="51">
-        <v>0</v>
-      </c>
-      <c r="S62" s="51">
-        <v>0</v>
-      </c>
-      <c r="T62" s="51">
-        <v>0</v>
-      </c>
-      <c r="U62" s="51">
-        <v>0</v>
-      </c>
-      <c r="V62" s="52">
+      <c r="E62" s="67">
+        <v>0</v>
+      </c>
+      <c r="F62" s="49">
+        <v>0</v>
+      </c>
+      <c r="G62" s="49">
+        <v>0</v>
+      </c>
+      <c r="H62" s="49">
+        <v>0</v>
+      </c>
+      <c r="I62" s="49">
+        <v>0</v>
+      </c>
+      <c r="J62" s="49">
+        <v>0</v>
+      </c>
+      <c r="K62" s="49">
+        <v>0</v>
+      </c>
+      <c r="L62" s="49">
+        <v>0</v>
+      </c>
+      <c r="M62" s="49">
+        <v>0</v>
+      </c>
+      <c r="N62" s="49">
+        <v>0</v>
+      </c>
+      <c r="O62" s="49">
+        <v>0</v>
+      </c>
+      <c r="P62" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="49">
+        <v>0</v>
+      </c>
+      <c r="R62" s="49">
+        <v>0</v>
+      </c>
+      <c r="S62" s="49">
+        <v>0</v>
+      </c>
+      <c r="T62" s="49">
+        <v>0</v>
+      </c>
+      <c r="U62" s="49">
+        <v>0</v>
+      </c>
+      <c r="V62" s="50">
         <v>0</v>
       </c>
       <c r="W62" t="s">
@@ -5796,68 +5848,68 @@
       <c r="Y62" t="s">
         <v>99</v>
       </c>
-      <c r="Z62" s="59"/>
-    </row>
-    <row r="63" spans="1:26">
-      <c r="A63" s="59"/>
+      <c r="Z62" s="80"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A63" s="80"/>
       <c r="B63" t="s">
         <v>105</v>
       </c>
       <c r="D63" t="s">
         <v>100</v>
       </c>
-      <c r="E63" s="70">
-        <v>0</v>
-      </c>
-      <c r="F63" s="51">
-        <v>0</v>
-      </c>
-      <c r="G63" s="51">
-        <v>0</v>
-      </c>
-      <c r="H63" s="51">
-        <v>0</v>
-      </c>
-      <c r="I63" s="51">
-        <v>0</v>
-      </c>
-      <c r="J63" s="51">
-        <v>0</v>
-      </c>
-      <c r="K63" s="51">
-        <v>0</v>
-      </c>
-      <c r="L63" s="51">
-        <v>0</v>
-      </c>
-      <c r="M63" s="51">
-        <v>0</v>
-      </c>
-      <c r="N63" s="51">
-        <v>0</v>
-      </c>
-      <c r="O63" s="51">
-        <v>0</v>
-      </c>
-      <c r="P63" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="51">
-        <v>0</v>
-      </c>
-      <c r="R63" s="51">
-        <v>0</v>
-      </c>
-      <c r="S63" s="51">
-        <v>0</v>
-      </c>
-      <c r="T63" s="51">
-        <v>0</v>
-      </c>
-      <c r="U63" s="51">
-        <v>0</v>
-      </c>
-      <c r="V63" s="52">
+      <c r="E63" s="67">
+        <v>0</v>
+      </c>
+      <c r="F63" s="49">
+        <v>0</v>
+      </c>
+      <c r="G63" s="49">
+        <v>0</v>
+      </c>
+      <c r="H63" s="49">
+        <v>0</v>
+      </c>
+      <c r="I63" s="49">
+        <v>0</v>
+      </c>
+      <c r="J63" s="49">
+        <v>0</v>
+      </c>
+      <c r="K63" s="49">
+        <v>0</v>
+      </c>
+      <c r="L63" s="49">
+        <v>0</v>
+      </c>
+      <c r="M63" s="49">
+        <v>0</v>
+      </c>
+      <c r="N63" s="49">
+        <v>0</v>
+      </c>
+      <c r="O63" s="49">
+        <v>0</v>
+      </c>
+      <c r="P63" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="49">
+        <v>0</v>
+      </c>
+      <c r="R63" s="49">
+        <v>0</v>
+      </c>
+      <c r="S63" s="49">
+        <v>0</v>
+      </c>
+      <c r="T63" s="49">
+        <v>0</v>
+      </c>
+      <c r="U63" s="49">
+        <v>0</v>
+      </c>
+      <c r="V63" s="50">
         <v>0</v>
       </c>
       <c r="W63" t="s">
@@ -5866,140 +5918,140 @@
       <c r="Y63" t="s">
         <v>100</v>
       </c>
-      <c r="Z63" s="59"/>
-    </row>
-    <row r="64" spans="1:26">
-      <c r="A64" s="59"/>
-      <c r="B64" s="64" t="s">
+      <c r="Z63" s="80"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A64" s="80"/>
+      <c r="B64" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="C64" s="64" t="s">
+      <c r="C64" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="D64" s="64"/>
-      <c r="E64" s="65">
+      <c r="D64" s="61"/>
+      <c r="E64" s="62">
         <v>142399.91493539</v>
       </c>
-      <c r="F64" s="66">
-        <v>0</v>
-      </c>
-      <c r="G64" s="66">
-        <v>0</v>
-      </c>
-      <c r="H64" s="66">
-        <v>0</v>
-      </c>
-      <c r="I64" s="66">
+      <c r="F64" s="63">
+        <v>0</v>
+      </c>
+      <c r="G64" s="63">
+        <v>0</v>
+      </c>
+      <c r="H64" s="63">
+        <v>0</v>
+      </c>
+      <c r="I64" s="63">
         <v>8704.8804356103683</v>
       </c>
-      <c r="J64" s="66">
+      <c r="J64" s="63">
         <v>6510.2371307718968</v>
       </c>
-      <c r="K64" s="66">
+      <c r="K64" s="63">
         <v>115.8118439276315</v>
       </c>
-      <c r="L64" s="66">
-        <v>0</v>
-      </c>
-      <c r="M64" s="66">
+      <c r="L64" s="63">
+        <v>0</v>
+      </c>
+      <c r="M64" s="63">
         <v>3598.9587975531399</v>
       </c>
-      <c r="N64" s="66">
+      <c r="N64" s="63">
         <v>35808.578683191263</v>
       </c>
-      <c r="O64" s="66">
-        <v>0</v>
-      </c>
-      <c r="P64" s="66">
+      <c r="O64" s="63">
+        <v>0</v>
+      </c>
+      <c r="P64" s="63">
         <v>30180.414210766321</v>
       </c>
-      <c r="Q64" s="66">
+      <c r="Q64" s="63">
         <v>9058.8659802542825</v>
       </c>
-      <c r="R64" s="66">
+      <c r="R64" s="63">
         <v>6874.892364044159</v>
       </c>
-      <c r="S64" s="66">
+      <c r="S64" s="63">
         <v>34372.931735346639</v>
       </c>
-      <c r="T64" s="66">
+      <c r="T64" s="63">
         <v>5563.3829032724989</v>
       </c>
-      <c r="U64" s="66">
+      <c r="U64" s="63">
         <v>1610.960850651793</v>
       </c>
-      <c r="V64" s="67">
-        <v>0</v>
-      </c>
-      <c r="W64" s="64" t="s">
+      <c r="V64" s="64">
+        <v>0</v>
+      </c>
+      <c r="W64" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="X64" s="64" t="s">
+      <c r="X64" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="Y64" s="64"/>
-      <c r="Z64" s="59"/>
-    </row>
-    <row r="65" spans="1:26">
-      <c r="A65" s="59"/>
+      <c r="Y64" s="61"/>
+      <c r="Z64" s="80"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A65" s="80"/>
       <c r="B65" t="s">
         <v>105</v>
       </c>
       <c r="D65" t="s">
         <v>99</v>
       </c>
-      <c r="E65" s="50">
+      <c r="E65" s="48">
         <v>139178.97264718619</v>
       </c>
-      <c r="F65" s="51">
-        <v>0</v>
-      </c>
-      <c r="G65" s="51">
-        <v>0</v>
-      </c>
-      <c r="H65" s="51">
-        <v>0</v>
-      </c>
-      <c r="I65" s="51">
+      <c r="F65" s="49">
+        <v>0</v>
+      </c>
+      <c r="G65" s="49">
+        <v>0</v>
+      </c>
+      <c r="H65" s="49">
+        <v>0</v>
+      </c>
+      <c r="I65" s="49">
         <v>6555.7946720048358</v>
       </c>
-      <c r="J65" s="51">
+      <c r="J65" s="49">
         <v>6510.2371307718968</v>
       </c>
-      <c r="K65" s="51">
-        <v>0</v>
-      </c>
-      <c r="L65" s="51">
-        <v>0</v>
-      </c>
-      <c r="M65" s="51">
+      <c r="K65" s="49">
+        <v>0</v>
+      </c>
+      <c r="L65" s="49">
+        <v>0</v>
+      </c>
+      <c r="M65" s="49">
         <v>3598.9587975531399</v>
       </c>
-      <c r="N65" s="51">
+      <c r="N65" s="49">
         <v>35808.578683191263</v>
       </c>
-      <c r="O65" s="51">
-        <v>0</v>
-      </c>
-      <c r="P65" s="51">
+      <c r="O65" s="49">
+        <v>0</v>
+      </c>
+      <c r="P65" s="49">
         <v>29224.369530095701</v>
       </c>
-      <c r="Q65" s="51">
+      <c r="Q65" s="49">
         <v>9058.8659802542825</v>
       </c>
-      <c r="R65" s="51">
+      <c r="R65" s="49">
         <v>6874.892364044159</v>
       </c>
-      <c r="S65" s="51">
+      <c r="S65" s="49">
         <v>34372.931735346639</v>
       </c>
-      <c r="T65" s="51">
+      <c r="T65" s="49">
         <v>5563.3829032724989</v>
       </c>
-      <c r="U65" s="51">
+      <c r="U65" s="49">
         <v>1610.960850651793</v>
       </c>
-      <c r="V65" s="52">
+      <c r="V65" s="50">
         <v>0</v>
       </c>
       <c r="W65" t="s">
@@ -6008,68 +6060,68 @@
       <c r="Y65" t="s">
         <v>99</v>
       </c>
-      <c r="Z65" s="59"/>
-    </row>
-    <row r="66" spans="1:26">
-      <c r="A66" s="59"/>
+      <c r="Z65" s="80"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A66" s="80"/>
       <c r="B66" t="s">
         <v>105</v>
       </c>
       <c r="D66" t="s">
         <v>100</v>
       </c>
-      <c r="E66" s="50">
+      <c r="E66" s="48">
         <v>3220.942288203792</v>
       </c>
-      <c r="F66" s="51">
-        <v>0</v>
-      </c>
-      <c r="G66" s="51">
-        <v>0</v>
-      </c>
-      <c r="H66" s="51">
-        <v>0</v>
-      </c>
-      <c r="I66" s="51">
+      <c r="F66" s="49">
+        <v>0</v>
+      </c>
+      <c r="G66" s="49">
+        <v>0</v>
+      </c>
+      <c r="H66" s="49">
+        <v>0</v>
+      </c>
+      <c r="I66" s="49">
         <v>2149.085763605533</v>
       </c>
-      <c r="J66" s="51">
-        <v>0</v>
-      </c>
-      <c r="K66" s="51">
+      <c r="J66" s="49">
+        <v>0</v>
+      </c>
+      <c r="K66" s="49">
         <v>115.8118439276315</v>
       </c>
-      <c r="L66" s="51">
-        <v>0</v>
-      </c>
-      <c r="M66" s="51">
-        <v>0</v>
-      </c>
-      <c r="N66" s="51">
-        <v>0</v>
-      </c>
-      <c r="O66" s="51">
-        <v>0</v>
-      </c>
-      <c r="P66" s="51">
+      <c r="L66" s="49">
+        <v>0</v>
+      </c>
+      <c r="M66" s="49">
+        <v>0</v>
+      </c>
+      <c r="N66" s="49">
+        <v>0</v>
+      </c>
+      <c r="O66" s="49">
+        <v>0</v>
+      </c>
+      <c r="P66" s="49">
         <v>956.04468067062817</v>
       </c>
-      <c r="Q66" s="51">
-        <v>0</v>
-      </c>
-      <c r="R66" s="51">
-        <v>0</v>
-      </c>
-      <c r="S66" s="51">
-        <v>0</v>
-      </c>
-      <c r="T66" s="51">
-        <v>0</v>
-      </c>
-      <c r="U66" s="51">
-        <v>0</v>
-      </c>
-      <c r="V66" s="52">
+      <c r="Q66" s="49">
+        <v>0</v>
+      </c>
+      <c r="R66" s="49">
+        <v>0</v>
+      </c>
+      <c r="S66" s="49">
+        <v>0</v>
+      </c>
+      <c r="T66" s="49">
+        <v>0</v>
+      </c>
+      <c r="U66" s="49">
+        <v>0</v>
+      </c>
+      <c r="V66" s="50">
         <v>0</v>
       </c>
       <c r="W66" t="s">
@@ -6078,140 +6130,140 @@
       <c r="Y66" t="s">
         <v>100</v>
       </c>
-      <c r="Z66" s="59"/>
-    </row>
-    <row r="67" spans="1:26">
-      <c r="A67" s="59"/>
-      <c r="B67" s="64" t="s">
+      <c r="Z66" s="80"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A67" s="80"/>
+      <c r="B67" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="C67" s="64" t="s">
+      <c r="C67" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="D67" s="64"/>
-      <c r="E67" s="65">
+      <c r="D67" s="61"/>
+      <c r="E67" s="62">
         <v>173701.5610688887</v>
       </c>
-      <c r="F67" s="66">
+      <c r="F67" s="63">
         <v>69287.976783314298</v>
       </c>
-      <c r="G67" s="66">
+      <c r="G67" s="63">
         <v>2915.7978834876299</v>
       </c>
-      <c r="H67" s="66">
+      <c r="H67" s="63">
         <v>3767.9894393886411</v>
       </c>
-      <c r="I67" s="66">
+      <c r="I67" s="63">
         <v>153.44565556945631</v>
       </c>
-      <c r="J67" s="66">
-        <v>0</v>
-      </c>
-      <c r="K67" s="66">
-        <v>0</v>
-      </c>
-      <c r="L67" s="66">
+      <c r="J67" s="63">
+        <v>0</v>
+      </c>
+      <c r="K67" s="63">
+        <v>0</v>
+      </c>
+      <c r="L67" s="63">
         <v>1249.1871699118849</v>
       </c>
-      <c r="M67" s="66">
+      <c r="M67" s="63">
         <v>367.19711244768138</v>
       </c>
-      <c r="N67" s="66">
+      <c r="N67" s="63">
         <v>28782.08661771267</v>
       </c>
-      <c r="O67" s="66">
+      <c r="O67" s="63">
         <v>2927.2134200480882</v>
       </c>
-      <c r="P67" s="66">
+      <c r="P67" s="63">
         <v>3806.6485481860509</v>
       </c>
-      <c r="Q67" s="66">
+      <c r="Q67" s="63">
         <v>1979.917298112947</v>
       </c>
-      <c r="R67" s="66">
+      <c r="R67" s="63">
         <v>10846.85881845732</v>
       </c>
-      <c r="S67" s="66">
-        <v>0</v>
-      </c>
-      <c r="T67" s="66">
+      <c r="S67" s="63">
+        <v>0</v>
+      </c>
+      <c r="T67" s="63">
         <v>14030.150125614349</v>
       </c>
-      <c r="U67" s="66">
+      <c r="U67" s="63">
         <v>14099.90549019335</v>
       </c>
-      <c r="V67" s="67">
+      <c r="V67" s="64">
         <v>19487.186706444321</v>
       </c>
-      <c r="W67" s="64" t="s">
+      <c r="W67" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="X67" s="64" t="s">
+      <c r="X67" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="Y67" s="64"/>
-      <c r="Z67" s="59"/>
-    </row>
-    <row r="68" spans="1:26">
-      <c r="A68" s="59"/>
+      <c r="Y67" s="61"/>
+      <c r="Z67" s="80"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A68" s="80"/>
       <c r="B68" t="s">
         <v>105</v>
       </c>
       <c r="D68" t="s">
         <v>99</v>
       </c>
-      <c r="E68" s="50">
+      <c r="E68" s="48">
         <v>116983.96725525821</v>
       </c>
-      <c r="F68" s="51">
+      <c r="F68" s="49">
         <v>57043.93826847602</v>
       </c>
-      <c r="G68" s="51">
-        <v>0</v>
-      </c>
-      <c r="H68" s="51">
-        <v>0</v>
-      </c>
-      <c r="I68" s="51">
+      <c r="G68" s="49">
+        <v>0</v>
+      </c>
+      <c r="H68" s="49">
+        <v>0</v>
+      </c>
+      <c r="I68" s="49">
         <v>153.44565556945631</v>
       </c>
-      <c r="J68" s="51">
-        <v>0</v>
-      </c>
-      <c r="K68" s="51">
-        <v>0</v>
-      </c>
-      <c r="L68" s="51">
-        <v>0</v>
-      </c>
-      <c r="M68" s="51">
-        <v>0</v>
-      </c>
-      <c r="N68" s="51">
+      <c r="J68" s="49">
+        <v>0</v>
+      </c>
+      <c r="K68" s="49">
+        <v>0</v>
+      </c>
+      <c r="L68" s="49">
+        <v>0</v>
+      </c>
+      <c r="M68" s="49">
+        <v>0</v>
+      </c>
+      <c r="N68" s="49">
         <v>13927.46810635779</v>
       </c>
-      <c r="O68" s="51">
+      <c r="O68" s="49">
         <v>2844.3246813465798</v>
       </c>
-      <c r="P68" s="51">
+      <c r="P68" s="49">
         <v>1940.1433523577491</v>
       </c>
-      <c r="Q68" s="51">
+      <c r="Q68" s="49">
         <v>1144.306391058092</v>
       </c>
-      <c r="R68" s="51">
+      <c r="R68" s="49">
         <v>10846.85881845732</v>
       </c>
-      <c r="S68" s="51">
-        <v>0</v>
-      </c>
-      <c r="T68" s="51">
+      <c r="S68" s="49">
+        <v>0</v>
+      </c>
+      <c r="T68" s="49">
         <v>8252.2372502591243</v>
       </c>
-      <c r="U68" s="51">
+      <c r="U68" s="49">
         <v>3303.1665196374338</v>
       </c>
-      <c r="V68" s="52">
+      <c r="V68" s="50">
         <v>17528.078211738692</v>
       </c>
       <c r="W68" t="s">
@@ -6220,68 +6272,68 @@
       <c r="Y68" t="s">
         <v>99</v>
       </c>
-      <c r="Z68" s="59"/>
-    </row>
-    <row r="69" spans="1:26">
-      <c r="A69" s="59"/>
+      <c r="Z68" s="80"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A69" s="80"/>
       <c r="B69" t="s">
         <v>105</v>
       </c>
       <c r="D69" t="s">
         <v>100</v>
       </c>
-      <c r="E69" s="50">
+      <c r="E69" s="48">
         <v>56717.593813630439</v>
       </c>
-      <c r="F69" s="51">
+      <c r="F69" s="49">
         <v>12244.03851483827</v>
       </c>
-      <c r="G69" s="51">
+      <c r="G69" s="49">
         <v>2915.7978834876299</v>
       </c>
-      <c r="H69" s="51">
+      <c r="H69" s="49">
         <v>3767.9894393886411</v>
       </c>
-      <c r="I69" s="51">
-        <v>0</v>
-      </c>
-      <c r="J69" s="51">
-        <v>0</v>
-      </c>
-      <c r="K69" s="51">
-        <v>0</v>
-      </c>
-      <c r="L69" s="51">
+      <c r="I69" s="49">
+        <v>0</v>
+      </c>
+      <c r="J69" s="49">
+        <v>0</v>
+      </c>
+      <c r="K69" s="49">
+        <v>0</v>
+      </c>
+      <c r="L69" s="49">
         <v>1249.1871699118849</v>
       </c>
-      <c r="M69" s="51">
+      <c r="M69" s="49">
         <v>367.19711244768138</v>
       </c>
-      <c r="N69" s="51">
+      <c r="N69" s="49">
         <v>14854.618511354891</v>
       </c>
-      <c r="O69" s="51">
+      <c r="O69" s="49">
         <v>82.888738701508217</v>
       </c>
-      <c r="P69" s="51">
+      <c r="P69" s="49">
         <v>1866.505195828302</v>
       </c>
-      <c r="Q69" s="51">
+      <c r="Q69" s="49">
         <v>835.61090705485492</v>
       </c>
-      <c r="R69" s="51">
-        <v>0</v>
-      </c>
-      <c r="S69" s="51">
-        <v>0</v>
-      </c>
-      <c r="T69" s="51">
+      <c r="R69" s="49">
+        <v>0</v>
+      </c>
+      <c r="S69" s="49">
+        <v>0</v>
+      </c>
+      <c r="T69" s="49">
         <v>5777.9128753552277</v>
       </c>
-      <c r="U69" s="51">
+      <c r="U69" s="49">
         <v>10796.738970555911</v>
       </c>
-      <c r="V69" s="52">
+      <c r="V69" s="50">
         <v>1959.108494705627</v>
       </c>
       <c r="W69" t="s">
@@ -6290,601 +6342,601 @@
       <c r="Y69" t="s">
         <v>100</v>
       </c>
-      <c r="Z69" s="59"/>
-    </row>
-    <row r="70" spans="1:26">
-      <c r="A70" s="59"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="64" t="s">
+      <c r="Z69" s="80"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A70" s="80"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="D70" s="64"/>
-      <c r="E70" s="65">
+      <c r="D70" s="61"/>
+      <c r="E70" s="62">
         <v>97427.094938979048</v>
       </c>
-      <c r="F70" s="66">
-        <v>0</v>
-      </c>
-      <c r="G70" s="66">
+      <c r="F70" s="63">
+        <v>0</v>
+      </c>
+      <c r="G70" s="63">
         <v>25503.39327565454</v>
       </c>
-      <c r="H70" s="66">
-        <v>0</v>
-      </c>
-      <c r="I70" s="66">
-        <v>0</v>
-      </c>
-      <c r="J70" s="66">
-        <v>0</v>
-      </c>
-      <c r="K70" s="66">
+      <c r="H70" s="63">
+        <v>0</v>
+      </c>
+      <c r="I70" s="63">
+        <v>0</v>
+      </c>
+      <c r="J70" s="63">
+        <v>0</v>
+      </c>
+      <c r="K70" s="63">
         <v>3761.9653043041112</v>
       </c>
-      <c r="L70" s="66">
+      <c r="L70" s="63">
         <v>3282.5465675405212</v>
       </c>
-      <c r="M70" s="66">
+      <c r="M70" s="63">
         <v>284.71582637050773</v>
       </c>
-      <c r="N70" s="66">
-        <v>0</v>
-      </c>
-      <c r="O70" s="66">
+      <c r="N70" s="63">
+        <v>0</v>
+      </c>
+      <c r="O70" s="63">
         <v>11156.686892886109</v>
       </c>
-      <c r="P70" s="66">
+      <c r="P70" s="63">
         <v>1261.703481898742</v>
       </c>
-      <c r="Q70" s="66">
+      <c r="Q70" s="63">
         <v>429.87653020488813</v>
       </c>
-      <c r="R70" s="66">
+      <c r="R70" s="63">
         <v>24.807874381999419</v>
       </c>
-      <c r="S70" s="66">
+      <c r="S70" s="63">
         <v>43098.678191427258</v>
       </c>
-      <c r="T70" s="66">
+      <c r="T70" s="63">
         <v>8622.7209943103699</v>
       </c>
-      <c r="U70" s="66">
-        <v>0</v>
-      </c>
-      <c r="V70" s="67">
-        <v>0</v>
-      </c>
-      <c r="W70" s="64"/>
-      <c r="X70" s="64" t="s">
+      <c r="U70" s="63">
+        <v>0</v>
+      </c>
+      <c r="V70" s="64">
+        <v>0</v>
+      </c>
+      <c r="W70" s="61"/>
+      <c r="X70" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="Y70" s="64"/>
-      <c r="Z70" s="59"/>
-    </row>
-    <row r="71" spans="1:26">
-      <c r="A71" s="59"/>
+      <c r="Y70" s="61"/>
+      <c r="Z70" s="80"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A71" s="80"/>
       <c r="D71" t="s">
         <v>99</v>
       </c>
-      <c r="E71" s="50">
+      <c r="E71" s="48">
         <v>93665.12963467493</v>
       </c>
-      <c r="F71" s="51">
-        <v>0</v>
-      </c>
-      <c r="G71" s="51">
+      <c r="F71" s="49">
+        <v>0</v>
+      </c>
+      <c r="G71" s="49">
         <v>25503.39327565454</v>
       </c>
-      <c r="H71" s="51">
-        <v>0</v>
-      </c>
-      <c r="I71" s="51">
-        <v>0</v>
-      </c>
-      <c r="J71" s="51">
-        <v>0</v>
-      </c>
-      <c r="K71" s="51">
-        <v>0</v>
-      </c>
-      <c r="L71" s="51">
+      <c r="H71" s="49">
+        <v>0</v>
+      </c>
+      <c r="I71" s="49">
+        <v>0</v>
+      </c>
+      <c r="J71" s="49">
+        <v>0</v>
+      </c>
+      <c r="K71" s="49">
+        <v>0</v>
+      </c>
+      <c r="L71" s="49">
         <v>3282.5465675405212</v>
       </c>
-      <c r="M71" s="51">
+      <c r="M71" s="49">
         <v>284.71582637050773</v>
       </c>
-      <c r="N71" s="51">
-        <v>0</v>
-      </c>
-      <c r="O71" s="51">
+      <c r="N71" s="49">
+        <v>0</v>
+      </c>
+      <c r="O71" s="49">
         <v>11156.686892886109</v>
       </c>
-      <c r="P71" s="51">
+      <c r="P71" s="49">
         <v>1261.703481898742</v>
       </c>
-      <c r="Q71" s="51">
+      <c r="Q71" s="49">
         <v>429.87653020488813</v>
       </c>
-      <c r="R71" s="51">
+      <c r="R71" s="49">
         <v>24.807874381999419</v>
       </c>
-      <c r="S71" s="51">
+      <c r="S71" s="49">
         <v>43098.678191427258</v>
       </c>
-      <c r="T71" s="51">
+      <c r="T71" s="49">
         <v>8622.7209943103699</v>
       </c>
-      <c r="U71" s="51">
-        <v>0</v>
-      </c>
-      <c r="V71" s="52">
+      <c r="U71" s="49">
+        <v>0</v>
+      </c>
+      <c r="V71" s="50">
         <v>0</v>
       </c>
       <c r="Y71" t="s">
         <v>99</v>
       </c>
-      <c r="Z71" s="59"/>
-    </row>
-    <row r="72" spans="1:26">
-      <c r="A72" s="59"/>
+      <c r="Z71" s="80"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A72" s="80"/>
       <c r="D72" t="s">
         <v>100</v>
       </c>
-      <c r="E72" s="50">
+      <c r="E72" s="48">
         <v>3761.9653043041112</v>
       </c>
-      <c r="F72" s="51">
-        <v>0</v>
-      </c>
-      <c r="G72" s="51">
-        <v>0</v>
-      </c>
-      <c r="H72" s="51">
-        <v>0</v>
-      </c>
-      <c r="I72" s="51">
-        <v>0</v>
-      </c>
-      <c r="J72" s="51">
-        <v>0</v>
-      </c>
-      <c r="K72" s="51">
+      <c r="F72" s="49">
+        <v>0</v>
+      </c>
+      <c r="G72" s="49">
+        <v>0</v>
+      </c>
+      <c r="H72" s="49">
+        <v>0</v>
+      </c>
+      <c r="I72" s="49">
+        <v>0</v>
+      </c>
+      <c r="J72" s="49">
+        <v>0</v>
+      </c>
+      <c r="K72" s="49">
         <v>3761.9653043041112</v>
       </c>
-      <c r="L72" s="51">
-        <v>0</v>
-      </c>
-      <c r="M72" s="51">
-        <v>0</v>
-      </c>
-      <c r="N72" s="51">
-        <v>0</v>
-      </c>
-      <c r="O72" s="51">
-        <v>0</v>
-      </c>
-      <c r="P72" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="51">
-        <v>0</v>
-      </c>
-      <c r="R72" s="51">
-        <v>0</v>
-      </c>
-      <c r="S72" s="51">
-        <v>0</v>
-      </c>
-      <c r="T72" s="51">
-        <v>0</v>
-      </c>
-      <c r="U72" s="51">
-        <v>0</v>
-      </c>
-      <c r="V72" s="52">
+      <c r="L72" s="49">
+        <v>0</v>
+      </c>
+      <c r="M72" s="49">
+        <v>0</v>
+      </c>
+      <c r="N72" s="49">
+        <v>0</v>
+      </c>
+      <c r="O72" s="49">
+        <v>0</v>
+      </c>
+      <c r="P72" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="49">
+        <v>0</v>
+      </c>
+      <c r="R72" s="49">
+        <v>0</v>
+      </c>
+      <c r="S72" s="49">
+        <v>0</v>
+      </c>
+      <c r="T72" s="49">
+        <v>0</v>
+      </c>
+      <c r="U72" s="49">
+        <v>0</v>
+      </c>
+      <c r="V72" s="50">
         <v>0</v>
       </c>
       <c r="Y72" t="s">
         <v>100</v>
       </c>
-      <c r="Z72" s="59"/>
-    </row>
-    <row r="73" spans="1:26">
-      <c r="A73" s="59"/>
-      <c r="B73" s="64"/>
-      <c r="C73" s="64" t="s">
+      <c r="Z72" s="80"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A73" s="80"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="D73" s="64"/>
-      <c r="E73" s="65">
-        <v>0</v>
-      </c>
-      <c r="F73" s="66">
-        <v>0</v>
-      </c>
-      <c r="G73" s="66">
-        <v>0</v>
-      </c>
-      <c r="H73" s="66">
-        <v>0</v>
-      </c>
-      <c r="I73" s="66">
-        <v>0</v>
-      </c>
-      <c r="J73" s="66">
-        <v>0</v>
-      </c>
-      <c r="K73" s="66">
-        <v>0</v>
-      </c>
-      <c r="L73" s="66">
-        <v>0</v>
-      </c>
-      <c r="M73" s="66">
-        <v>0</v>
-      </c>
-      <c r="N73" s="66">
-        <v>0</v>
-      </c>
-      <c r="O73" s="66">
-        <v>0</v>
-      </c>
-      <c r="P73" s="66">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="66">
-        <v>0</v>
-      </c>
-      <c r="R73" s="66">
-        <v>0</v>
-      </c>
-      <c r="S73" s="66">
-        <v>0</v>
-      </c>
-      <c r="T73" s="66">
-        <v>0</v>
-      </c>
-      <c r="U73" s="66">
-        <v>0</v>
-      </c>
-      <c r="V73" s="67">
-        <v>0</v>
-      </c>
-      <c r="W73" s="64"/>
-      <c r="X73" s="64" t="s">
+      <c r="D73" s="61"/>
+      <c r="E73" s="62">
+        <v>0</v>
+      </c>
+      <c r="F73" s="63">
+        <v>0</v>
+      </c>
+      <c r="G73" s="63">
+        <v>0</v>
+      </c>
+      <c r="H73" s="63">
+        <v>0</v>
+      </c>
+      <c r="I73" s="63">
+        <v>0</v>
+      </c>
+      <c r="J73" s="63">
+        <v>0</v>
+      </c>
+      <c r="K73" s="63">
+        <v>0</v>
+      </c>
+      <c r="L73" s="63">
+        <v>0</v>
+      </c>
+      <c r="M73" s="63">
+        <v>0</v>
+      </c>
+      <c r="N73" s="63">
+        <v>0</v>
+      </c>
+      <c r="O73" s="63">
+        <v>0</v>
+      </c>
+      <c r="P73" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="63">
+        <v>0</v>
+      </c>
+      <c r="R73" s="63">
+        <v>0</v>
+      </c>
+      <c r="S73" s="63">
+        <v>0</v>
+      </c>
+      <c r="T73" s="63">
+        <v>0</v>
+      </c>
+      <c r="U73" s="63">
+        <v>0</v>
+      </c>
+      <c r="V73" s="64">
+        <v>0</v>
+      </c>
+      <c r="W73" s="61"/>
+      <c r="X73" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="Y73" s="64"/>
-      <c r="Z73" s="59"/>
-    </row>
-    <row r="74" spans="1:26">
-      <c r="A74" s="59"/>
+      <c r="Y73" s="61"/>
+      <c r="Z73" s="80"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A74" s="80"/>
       <c r="D74" t="s">
         <v>100</v>
       </c>
-      <c r="E74" s="50">
-        <v>0</v>
-      </c>
-      <c r="F74" s="51">
-        <v>0</v>
-      </c>
-      <c r="G74" s="51">
-        <v>0</v>
-      </c>
-      <c r="H74" s="51">
-        <v>0</v>
-      </c>
-      <c r="I74" s="51">
-        <v>0</v>
-      </c>
-      <c r="J74" s="51">
-        <v>0</v>
-      </c>
-      <c r="K74" s="51">
-        <v>0</v>
-      </c>
-      <c r="L74" s="51">
-        <v>0</v>
-      </c>
-      <c r="M74" s="51">
-        <v>0</v>
-      </c>
-      <c r="N74" s="51">
-        <v>0</v>
-      </c>
-      <c r="O74" s="51">
-        <v>0</v>
-      </c>
-      <c r="P74" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="51">
-        <v>0</v>
-      </c>
-      <c r="R74" s="51">
-        <v>0</v>
-      </c>
-      <c r="S74" s="51">
-        <v>0</v>
-      </c>
-      <c r="T74" s="51">
-        <v>0</v>
-      </c>
-      <c r="U74" s="51">
-        <v>0</v>
-      </c>
-      <c r="V74" s="52">
-        <v>0</v>
-      </c>
-      <c r="W74" s="71"/>
+      <c r="E74" s="48">
+        <v>0</v>
+      </c>
+      <c r="F74" s="49">
+        <v>0</v>
+      </c>
+      <c r="G74" s="49">
+        <v>0</v>
+      </c>
+      <c r="H74" s="49">
+        <v>0</v>
+      </c>
+      <c r="I74" s="49">
+        <v>0</v>
+      </c>
+      <c r="J74" s="49">
+        <v>0</v>
+      </c>
+      <c r="K74" s="49">
+        <v>0</v>
+      </c>
+      <c r="L74" s="49">
+        <v>0</v>
+      </c>
+      <c r="M74" s="49">
+        <v>0</v>
+      </c>
+      <c r="N74" s="49">
+        <v>0</v>
+      </c>
+      <c r="O74" s="49">
+        <v>0</v>
+      </c>
+      <c r="P74" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="49">
+        <v>0</v>
+      </c>
+      <c r="R74" s="49">
+        <v>0</v>
+      </c>
+      <c r="S74" s="49">
+        <v>0</v>
+      </c>
+      <c r="T74" s="49">
+        <v>0</v>
+      </c>
+      <c r="U74" s="49">
+        <v>0</v>
+      </c>
+      <c r="V74" s="50">
+        <v>0</v>
+      </c>
+      <c r="W74" s="68"/>
       <c r="Y74" t="s">
         <v>100</v>
       </c>
-      <c r="Z74" s="59"/>
-    </row>
-    <row r="75" spans="1:26">
-      <c r="A75" s="59"/>
-      <c r="B75" s="64"/>
-      <c r="C75" s="64" t="s">
+      <c r="Z74" s="80"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A75" s="80"/>
+      <c r="B75" s="61"/>
+      <c r="C75" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="D75" s="64"/>
-      <c r="E75" s="65">
-        <v>0</v>
-      </c>
-      <c r="F75" s="66">
-        <v>0</v>
-      </c>
-      <c r="G75" s="66">
-        <v>0</v>
-      </c>
-      <c r="H75" s="66">
-        <v>0</v>
-      </c>
-      <c r="I75" s="66">
-        <v>0</v>
-      </c>
-      <c r="J75" s="66">
-        <v>0</v>
-      </c>
-      <c r="K75" s="66">
-        <v>0</v>
-      </c>
-      <c r="L75" s="66">
-        <v>0</v>
-      </c>
-      <c r="M75" s="66">
-        <v>0</v>
-      </c>
-      <c r="N75" s="66">
-        <v>0</v>
-      </c>
-      <c r="O75" s="66">
-        <v>0</v>
-      </c>
-      <c r="P75" s="66">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="66">
-        <v>0</v>
-      </c>
-      <c r="R75" s="66">
-        <v>0</v>
-      </c>
-      <c r="S75" s="66">
-        <v>0</v>
-      </c>
-      <c r="T75" s="66">
-        <v>0</v>
-      </c>
-      <c r="U75" s="66">
-        <v>0</v>
-      </c>
-      <c r="V75" s="67">
-        <v>0</v>
-      </c>
-      <c r="W75" s="64"/>
-      <c r="X75" s="64" t="s">
+      <c r="D75" s="61"/>
+      <c r="E75" s="62">
+        <v>0</v>
+      </c>
+      <c r="F75" s="63">
+        <v>0</v>
+      </c>
+      <c r="G75" s="63">
+        <v>0</v>
+      </c>
+      <c r="H75" s="63">
+        <v>0</v>
+      </c>
+      <c r="I75" s="63">
+        <v>0</v>
+      </c>
+      <c r="J75" s="63">
+        <v>0</v>
+      </c>
+      <c r="K75" s="63">
+        <v>0</v>
+      </c>
+      <c r="L75" s="63">
+        <v>0</v>
+      </c>
+      <c r="M75" s="63">
+        <v>0</v>
+      </c>
+      <c r="N75" s="63">
+        <v>0</v>
+      </c>
+      <c r="O75" s="63">
+        <v>0</v>
+      </c>
+      <c r="P75" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="63">
+        <v>0</v>
+      </c>
+      <c r="R75" s="63">
+        <v>0</v>
+      </c>
+      <c r="S75" s="63">
+        <v>0</v>
+      </c>
+      <c r="T75" s="63">
+        <v>0</v>
+      </c>
+      <c r="U75" s="63">
+        <v>0</v>
+      </c>
+      <c r="V75" s="64">
+        <v>0</v>
+      </c>
+      <c r="W75" s="61"/>
+      <c r="X75" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="Y75" s="64"/>
-      <c r="Z75" s="59"/>
-    </row>
-    <row r="76" spans="1:26">
-      <c r="A76" s="59"/>
+      <c r="Y75" s="61"/>
+      <c r="Z75" s="80"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A76" s="80"/>
       <c r="D76" t="s">
         <v>99</v>
       </c>
-      <c r="E76" s="50">
-        <v>0</v>
-      </c>
-      <c r="F76" s="51">
-        <v>0</v>
-      </c>
-      <c r="G76" s="51">
-        <v>0</v>
-      </c>
-      <c r="H76" s="51">
-        <v>0</v>
-      </c>
-      <c r="I76" s="51">
-        <v>0</v>
-      </c>
-      <c r="J76" s="51">
-        <v>0</v>
-      </c>
-      <c r="K76" s="51">
-        <v>0</v>
-      </c>
-      <c r="L76" s="51">
-        <v>0</v>
-      </c>
-      <c r="M76" s="51">
-        <v>0</v>
-      </c>
-      <c r="N76" s="51">
-        <v>0</v>
-      </c>
-      <c r="O76" s="51">
-        <v>0</v>
-      </c>
-      <c r="P76" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="51">
-        <v>0</v>
-      </c>
-      <c r="R76" s="51">
-        <v>0</v>
-      </c>
-      <c r="S76" s="51">
-        <v>0</v>
-      </c>
-      <c r="T76" s="51">
-        <v>0</v>
-      </c>
-      <c r="U76" s="51">
-        <v>0</v>
-      </c>
-      <c r="V76" s="52">
+      <c r="E76" s="48">
+        <v>0</v>
+      </c>
+      <c r="F76" s="49">
+        <v>0</v>
+      </c>
+      <c r="G76" s="49">
+        <v>0</v>
+      </c>
+      <c r="H76" s="49">
+        <v>0</v>
+      </c>
+      <c r="I76" s="49">
+        <v>0</v>
+      </c>
+      <c r="J76" s="49">
+        <v>0</v>
+      </c>
+      <c r="K76" s="49">
+        <v>0</v>
+      </c>
+      <c r="L76" s="49">
+        <v>0</v>
+      </c>
+      <c r="M76" s="49">
+        <v>0</v>
+      </c>
+      <c r="N76" s="49">
+        <v>0</v>
+      </c>
+      <c r="O76" s="49">
+        <v>0</v>
+      </c>
+      <c r="P76" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="49">
+        <v>0</v>
+      </c>
+      <c r="R76" s="49">
+        <v>0</v>
+      </c>
+      <c r="S76" s="49">
+        <v>0</v>
+      </c>
+      <c r="T76" s="49">
+        <v>0</v>
+      </c>
+      <c r="U76" s="49">
+        <v>0</v>
+      </c>
+      <c r="V76" s="50">
         <v>0</v>
       </c>
       <c r="Y76" t="s">
         <v>99</v>
       </c>
-      <c r="Z76" s="59"/>
-    </row>
-    <row r="77" spans="1:26">
-      <c r="A77" s="72" t="s">
+      <c r="Z76" s="80"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A77" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="B77" s="73" t="s">
+      <c r="B77" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="C77" s="73"/>
-      <c r="D77" s="73"/>
-      <c r="E77" s="74">
+      <c r="C77" s="69"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="70">
         <v>5409625.0325611467</v>
       </c>
-      <c r="F77" s="75">
+      <c r="F77" s="71">
         <v>334995.99249158538</v>
       </c>
-      <c r="G77" s="75">
+      <c r="G77" s="71">
         <v>327973.07874010381</v>
       </c>
-      <c r="H77" s="75">
+      <c r="H77" s="71">
         <v>14946.980871083741</v>
       </c>
-      <c r="I77" s="75">
+      <c r="I77" s="71">
         <v>1347242.934133302</v>
       </c>
-      <c r="J77" s="75">
+      <c r="J77" s="71">
         <v>64939.581808580762</v>
       </c>
-      <c r="K77" s="75">
+      <c r="K77" s="71">
         <v>84631.061123991152</v>
       </c>
-      <c r="L77" s="75">
+      <c r="L77" s="71">
         <v>216800.2883790755</v>
       </c>
-      <c r="M77" s="75">
+      <c r="M77" s="71">
         <v>40393.753149012977</v>
       </c>
-      <c r="N77" s="75">
+      <c r="N77" s="71">
         <v>1545077.227646505</v>
       </c>
-      <c r="O77" s="75">
+      <c r="O77" s="71">
         <v>276080.71123147808</v>
       </c>
-      <c r="P77" s="75">
+      <c r="P77" s="71">
         <v>206224.08957945809</v>
       </c>
-      <c r="Q77" s="75">
+      <c r="Q77" s="71">
         <v>488720.49516685592</v>
       </c>
-      <c r="R77" s="75">
+      <c r="R77" s="71">
         <v>111198.2636053707</v>
       </c>
-      <c r="S77" s="75">
+      <c r="S77" s="71">
         <v>292191.24364386889</v>
       </c>
-      <c r="T77" s="75">
+      <c r="T77" s="71">
         <v>29233.036452119119</v>
       </c>
-      <c r="U77" s="75">
+      <c r="U77" s="71">
         <v>28593.24949322897</v>
       </c>
-      <c r="V77" s="76">
+      <c r="V77" s="72">
         <v>383.04504552537469</v>
       </c>
-      <c r="W77" s="73" t="s">
+      <c r="W77" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="X77" s="73"/>
-      <c r="Y77" s="73"/>
-      <c r="Z77" s="72" t="s">
+      <c r="X77" s="69"/>
+      <c r="Y77" s="69"/>
+      <c r="Z77" s="81" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:26">
-      <c r="A78" s="59"/>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A78" s="80"/>
       <c r="B78" t="s">
         <v>105</v>
       </c>
       <c r="D78" t="s">
         <v>99</v>
       </c>
-      <c r="E78" s="50">
+      <c r="E78" s="48">
         <v>5329683.53156</v>
       </c>
-      <c r="F78" s="51">
+      <c r="F78" s="49">
         <v>326913.74203099997</v>
       </c>
-      <c r="G78" s="51">
+      <c r="G78" s="49">
         <v>324707.61972700001</v>
       </c>
-      <c r="H78" s="51">
+      <c r="H78" s="49">
         <v>11544.26405</v>
       </c>
-      <c r="I78" s="51">
+      <c r="I78" s="49">
         <v>1342785.2474160001</v>
       </c>
-      <c r="J78" s="51">
+      <c r="J78" s="49">
         <v>60323.889009999999</v>
       </c>
-      <c r="K78" s="51">
+      <c r="K78" s="49">
         <v>59605.451482999997</v>
       </c>
-      <c r="L78" s="51">
+      <c r="L78" s="49">
         <v>215408.558047</v>
       </c>
-      <c r="M78" s="51">
+      <c r="M78" s="49">
         <v>40323.528224000002</v>
       </c>
-      <c r="N78" s="51">
+      <c r="N78" s="49">
         <v>1532633.0517299999</v>
       </c>
-      <c r="O78" s="51">
+      <c r="O78" s="49">
         <v>275215.66783699999</v>
       </c>
-      <c r="P78" s="51">
+      <c r="P78" s="49">
         <v>205221.78837699999</v>
       </c>
-      <c r="Q78" s="51">
+      <c r="Q78" s="49">
         <v>486304.11933800002</v>
       </c>
-      <c r="R78" s="51">
+      <c r="R78" s="49">
         <v>109439.44843800001</v>
       </c>
-      <c r="S78" s="51">
+      <c r="S78" s="49">
         <v>289704.64289000002</v>
       </c>
-      <c r="T78" s="51">
+      <c r="T78" s="49">
         <v>24164.073682999999</v>
       </c>
-      <c r="U78" s="51">
+      <c r="U78" s="49">
         <v>25388.439278999998</v>
       </c>
-      <c r="V78" s="52">
+      <c r="V78" s="50">
         <v>0</v>
       </c>
       <c r="W78" t="s">
@@ -6893,68 +6945,68 @@
       <c r="Y78" t="s">
         <v>99</v>
       </c>
-      <c r="Z78" s="59"/>
-    </row>
-    <row r="79" spans="1:26">
-      <c r="A79" s="59"/>
+      <c r="Z78" s="80"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A79" s="80"/>
       <c r="B79" t="s">
         <v>105</v>
       </c>
       <c r="D79" t="s">
         <v>100</v>
       </c>
-      <c r="E79" s="50">
+      <c r="E79" s="48">
         <v>79941.501001145705</v>
       </c>
-      <c r="F79" s="51">
+      <c r="F79" s="49">
         <v>8082.2504605854056</v>
       </c>
-      <c r="G79" s="51">
+      <c r="G79" s="49">
         <v>3265.459013103819</v>
       </c>
-      <c r="H79" s="51">
+      <c r="H79" s="49">
         <v>3402.7168210837449</v>
       </c>
-      <c r="I79" s="51">
+      <c r="I79" s="49">
         <v>4457.686717301548</v>
       </c>
-      <c r="J79" s="51">
+      <c r="J79" s="49">
         <v>4615.6927985807652</v>
       </c>
-      <c r="K79" s="51">
+      <c r="K79" s="49">
         <v>25025.609640991152</v>
       </c>
-      <c r="L79" s="51">
+      <c r="L79" s="49">
         <v>1391.7303320755279</v>
       </c>
-      <c r="M79" s="51">
+      <c r="M79" s="49">
         <v>70.224925012985352</v>
       </c>
-      <c r="N79" s="51">
+      <c r="N79" s="49">
         <v>12444.17591650561</v>
       </c>
-      <c r="O79" s="51">
+      <c r="O79" s="49">
         <v>865.04339447813777</v>
       </c>
-      <c r="P79" s="51">
+      <c r="P79" s="49">
         <v>1002.301202458064</v>
       </c>
-      <c r="Q79" s="51">
+      <c r="Q79" s="49">
         <v>2416.3758288559052</v>
       </c>
-      <c r="R79" s="51">
+      <c r="R79" s="49">
         <v>1758.8151673706791</v>
       </c>
-      <c r="S79" s="51">
+      <c r="S79" s="49">
         <v>2486.6007538688909</v>
       </c>
-      <c r="T79" s="51">
+      <c r="T79" s="49">
         <v>5068.9627691191254</v>
       </c>
-      <c r="U79" s="51">
+      <c r="U79" s="49">
         <v>3204.810214228969</v>
       </c>
-      <c r="V79" s="52">
+      <c r="V79" s="50">
         <v>383.04504552537469</v>
       </c>
       <c r="W79" t="s">
@@ -6963,145 +7015,145 @@
       <c r="Y79" t="s">
         <v>100</v>
       </c>
-      <c r="Z79" s="59"/>
-    </row>
-    <row r="80" spans="1:26">
-      <c r="A80" s="59"/>
-      <c r="B80" s="46" t="s">
+      <c r="Z79" s="80"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A80" s="80"/>
+      <c r="B80" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="C80" s="46"/>
-      <c r="D80" s="46"/>
-      <c r="E80" s="47">
+      <c r="C80" s="44"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="45">
         <v>1964827.3</v>
       </c>
-      <c r="F80" s="48">
-        <v>0</v>
-      </c>
-      <c r="G80" s="48">
-        <v>0</v>
-      </c>
-      <c r="H80" s="48">
-        <v>0</v>
-      </c>
-      <c r="I80" s="48">
-        <v>0</v>
-      </c>
-      <c r="J80" s="48">
-        <v>0</v>
-      </c>
-      <c r="K80" s="48">
-        <v>0</v>
-      </c>
-      <c r="L80" s="48">
-        <v>0</v>
-      </c>
-      <c r="M80" s="48">
-        <v>0</v>
-      </c>
-      <c r="N80" s="48">
-        <v>0</v>
-      </c>
-      <c r="O80" s="48">
-        <v>0</v>
-      </c>
-      <c r="P80" s="48">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="48">
+      <c r="F80" s="46">
+        <v>0</v>
+      </c>
+      <c r="G80" s="46">
+        <v>0</v>
+      </c>
+      <c r="H80" s="46">
+        <v>0</v>
+      </c>
+      <c r="I80" s="46">
+        <v>0</v>
+      </c>
+      <c r="J80" s="46">
+        <v>0</v>
+      </c>
+      <c r="K80" s="46">
+        <v>0</v>
+      </c>
+      <c r="L80" s="46">
+        <v>0</v>
+      </c>
+      <c r="M80" s="46">
+        <v>0</v>
+      </c>
+      <c r="N80" s="46">
+        <v>0</v>
+      </c>
+      <c r="O80" s="46">
+        <v>0</v>
+      </c>
+      <c r="P80" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="46">
         <v>1964827.3</v>
       </c>
-      <c r="R80" s="48">
-        <v>0</v>
-      </c>
-      <c r="S80" s="48">
-        <v>0</v>
-      </c>
-      <c r="T80" s="48">
-        <v>0</v>
-      </c>
-      <c r="U80" s="48">
-        <v>0</v>
-      </c>
-      <c r="V80" s="49">
-        <v>0</v>
-      </c>
-      <c r="W80" s="46" t="s">
+      <c r="R80" s="46">
+        <v>0</v>
+      </c>
+      <c r="S80" s="46">
+        <v>0</v>
+      </c>
+      <c r="T80" s="46">
+        <v>0</v>
+      </c>
+      <c r="U80" s="46">
+        <v>0</v>
+      </c>
+      <c r="V80" s="47">
+        <v>0</v>
+      </c>
+      <c r="W80" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="X80" s="46"/>
-      <c r="Y80" s="46"/>
-      <c r="Z80" s="59"/>
-    </row>
-    <row r="81" spans="1:26" ht="17.5" thickBot="1">
-      <c r="A81" s="77"/>
-      <c r="B81" s="78"/>
-      <c r="C81" s="78"/>
-      <c r="D81" s="78" t="s">
+      <c r="X80" s="44"/>
+      <c r="Y80" s="44"/>
+      <c r="Z80" s="80"/>
+    </row>
+    <row r="81" spans="1:26" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A81" s="82"/>
+      <c r="B81" s="73"/>
+      <c r="C81" s="73"/>
+      <c r="D81" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="E81" s="79">
+      <c r="E81" s="74">
         <v>1964827.3</v>
       </c>
-      <c r="F81" s="80">
-        <v>0</v>
-      </c>
-      <c r="G81" s="80">
-        <v>0</v>
-      </c>
-      <c r="H81" s="80">
-        <v>0</v>
-      </c>
-      <c r="I81" s="80">
-        <v>0</v>
-      </c>
-      <c r="J81" s="80">
-        <v>0</v>
-      </c>
-      <c r="K81" s="80">
-        <v>0</v>
-      </c>
-      <c r="L81" s="80">
-        <v>0</v>
-      </c>
-      <c r="M81" s="80">
-        <v>0</v>
-      </c>
-      <c r="N81" s="80">
-        <v>0</v>
-      </c>
-      <c r="O81" s="80">
-        <v>0</v>
-      </c>
-      <c r="P81" s="80">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="80">
+      <c r="F81" s="75">
+        <v>0</v>
+      </c>
+      <c r="G81" s="75">
+        <v>0</v>
+      </c>
+      <c r="H81" s="75">
+        <v>0</v>
+      </c>
+      <c r="I81" s="75">
+        <v>0</v>
+      </c>
+      <c r="J81" s="75">
+        <v>0</v>
+      </c>
+      <c r="K81" s="75">
+        <v>0</v>
+      </c>
+      <c r="L81" s="75">
+        <v>0</v>
+      </c>
+      <c r="M81" s="75">
+        <v>0</v>
+      </c>
+      <c r="N81" s="75">
+        <v>0</v>
+      </c>
+      <c r="O81" s="75">
+        <v>0</v>
+      </c>
+      <c r="P81" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="75">
         <v>1964827.3</v>
       </c>
-      <c r="R81" s="80">
-        <v>0</v>
-      </c>
-      <c r="S81" s="80">
-        <v>0</v>
-      </c>
-      <c r="T81" s="80">
-        <v>0</v>
-      </c>
-      <c r="U81" s="80">
-        <v>0</v>
-      </c>
-      <c r="V81" s="81">
-        <v>0</v>
-      </c>
-      <c r="W81" s="78"/>
-      <c r="X81" s="78"/>
-      <c r="Y81" s="78" t="s">
+      <c r="R81" s="75">
+        <v>0</v>
+      </c>
+      <c r="S81" s="75">
+        <v>0</v>
+      </c>
+      <c r="T81" s="75">
+        <v>0</v>
+      </c>
+      <c r="U81" s="75">
+        <v>0</v>
+      </c>
+      <c r="V81" s="76">
+        <v>0</v>
+      </c>
+      <c r="W81" s="73"/>
+      <c r="X81" s="73"/>
+      <c r="Y81" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="Z81" s="77"/>
-    </row>
-    <row r="82" spans="1:26">
+      <c r="Z81" s="82"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.45">
       <c r="E82" s="35"/>
       <c r="F82" s="35"/>
       <c r="G82" s="35"/>
@@ -7121,7 +7173,7 @@
       <c r="U82" s="35"/>
       <c r="V82" s="35"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A83" s="37" t="s">
         <v>130</v>
       </c>
@@ -7144,7 +7196,7 @@
       <c r="U83" s="35"/>
       <c r="V83" s="35"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A84" s="37" t="s">
         <v>131</v>
       </c>
@@ -7167,7 +7219,7 @@
       <c r="U84" s="35"/>
       <c r="V84" s="35"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A85" s="37" t="s">
         <v>132</v>
       </c>
@@ -7190,7 +7242,7 @@
       <c r="U85" s="35"/>
       <c r="V85" s="35"/>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A86" s="37" t="s">
         <v>133</v>
       </c>
@@ -7213,7 +7265,7 @@
       <c r="U86" s="35"/>
       <c r="V86" s="35"/>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A87" s="37" t="s">
         <v>134</v>
       </c>
@@ -7236,7 +7288,7 @@
       <c r="U87" s="35"/>
       <c r="V87" s="35"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A88" s="37" t="s">
         <v>135</v>
       </c>
@@ -7259,7 +7311,7 @@
       <c r="U88" s="35"/>
       <c r="V88" s="35"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A89" s="37" t="s">
         <v>136</v>
       </c>
@@ -7282,7 +7334,7 @@
       <c r="U89" s="35"/>
       <c r="V89" s="35"/>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A90" s="37" t="s">
         <v>137</v>
       </c>
@@ -7319,7 +7371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7F234A-43A7-4A1E-B6E3-9F072D6F2695}">
   <dimension ref="A1:U38"/>
   <sheetViews>
@@ -7327,19 +7379,19 @@
       <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="19" width="10.75" style="3" customWidth="1"/>
     <col min="20" max="20" width="17.08203125" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9.08203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="20.5">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="20.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="16.5" thickBot="1">
+    <row r="3" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -7348,7 +7400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
         <v>7</v>
@@ -7405,7 +7457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="16.5" thickBot="1">
+    <row r="5" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="9"/>
       <c r="B5" s="10" t="s">
         <v>25</v>
@@ -7462,7 +7514,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="16.5" thickTop="1">
+    <row r="6" spans="1:20" ht="16.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A6" s="13">
         <v>1991</v>
       </c>
@@ -7522,7 +7574,7 @@
       </c>
       <c r="T6" s="15"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" s="13">
         <v>1992</v>
       </c>
@@ -7582,7 +7634,7 @@
       </c>
       <c r="T7" s="15"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" s="13">
         <v>1993</v>
       </c>
@@ -7642,7 +7694,7 @@
       </c>
       <c r="T8" s="15"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" s="13">
         <v>1994</v>
       </c>
@@ -7702,7 +7754,7 @@
       </c>
       <c r="T9" s="15"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="16">
         <v>1995</v>
       </c>
@@ -7762,7 +7814,7 @@
       </c>
       <c r="T10" s="15"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="17">
         <v>1996</v>
       </c>
@@ -7822,7 +7874,7 @@
       </c>
       <c r="T11" s="15"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" s="13">
         <v>1997</v>
       </c>
@@ -7882,7 +7934,7 @@
       </c>
       <c r="T12" s="15"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" s="13">
         <v>1998</v>
       </c>
@@ -7942,7 +7994,7 @@
       </c>
       <c r="T13" s="15"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="13">
         <v>1999</v>
       </c>
@@ -8002,7 +8054,7 @@
       </c>
       <c r="T14" s="15"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" s="16">
         <v>2000</v>
       </c>
@@ -8062,7 +8114,7 @@
       </c>
       <c r="T15" s="15"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" s="17">
         <v>2001</v>
       </c>
@@ -8122,7 +8174,7 @@
       </c>
       <c r="T16" s="15"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" s="13">
         <v>2002</v>
       </c>
@@ -8182,7 +8234,7 @@
       </c>
       <c r="T17" s="15"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" s="13">
         <v>2003</v>
       </c>
@@ -8242,7 +8294,7 @@
       </c>
       <c r="T18" s="15"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="23">
         <v>2004</v>
       </c>
@@ -8302,7 +8354,7 @@
       </c>
       <c r="T19" s="15"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="16">
         <v>2005</v>
       </c>
@@ -8362,7 +8414,7 @@
       </c>
       <c r="T20" s="15"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" s="17">
         <v>2006</v>
       </c>
@@ -8422,7 +8474,7 @@
       </c>
       <c r="T21" s="15"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" s="13">
         <v>2007</v>
       </c>
@@ -8482,7 +8534,7 @@
       </c>
       <c r="T22" s="15"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" s="13">
         <v>2008</v>
       </c>
@@ -8542,7 +8594,7 @@
       </c>
       <c r="T23" s="15"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" s="13">
         <v>2009</v>
       </c>
@@ -8602,7 +8654,7 @@
       </c>
       <c r="T24" s="15"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" s="16">
         <v>2010</v>
       </c>
@@ -8662,7 +8714,7 @@
       </c>
       <c r="T25" s="15"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="13">
         <v>2011</v>
       </c>
@@ -8722,7 +8774,7 @@
       </c>
       <c r="T26" s="15"/>
     </row>
-    <row r="27" spans="1:20" s="24" customFormat="1">
+    <row r="27" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="13">
         <v>2012</v>
       </c>
@@ -8782,7 +8834,7 @@
       </c>
       <c r="T27" s="15"/>
     </row>
-    <row r="28" spans="1:20" s="24" customFormat="1">
+    <row r="28" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="13">
         <v>2013</v>
       </c>
@@ -8842,7 +8894,7 @@
       </c>
       <c r="T28" s="15"/>
     </row>
-    <row r="29" spans="1:20" s="24" customFormat="1">
+    <row r="29" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" s="13">
         <v>2014</v>
       </c>
@@ -8902,7 +8954,7 @@
       </c>
       <c r="T29" s="15"/>
     </row>
-    <row r="30" spans="1:20" s="24" customFormat="1">
+    <row r="30" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="16">
         <v>2015</v>
       </c>
@@ -8962,7 +9014,7 @@
       </c>
       <c r="T30" s="15"/>
     </row>
-    <row r="31" spans="1:20" s="24" customFormat="1">
+    <row r="31" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="13">
         <v>2016</v>
       </c>
@@ -9022,7 +9074,7 @@
       </c>
       <c r="T31" s="15"/>
     </row>
-    <row r="32" spans="1:20" s="24" customFormat="1">
+    <row r="32" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="13">
         <v>2017</v>
       </c>
@@ -9082,7 +9134,7 @@
       </c>
       <c r="T32" s="15"/>
     </row>
-    <row r="33" spans="1:21" s="24" customFormat="1">
+    <row r="33" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="13">
         <v>2018</v>
       </c>
@@ -9142,7 +9194,7 @@
       </c>
       <c r="T33" s="15"/>
     </row>
-    <row r="34" spans="1:21" s="24" customFormat="1">
+    <row r="34" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="13">
         <v>2019</v>
       </c>
@@ -9202,7 +9254,7 @@
       </c>
       <c r="T34" s="15"/>
     </row>
-    <row r="35" spans="1:21" s="24" customFormat="1">
+    <row r="35" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="25">
         <v>2020</v>
       </c>
@@ -9262,7 +9314,7 @@
       </c>
       <c r="T35" s="15"/>
     </row>
-    <row r="36" spans="1:21" s="24" customFormat="1">
+    <row r="36" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="13">
         <v>2021</v>
       </c>
@@ -9322,7 +9374,7 @@
       </c>
       <c r="T36" s="15"/>
     </row>
-    <row r="37" spans="1:21" s="24" customFormat="1" ht="16.5" thickBot="1">
+    <row r="37" spans="1:21" s="24" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="26">
         <v>2022</v>
       </c>
@@ -9385,7 +9437,7 @@
         <v>0.14431378083019852</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="29" customFormat="1">
+    <row r="38" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="29" t="s">
         <v>43</v>
       </c>
@@ -9401,7 +9453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9922FD-DCA2-4B12-A090-21295F7ECBE3}">
   <dimension ref="A1:T82"/>
   <sheetViews>
@@ -9409,17 +9461,17 @@
       <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="16384" width="9.08203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>70</v>
       </c>
@@ -9427,7 +9479,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -9486,7 +9538,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>47</v>
       </c>
@@ -9545,7 +9597,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>1996</v>
       </c>
@@ -9607,7 +9659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>1997</v>
       </c>
@@ -9669,7 +9721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>1998</v>
       </c>
@@ -9731,7 +9783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>1999</v>
       </c>
@@ -9793,7 +9845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>2000</v>
       </c>
@@ -9855,7 +9907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>2001</v>
       </c>
@@ -9917,7 +9969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>2002</v>
       </c>
@@ -9979,7 +10031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>2003</v>
       </c>
@@ -10041,7 +10093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>2004</v>
       </c>
@@ -10103,7 +10155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>2005</v>
       </c>
@@ -10165,7 +10217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>2006</v>
       </c>
@@ -10227,7 +10279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>2007</v>
       </c>
@@ -10289,7 +10341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>2008</v>
       </c>
@@ -10351,7 +10403,7 @@
         <v>52.82</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>2009</v>
       </c>
@@ -10413,7 +10465,7 @@
         <v>112.69199999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>2010</v>
       </c>
@@ -10475,7 +10527,7 @@
         <v>151.76300000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>2011</v>
       </c>
@@ -10537,7 +10589,7 @@
         <v>158.97499999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>90</v>
       </c>
@@ -10599,7 +10651,7 @@
         <v>147.017</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>91</v>
       </c>
@@ -10661,7 +10713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>65</v>
       </c>
@@ -10723,7 +10775,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>66</v>
       </c>
@@ -10785,7 +10837,7 @@
         <v>11.941000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>2012</v>
       </c>
@@ -10847,7 +10899,7 @@
         <v>178.351</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>90</v>
       </c>
@@ -10909,7 +10961,7 @@
         <v>164.43100000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>91</v>
       </c>
@@ -10971,7 +11023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>65</v>
       </c>
@@ -11033,7 +11085,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>66</v>
       </c>
@@ -11095,7 +11147,7 @@
         <v>13.904</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>2013</v>
       </c>
@@ -11157,7 +11209,7 @@
         <v>103.417</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>90</v>
       </c>
@@ -11219,7 +11271,7 @@
         <v>93.123999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>91</v>
       </c>
@@ -11281,7 +11333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>65</v>
       </c>
@@ -11343,7 +11395,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>66</v>
       </c>
@@ -11405,7 +11457,7 @@
         <v>10.28</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <v>2014</v>
       </c>
@@ -11467,7 +11519,7 @@
         <v>178.108</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>90</v>
       </c>
@@ -11529,7 +11581,7 @@
         <v>165.512</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>91</v>
       </c>
@@ -11591,7 +11643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>65</v>
       </c>
@@ -11653,7 +11705,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>66</v>
       </c>
@@ -11715,7 +11767,7 @@
         <v>12.481</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <v>2015</v>
       </c>
@@ -11777,7 +11829,7 @@
         <v>190.54300000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>90</v>
       </c>
@@ -11839,7 +11891,7 @@
         <v>178.33199999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>91</v>
       </c>
@@ -11901,7 +11953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>65</v>
       </c>
@@ -11963,7 +12015,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>66</v>
       </c>
@@ -12025,7 +12077,7 @@
         <v>12.105</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>2016</v>
       </c>
@@ -12087,7 +12139,7 @@
         <v>20.478999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>90</v>
       </c>
@@ -12149,7 +12201,7 @@
         <v>18.954000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>91</v>
       </c>
@@ -12211,7 +12263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>65</v>
       </c>
@@ -12273,7 +12325,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>66</v>
       </c>
@@ -12335,7 +12387,7 @@
         <v>1.5129999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <v>2017</v>
       </c>
@@ -12397,7 +12449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>90</v>
       </c>
@@ -12459,7 +12511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>91</v>
       </c>
@@ -12521,7 +12573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>65</v>
       </c>
@@ -12583,7 +12635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>66</v>
       </c>
@@ -12645,7 +12697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
         <v>2018</v>
       </c>
@@ -12707,7 +12759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>90</v>
       </c>
@@ -12769,7 +12821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>91</v>
       </c>
@@ -12831,7 +12883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>65</v>
       </c>
@@ -12893,7 +12945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>66</v>
       </c>
@@ -12955,7 +13007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>2019</v>
       </c>
@@ -13017,7 +13069,7 @@
         <v>3.786</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>90</v>
       </c>
@@ -13079,7 +13131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>91</v>
       </c>
@@ -13141,7 +13193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>65</v>
       </c>
@@ -13203,7 +13255,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>66</v>
       </c>
@@ -13265,7 +13317,7 @@
         <v>3.68</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
         <v>2020</v>
       </c>
@@ -13327,7 +13379,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>90</v>
       </c>
@@ -13389,7 +13441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>91</v>
       </c>
@@ -13451,7 +13503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>65</v>
       </c>
@@ -13513,7 +13565,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>66</v>
       </c>
@@ -13575,7 +13627,7 @@
         <v>1.8029999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
         <v>2021</v>
       </c>
@@ -13637,7 +13689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>90</v>
       </c>
@@ -13699,7 +13751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>91</v>
       </c>
@@ -13761,7 +13813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>65</v>
       </c>
@@ -13823,7 +13875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>66</v>
       </c>
@@ -13885,7 +13937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A76" s="3">
         <v>2022</v>
       </c>
@@ -13947,7 +13999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>90</v>
       </c>
@@ -14009,7 +14061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>91</v>
       </c>
@@ -14071,7 +14123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>65</v>
       </c>
@@ -14133,7 +14185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>66</v>
       </c>
@@ -14195,7 +14247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>67</v>
       </c>
@@ -14203,7 +14255,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>69</v>
       </c>
